--- a/baseline_prWin_metrics.xlsx
+++ b/baseline_prWin_metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael.peng/Documents/pkrprb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F4035A-9604-4743-BE1A-14F52A7609EF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190F63F5-E872-A749-8FC8-68FCC33255B7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14340" activeTab="3" xr2:uid="{CD697F08-0CC6-5044-82D1-47E874A00822}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14340" activeTab="5" xr2:uid="{CD697F08-0CC6-5044-82D1-47E874A00822}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline prWin =&gt; win" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="30">
   <si>
     <t>Deal</t>
   </si>
@@ -112,6 +112,29 @@
     <t>feat  = ['N','pos','prWin','cards','hand','board','Naction','op_resp','minBet','op_chips','prev',]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>feat = ['N', 'pos', 'prWin', 'cards', 'hand', 'board', 'Naction', 'op_resp', 'minBet']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>feat = ['N', 'prWin', 'cards', 'hand', 'board', 'Naction', 'minBet']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tr = 20180723~0802, tt = 20180803</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tr = 20180730~0802, tt = 20180803</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tr = 20180716~0802, tt = 20180803</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cv</t>
+  </si>
 </sst>
 </file>
 
@@ -182,7 +205,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -205,6 +228,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2968,10 +2994,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCBF2583-5519-4143-80BE-D0EA616BA128}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="F2" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
@@ -2979,14 +3005,18 @@
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="10.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3000,7 +3030,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -3016,8 +3046,20 @@
       <c r="E3" s="5">
         <v>98355.75</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" hidden="1">
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -3030,8 +3072,23 @@
       <c r="E4" s="5">
         <v>87.4</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" hidden="1">
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4">
+        <v>239307</v>
+      </c>
+      <c r="J4">
+        <v>239307</v>
+      </c>
+      <c r="K4">
+        <v>239307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -3044,8 +3101,20 @@
       <c r="E5" s="5">
         <v>75.58</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" hidden="1">
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.91220500000000004</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.86802299999999999</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.87446299999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -3058,8 +3127,20 @@
       <c r="E6" s="5">
         <v>90.42</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" hidden="1">
+      <c r="H6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.84989599999999998</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.77309300000000003</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.76280300000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -3072,8 +3153,20 @@
       <c r="E7" s="5">
         <v>64.92</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.89881500000000003</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.90883400000000003</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.90569200000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -3089,8 +3182,20 @@
       <c r="E8" s="5">
         <v>32785.25</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="H8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.80602799999999997</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.67262999999999995</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.658856</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="B9" t="s">
         <v>4</v>
       </c>
@@ -3103,8 +3208,23 @@
       <c r="E9" s="5">
         <v>78.819999999999993</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9">
+        <v>19674</v>
+      </c>
+      <c r="J9">
+        <v>19674</v>
+      </c>
+      <c r="K9">
+        <v>19674</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="B10" t="s">
         <v>5</v>
       </c>
@@ -3117,8 +3237,20 @@
       <c r="E10" s="5">
         <v>57.38</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="H10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.84182199999999996</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.75241400000000003</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.78397899999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="B11" t="s">
         <v>6</v>
       </c>
@@ -3131,8 +3263,20 @@
       <c r="E11" s="5">
         <v>72.47</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="H11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.72278600000000004</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.54827000000000004</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.57009900000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="B12" t="s">
         <v>7</v>
       </c>
@@ -3145,13 +3289,37 @@
       <c r="E12" s="5">
         <v>47.49</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="H12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.77705400000000002</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.686643</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.71359799999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="H13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.67560399999999998</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.456314</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.47465000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="C14" s="5" t="s">
         <v>10</v>
       </c>
@@ -3161,8 +3329,11 @@
       <c r="E14" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" hidden="1">
+      <c r="G14" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" hidden="1">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -3178,8 +3349,17 @@
       <c r="E15" s="5">
         <v>98355.75</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" hidden="1">
+      <c r="I15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" hidden="1">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -3195,8 +3375,23 @@
       <c r="E16" s="5">
         <v>89.64</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" hidden="1">
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16">
+        <v>131141</v>
+      </c>
+      <c r="J16">
+        <v>131141</v>
+      </c>
+      <c r="K16">
+        <v>131141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" hidden="1">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -3212,8 +3407,20 @@
       <c r="E17" s="5">
         <v>80.42</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" hidden="1">
+      <c r="H17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.91488599999999998</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.87273199999999995</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.88044199999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" hidden="1">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -3229,8 +3436,20 @@
       <c r="E18" s="5">
         <v>92.91</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" hidden="1">
+      <c r="H18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.85127200000000003</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.77715800000000002</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.77132000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" hidden="1">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -3246,8 +3465,20 @@
       <c r="E19" s="5">
         <v>70.900000000000006</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="H19" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.90267900000000001</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.91403900000000005</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.90588900000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -3263,8 +3494,20 @@
       <c r="E20" s="5">
         <v>32785.25</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="H20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.80540599999999996</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.67593400000000003</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.67156000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -3280,8 +3523,23 @@
       <c r="E21" s="5">
         <v>79.239999999999995</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21">
+        <v>19674</v>
+      </c>
+      <c r="J21">
+        <v>19674</v>
+      </c>
+      <c r="K21">
+        <v>19674</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -3297,8 +3555,20 @@
       <c r="E22" s="5">
         <v>58.79</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="H22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.84034799999999998</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.75348199999999999</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.78362299999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -3314,8 +3584,20 @@
       <c r="E23" s="5">
         <v>72.77</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="H23" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.71816999999999998</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.54732099999999995</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.57220400000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -3331,13 +3613,37 @@
       <c r="E24" s="5">
         <v>49.32</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="H24" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.77859900000000004</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0.69216200000000005</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.70926800000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="H25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.66644499999999995</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.45260899999999998</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.47953499999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="C26" s="5" t="s">
         <v>10</v>
       </c>
@@ -3348,7 +3654,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1">
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -3365,7 +3671,7 @@
         <v>98355.75</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1">
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -3382,7 +3688,7 @@
         <v>89.21</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1">
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -3399,7 +3705,7 @@
         <v>79.5</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1">
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -3416,7 +3722,7 @@
         <v>92.55</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1">
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -3433,7 +3739,7 @@
         <v>69.680000000000007</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -3449,8 +3755,11 @@
       <c r="E32" s="5">
         <v>32785.25</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="G32" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -3466,8 +3775,17 @@
       <c r="E33" s="5">
         <v>79.180000000000007</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="I33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33" t="s">
+        <v>12</v>
+      </c>
+      <c r="K33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -3483,8 +3801,23 @@
       <c r="E34" s="5">
         <v>58.43</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34">
+        <v>73483</v>
+      </c>
+      <c r="J34">
+        <v>73483</v>
+      </c>
+      <c r="K34">
+        <v>73483</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -3500,8 +3833,20 @@
       <c r="E35" s="5">
         <v>72.930000000000007</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="H35" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.91602099999999997</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0.87391600000000003</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0.88559299999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -3516,6 +3861,477 @@
       </c>
       <c r="E36" s="5">
         <v>48.74</v>
+      </c>
+      <c r="H36" t="s">
+        <v>5</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0.85240000000000005</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0.77841800000000005</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0.78057100000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" t="s">
+        <v>6</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0.90543700000000005</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0.91540100000000002</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0.91076900000000005</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="C38" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0.80523299999999998</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0.67709600000000003</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0.68294100000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" hidden="1">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="5">
+        <v>98355.75</v>
+      </c>
+      <c r="D39" s="5">
+        <v>98355.75</v>
+      </c>
+      <c r="E39" s="5">
+        <v>98355.75</v>
+      </c>
+      <c r="G39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39">
+        <v>19674</v>
+      </c>
+      <c r="J39">
+        <v>19674</v>
+      </c>
+      <c r="K39">
+        <v>19674</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" hidden="1">
+      <c r="A40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="5">
+        <v>91.39</v>
+      </c>
+      <c r="D40" s="5">
+        <v>87.15</v>
+      </c>
+      <c r="E40" s="5">
+        <v>87.92</v>
+      </c>
+      <c r="H40" t="s">
+        <v>4</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0.83795900000000001</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0.75078800000000001</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0.78392799999999996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" hidden="1">
+      <c r="A41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="5">
+        <v>84.9</v>
+      </c>
+      <c r="D41" s="5">
+        <v>77.42</v>
+      </c>
+      <c r="E41" s="5">
+        <v>76.819999999999993</v>
+      </c>
+      <c r="H41" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0.71279300000000001</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0.53845399999999999</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0.57186000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" hidden="1">
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="5">
+        <v>90.37</v>
+      </c>
+      <c r="D42" s="5">
+        <v>91.45</v>
+      </c>
+      <c r="E42" s="5">
+        <v>90.57</v>
+      </c>
+      <c r="H42" t="s">
+        <v>6</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0.776447</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0.68998800000000005</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0.71117200000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" hidden="1">
+      <c r="A43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="5">
+        <v>80.06</v>
+      </c>
+      <c r="D43" s="5">
+        <v>67.12</v>
+      </c>
+      <c r="E43" s="5">
+        <v>66.7</v>
+      </c>
+      <c r="H43" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0.65878400000000004</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0.441494</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0.478188</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="5">
+        <v>32785.25</v>
+      </c>
+      <c r="D44" s="5">
+        <v>32785.25</v>
+      </c>
+      <c r="E44" s="5">
+        <v>32785.25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="5">
+        <v>84.46</v>
+      </c>
+      <c r="D45" s="5">
+        <v>76.02</v>
+      </c>
+      <c r="E45" s="5">
+        <v>78.790000000000006</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="5">
+        <v>72.23</v>
+      </c>
+      <c r="D46" s="5">
+        <v>55.61</v>
+      </c>
+      <c r="E46" s="5">
+        <v>57.73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="5">
+        <v>78.569999999999993</v>
+      </c>
+      <c r="D47" s="5">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="E47" s="5">
+        <v>71.89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="5">
+        <v>66.84</v>
+      </c>
+      <c r="D48" s="5">
+        <v>45.74</v>
+      </c>
+      <c r="E48" s="5">
+        <v>48.23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="C50" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" hidden="1">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="5">
+        <v>98355.75</v>
+      </c>
+      <c r="D51" s="5">
+        <v>98355.75</v>
+      </c>
+      <c r="E51" s="5">
+        <v>98355.75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" hidden="1">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="5">
+        <v>91.46</v>
+      </c>
+      <c r="D52" s="5">
+        <v>87.18</v>
+      </c>
+      <c r="E52" s="5">
+        <v>87.92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" hidden="1">
+      <c r="A53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="5">
+        <v>85.05</v>
+      </c>
+      <c r="D53" s="5">
+        <v>77.52</v>
+      </c>
+      <c r="E53" s="5">
+        <v>76.84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" hidden="1">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="5">
+        <v>90.3</v>
+      </c>
+      <c r="D54" s="5">
+        <v>91.35</v>
+      </c>
+      <c r="E54" s="5">
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" hidden="1">
+      <c r="A55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="5">
+        <v>80.38</v>
+      </c>
+      <c r="D55" s="5">
+        <v>67.33</v>
+      </c>
+      <c r="E55" s="5">
+        <v>66.77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="5">
+        <v>32785.25</v>
+      </c>
+      <c r="D56" s="5">
+        <v>32785.25</v>
+      </c>
+      <c r="E56" s="5">
+        <v>32785.25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="5">
+        <v>84.56</v>
+      </c>
+      <c r="D57" s="5">
+        <v>76.11</v>
+      </c>
+      <c r="E57" s="5">
+        <v>78.87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="5">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="D58" s="5">
+        <v>55.8</v>
+      </c>
+      <c r="E58" s="5">
+        <v>57.88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="5">
+        <v>78.8</v>
+      </c>
+      <c r="D59" s="5">
+        <v>71.069999999999993</v>
+      </c>
+      <c r="E59" s="5">
+        <v>72.11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="5">
+        <v>66.959999999999994</v>
+      </c>
+      <c r="D60" s="5">
+        <v>45.94</v>
+      </c>
+      <c r="E60" s="5">
+        <v>48.34</v>
       </c>
     </row>
   </sheetData>
@@ -3526,10 +4342,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A73FEB14-2BBE-E949-945D-9E82AE381211}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
@@ -3537,14 +4353,21 @@
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="10.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3557,8 +4380,17 @@
       <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" hidden="1">
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" hidden="1">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -3574,8 +4406,23 @@
       <c r="E3" s="5">
         <v>46203</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" hidden="1">
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3">
+        <v>61604</v>
+      </c>
+      <c r="J3">
+        <v>61604</v>
+      </c>
+      <c r="K3">
+        <v>61604</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" hidden="1">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -3588,8 +4435,20 @@
       <c r="E4" s="5">
         <v>87.01</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" hidden="1">
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>0.90784699999999996</v>
+      </c>
+      <c r="J4">
+        <v>0.88562399999999997</v>
+      </c>
+      <c r="K4">
+        <v>0.88083599999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" hidden="1">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -3602,8 +4461,20 @@
       <c r="E5" s="5">
         <v>82.15</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" hidden="1">
+      <c r="H5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>0.87686299999999995</v>
+      </c>
+      <c r="J5">
+        <v>0.84798899999999999</v>
+      </c>
+      <c r="K5">
+        <v>0.838279</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" hidden="1">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -3616,8 +4487,20 @@
       <c r="E6" s="5">
         <v>90.04</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" hidden="1">
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>0.90881699999999999</v>
+      </c>
+      <c r="J6">
+        <v>0.90729899999999997</v>
+      </c>
+      <c r="K6">
+        <v>0.90505199999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" hidden="1">
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -3630,8 +4513,20 @@
       <c r="E7" s="5">
         <v>75.53</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <v>0.84707900000000003</v>
+      </c>
+      <c r="J7">
+        <v>0.79595800000000005</v>
+      </c>
+      <c r="K7">
+        <v>0.78068199999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -3647,8 +4542,23 @@
       <c r="E8" s="5">
         <v>15401</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8">
+        <v>9195</v>
+      </c>
+      <c r="J8">
+        <v>9195</v>
+      </c>
+      <c r="K8">
+        <v>9195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="B9" t="s">
         <v>4</v>
       </c>
@@ -3661,8 +4571,20 @@
       <c r="E9" s="5">
         <v>75.67</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="H9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.794018</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.74453499999999995</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.74768900000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="B10" t="s">
         <v>5</v>
       </c>
@@ -3675,8 +4597,20 @@
       <c r="E10" s="5">
         <v>65.540000000000006</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="H10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.72422799999999998</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.65194799999999997</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.64720200000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="B11" t="s">
         <v>6</v>
       </c>
@@ -3689,8 +4623,20 @@
       <c r="E11" s="5">
         <v>74.53</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="H11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.75892599999999999</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.72583299999999995</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.72752099999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="B12" t="s">
         <v>7</v>
       </c>
@@ -3703,13 +4649,25 @@
       <c r="E12" s="5">
         <v>58.48</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="H12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.69256499999999999</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.59171600000000002</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.58285399999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:11">
       <c r="C14" s="5" t="s">
         <v>10</v>
       </c>
@@ -3720,7 +4678,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1">
+    <row r="15" spans="1:11" hidden="1">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -3737,7 +4695,7 @@
         <v>46203</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1">
+    <row r="16" spans="1:11" hidden="1">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -3888,6 +4846,192 @@
       </c>
       <c r="E24" s="5">
         <v>59.76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="C26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" hidden="1">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="5">
+        <v>46203</v>
+      </c>
+      <c r="D27" s="5">
+        <v>46203</v>
+      </c>
+      <c r="E27" s="5">
+        <v>46203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" hidden="1">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="5">
+        <v>90.68</v>
+      </c>
+      <c r="D28" s="5">
+        <v>88.45</v>
+      </c>
+      <c r="E28" s="5">
+        <v>87.93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" hidden="1">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="5">
+        <v>87.55</v>
+      </c>
+      <c r="D29" s="5">
+        <v>84.63</v>
+      </c>
+      <c r="E29" s="5">
+        <v>83.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" hidden="1">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="5">
+        <v>90.77</v>
+      </c>
+      <c r="D30" s="5">
+        <v>90.66</v>
+      </c>
+      <c r="E30" s="5">
+        <v>90.41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" hidden="1">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="5">
+        <v>84.54</v>
+      </c>
+      <c r="D31" s="5">
+        <v>79.349999999999994</v>
+      </c>
+      <c r="E31" s="5">
+        <v>77.739999999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="5">
+        <v>15401</v>
+      </c>
+      <c r="D32" s="5">
+        <v>15401</v>
+      </c>
+      <c r="E32" s="5">
+        <v>15401</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="5">
+        <v>81.510000000000005</v>
+      </c>
+      <c r="D33" s="5">
+        <v>76.12</v>
+      </c>
+      <c r="E33" s="5">
+        <v>75.87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="5">
+        <v>75</v>
+      </c>
+      <c r="D34" s="5">
+        <v>67.3</v>
+      </c>
+      <c r="E34" s="5">
+        <v>66.14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="5">
+        <v>78.72</v>
+      </c>
+      <c r="D35" s="5">
+        <v>74.56</v>
+      </c>
+      <c r="E35" s="5">
+        <v>74.319999999999993</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="5">
+        <v>71.62</v>
+      </c>
+      <c r="D36" s="5">
+        <v>61.33</v>
+      </c>
+      <c r="E36" s="5">
+        <v>59.58</v>
       </c>
     </row>
   </sheetData>
@@ -3898,10 +5042,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA59032-87A3-4B47-B791-4264FEB17194}">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
@@ -3910,14 +5054,21 @@
     <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
@@ -3927,8 +5078,17 @@
       <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" hidden="1">
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" hidden="1">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -3944,8 +5104,23 @@
       <c r="E3" s="5">
         <v>30080.25</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" hidden="1">
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3">
+        <v>40107</v>
+      </c>
+      <c r="J3">
+        <v>40107</v>
+      </c>
+      <c r="K3">
+        <v>40107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" hidden="1">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -3961,8 +5136,20 @@
       <c r="E4" s="5">
         <v>86.89</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" hidden="1">
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>0.90732299999999999</v>
+      </c>
+      <c r="J4">
+        <v>0.90732299999999999</v>
+      </c>
+      <c r="K4">
+        <v>0.90069100000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" hidden="1">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -3978,8 +5165,20 @@
       <c r="E5" s="5">
         <v>83.44</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" hidden="1">
+      <c r="H5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>0.88698999999999995</v>
+      </c>
+      <c r="J5">
+        <v>0.88698999999999995</v>
+      </c>
+      <c r="K5">
+        <v>0.87787099999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" hidden="1">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3995,8 +5194,20 @@
       <c r="E6" s="5">
         <v>88.77</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" hidden="1">
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>0.90766000000000002</v>
+      </c>
+      <c r="J6">
+        <v>0.90766000000000002</v>
+      </c>
+      <c r="K6">
+        <v>0.907161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" hidden="1">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -4012,8 +5223,20 @@
       <c r="E7" s="5">
         <v>78.709999999999994</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <v>0.86724100000000004</v>
+      </c>
+      <c r="J7">
+        <v>0.86724100000000004</v>
+      </c>
+      <c r="K7">
+        <v>0.85041299999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -4029,8 +5252,23 @@
       <c r="E8" s="5">
         <v>10026.75</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8">
+        <v>5844</v>
+      </c>
+      <c r="J8">
+        <v>5844</v>
+      </c>
+      <c r="K8">
+        <v>5844</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -4046,8 +5284,20 @@
       <c r="E9" s="5">
         <v>76.86</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="H9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.78576299999999999</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.78576299999999999</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.77891900000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -4063,8 +5313,20 @@
       <c r="E10" s="5">
         <v>70.599999999999994</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="H10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.74121499999999996</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.74121499999999996</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.72857099999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -4080,8 +5342,20 @@
       <c r="E11" s="5">
         <v>75.67</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="H11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.768868</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.768868</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.75819899999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -4097,13 +5371,25 @@
       <c r="E12" s="5">
         <v>66.17</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="H12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.71548299999999998</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.71548299999999998</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.70117300000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -4117,7 +5403,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1">
+    <row r="15" spans="1:11" hidden="1">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -4134,7 +5420,7 @@
         <v>30080.25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1">
+    <row r="16" spans="1:11" hidden="1">
       <c r="B16" t="s">
         <v>4</v>
       </c>
@@ -4633,6 +5919,192 @@
       </c>
       <c r="E48" s="5">
         <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="C50" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="5">
+        <v>30080.25</v>
+      </c>
+      <c r="D51" s="5">
+        <v>30080.25</v>
+      </c>
+      <c r="E51" s="5">
+        <v>30080.25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="5">
+        <v>90.56</v>
+      </c>
+      <c r="D52" s="5">
+        <v>90.56</v>
+      </c>
+      <c r="E52" s="5">
+        <v>89.81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="5">
+        <v>88.49</v>
+      </c>
+      <c r="D53" s="5">
+        <v>88.49</v>
+      </c>
+      <c r="E53" s="5">
+        <v>87.45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="5">
+        <v>90.5</v>
+      </c>
+      <c r="D54" s="5">
+        <v>90.5</v>
+      </c>
+      <c r="E54" s="5">
+        <v>90.47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="5">
+        <v>86.57</v>
+      </c>
+      <c r="D55" s="5">
+        <v>86.57</v>
+      </c>
+      <c r="E55" s="5">
+        <v>84.63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="5">
+        <v>10026.75</v>
+      </c>
+      <c r="D56" s="5">
+        <v>10026.75</v>
+      </c>
+      <c r="E56" s="5">
+        <v>10026.75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="5">
+        <v>80.47</v>
+      </c>
+      <c r="D57" s="5">
+        <v>80.47</v>
+      </c>
+      <c r="E57" s="5">
+        <v>79.69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="5">
+        <v>76.03</v>
+      </c>
+      <c r="D58" s="5">
+        <v>76.03</v>
+      </c>
+      <c r="E58" s="5">
+        <v>74.790000000000006</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>29</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="5">
+        <v>78.33</v>
+      </c>
+      <c r="D59" s="5">
+        <v>78.33</v>
+      </c>
+      <c r="E59" s="5">
+        <v>78.05</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="5">
+        <v>73.86</v>
+      </c>
+      <c r="D60" s="5">
+        <v>73.86</v>
+      </c>
+      <c r="E60" s="5">
+        <v>71.8</v>
       </c>
     </row>
   </sheetData>

--- a/baseline_prWin_metrics.xlsx
+++ b/baseline_prWin_metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael_peng/Documents/pkrprb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{CAD66D85-342D-0945-8F73-7A2E73122DDB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{85E8F4E8-4D21-E444-9BFB-56A1148989B8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" activeTab="6" xr2:uid="{CD697F08-0CC6-5044-82D1-47E874A00822}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" activeTab="8" xr2:uid="{CD697F08-0CC6-5044-82D1-47E874A00822}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline prWin =&gt; win" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="Turn" sheetId="5" r:id="rId5"/>
     <sheet name="River" sheetId="6" r:id="rId6"/>
     <sheet name="Calib" sheetId="7" r:id="rId7"/>
+    <sheet name="expert rules all" sheetId="9" r:id="rId8"/>
+    <sheet name="expert rules" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="61">
   <si>
     <t>Deal</t>
   </si>
@@ -146,13 +148,116 @@
     <t>Flop</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>fold</t>
+  </si>
+  <si>
+    <t>raise</t>
+  </si>
+  <si>
+    <t>reraise</t>
+  </si>
+  <si>
+    <t>Deal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stt_early_preflop(x,2,4)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stt_early_preflop(x,3,5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>call</t>
+  </si>
+  <si>
+    <t>stt_preflop_pairs(x,1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stt_preflop_pairs(x,2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stt_preflop_pairs(x,3)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stt_preflop_pairs(x,1.5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stt_preflop_pairs(x,1.2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stt_preflop_pairs(x,1.3)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stt_early_preflop(x,2,5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stt_early_preflop(x,3,4)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sharpe</t>
+  </si>
+  <si>
+    <t>sharpe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stt_early_preflop(x,3,6)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stt_early_preflop(x,4,6)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stt_middle_preflop</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>middle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>early</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pairs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -216,7 +321,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -242,6 +347,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6128,7 +6242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ABF69B3-080C-6946-A374-D89654B4A3E8}">
   <dimension ref="A1:W101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="P43" sqref="P43"/>
@@ -12657,4 +12771,2312 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D390AD-C66E-FE4C-AA0E-1018661732FD}">
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I38" sqref="I38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <cols>
+    <col min="1" max="1" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.875" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="D1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="4">
+        <v>23500</v>
+      </c>
+      <c r="E2" s="4">
+        <v>-738344</v>
+      </c>
+      <c r="F2" s="4">
+        <v>-31.418893617021201</v>
+      </c>
+      <c r="G2" s="4">
+        <v>221.65959040022</v>
+      </c>
+      <c r="H2" s="4">
+        <v>-0.141743894592119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3">
+        <v>0.6</v>
+      </c>
+      <c r="D3" s="4">
+        <v>23500</v>
+      </c>
+      <c r="E3" s="4">
+        <v>-590364</v>
+      </c>
+      <c r="F3" s="4">
+        <v>-25.121872340425501</v>
+      </c>
+      <c r="G3" s="4">
+        <v>229.46965360759299</v>
+      </c>
+      <c r="H3" s="4">
+        <v>-0.109477972121687</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4">
+        <v>0.7</v>
+      </c>
+      <c r="D4" s="4">
+        <v>23500</v>
+      </c>
+      <c r="E4" s="4">
+        <v>-455233</v>
+      </c>
+      <c r="F4" s="4">
+        <v>-19.371617021276499</v>
+      </c>
+      <c r="G4" s="4">
+        <v>236.39129628229</v>
+      </c>
+      <c r="H4" s="4">
+        <v>-8.1947251552542899E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5">
+        <v>0.79999999999999905</v>
+      </c>
+      <c r="D5" s="4">
+        <v>23500</v>
+      </c>
+      <c r="E5" s="4">
+        <v>-328086</v>
+      </c>
+      <c r="F5" s="4">
+        <v>-13.9611063829787</v>
+      </c>
+      <c r="G5" s="4">
+        <v>243.53440994670001</v>
+      </c>
+      <c r="H5" s="4">
+        <v>-5.7327038039651897E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6">
+        <v>0.89999999999999902</v>
+      </c>
+      <c r="D6" s="4">
+        <v>23500</v>
+      </c>
+      <c r="E6" s="4">
+        <v>-218268</v>
+      </c>
+      <c r="F6" s="4">
+        <v>-9.2880000000000003</v>
+      </c>
+      <c r="G6" s="4">
+        <v>249.91642322427799</v>
+      </c>
+      <c r="H6" s="4">
+        <v>-3.7164424331028401E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="D7" s="4">
+        <v>23500</v>
+      </c>
+      <c r="E7" s="4">
+        <v>-135588</v>
+      </c>
+      <c r="F7" s="4">
+        <v>-5.7697021276595697</v>
+      </c>
+      <c r="G7" s="4">
+        <v>254.88055189229499</v>
+      </c>
+      <c r="H7" s="4">
+        <v>-2.2636886513403599E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8">
+        <v>1.0999999999999901</v>
+      </c>
+      <c r="D8" s="4">
+        <v>23500</v>
+      </c>
+      <c r="E8" s="4">
+        <v>-51749</v>
+      </c>
+      <c r="F8" s="4">
+        <v>-2.2020851063829698</v>
+      </c>
+      <c r="G8" s="4">
+        <v>260.85379258568901</v>
+      </c>
+      <c r="H8" s="4">
+        <v>-8.4418366493927994E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9">
+        <v>1.19999999999999</v>
+      </c>
+      <c r="D9" s="4">
+        <v>23500</v>
+      </c>
+      <c r="E9" s="4">
+        <v>65455</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2.7853191489361699</v>
+      </c>
+      <c r="G9" s="4">
+        <v>270.012260443137</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1.03155284295793E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10">
+        <v>1.2999999999999901</v>
+      </c>
+      <c r="D10" s="4">
+        <v>23500</v>
+      </c>
+      <c r="E10" s="4">
+        <v>149662</v>
+      </c>
+      <c r="F10" s="4">
+        <v>6.3685957446808503</v>
+      </c>
+      <c r="G10" s="4">
+        <v>275.99879621686</v>
+      </c>
+      <c r="H10" s="4">
+        <v>2.3074722904504401E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11">
+        <v>1.4</v>
+      </c>
+      <c r="D11" s="4">
+        <v>23500</v>
+      </c>
+      <c r="E11" s="4">
+        <v>218660</v>
+      </c>
+      <c r="F11" s="4">
+        <v>9.3046808510638304</v>
+      </c>
+      <c r="G11" s="4">
+        <v>282.265929429317</v>
+      </c>
+      <c r="H11" s="4">
+        <v>3.2964236491013703E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12">
+        <v>1.49999999999999</v>
+      </c>
+      <c r="D12" s="4">
+        <v>23500</v>
+      </c>
+      <c r="E12" s="4">
+        <v>306767</v>
+      </c>
+      <c r="F12" s="4">
+        <v>13.053914893617</v>
+      </c>
+      <c r="G12" s="4">
+        <v>287.960928953353</v>
+      </c>
+      <c r="H12" s="4">
+        <v>4.5332243304895103E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13">
+        <v>1.5999999999999901</v>
+      </c>
+      <c r="D13" s="4">
+        <v>23500</v>
+      </c>
+      <c r="E13" s="4">
+        <v>361728</v>
+      </c>
+      <c r="F13" s="4">
+        <v>15.392680851063799</v>
+      </c>
+      <c r="G13" s="4">
+        <v>292.09867568933902</v>
+      </c>
+      <c r="H13" s="4">
+        <v>5.2696852578115301E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14">
+        <v>1.69999999999999</v>
+      </c>
+      <c r="D14" s="4">
+        <v>23500</v>
+      </c>
+      <c r="E14" s="4">
+        <v>414260</v>
+      </c>
+      <c r="F14" s="4">
+        <v>17.628085106382901</v>
+      </c>
+      <c r="G14" s="4">
+        <v>297.15521430871797</v>
+      </c>
+      <c r="H14" s="4">
+        <v>5.9322819380409397E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15">
+        <v>1.7999999999999901</v>
+      </c>
+      <c r="D15" s="4">
+        <v>23500</v>
+      </c>
+      <c r="E15" s="4">
+        <v>469510</v>
+      </c>
+      <c r="F15" s="4">
+        <v>19.979148936170201</v>
+      </c>
+      <c r="G15" s="4">
+        <v>302.69589687094998</v>
+      </c>
+      <c r="H15" s="4">
+        <v>6.6004029597692193E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16">
+        <v>1.8999999999999899</v>
+      </c>
+      <c r="D16" s="4">
+        <v>23500</v>
+      </c>
+      <c r="E16" s="4">
+        <v>552313</v>
+      </c>
+      <c r="F16" s="4">
+        <v>23.502680851063801</v>
+      </c>
+      <c r="G16" s="4">
+        <v>308.88256539175501</v>
+      </c>
+      <c r="H16" s="4">
+        <v>7.6089373387764406E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17">
+        <v>1.99999999999999</v>
+      </c>
+      <c r="D17" s="4">
+        <v>23500</v>
+      </c>
+      <c r="E17" s="4">
+        <v>626390</v>
+      </c>
+      <c r="F17" s="4">
+        <v>26.654893617021202</v>
+      </c>
+      <c r="G17" s="4">
+        <v>313.730623176591</v>
+      </c>
+      <c r="H17" s="4">
+        <v>8.4961083324077896E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18">
+        <v>2.0999999999999899</v>
+      </c>
+      <c r="D18" s="4">
+        <v>23500</v>
+      </c>
+      <c r="E18" s="4">
+        <v>692726</v>
+      </c>
+      <c r="F18" s="4">
+        <v>29.477702127659501</v>
+      </c>
+      <c r="G18" s="4">
+        <v>320.305164645351</v>
+      </c>
+      <c r="H18" s="4">
+        <v>9.2030055651141002E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19">
+        <v>2.19999999999999</v>
+      </c>
+      <c r="D19" s="4">
+        <v>23500</v>
+      </c>
+      <c r="E19" s="4">
+        <v>745337</v>
+      </c>
+      <c r="F19" s="4">
+        <v>31.7164680851063</v>
+      </c>
+      <c r="G19" s="4">
+        <v>325.97870469166799</v>
+      </c>
+      <c r="H19" s="4">
+        <v>9.7296135080682106E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D20" s="4">
+        <v>23500</v>
+      </c>
+      <c r="E20" s="4">
+        <v>808975</v>
+      </c>
+      <c r="F20" s="4">
+        <v>34.424468085106298</v>
+      </c>
+      <c r="G20" s="4">
+        <v>330.76955013230798</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0.104073872795535</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21">
+        <v>2.3999999999999901</v>
+      </c>
+      <c r="D21" s="4">
+        <v>23500</v>
+      </c>
+      <c r="E21" s="4">
+        <v>876490</v>
+      </c>
+      <c r="F21" s="4">
+        <v>37.2974468085106</v>
+      </c>
+      <c r="G21" s="4">
+        <v>338.227225932267</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0.11027334273787801</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22">
+        <v>2.4999999999999898</v>
+      </c>
+      <c r="D22" s="4">
+        <v>23500</v>
+      </c>
+      <c r="E22" s="4">
+        <v>945165</v>
+      </c>
+      <c r="F22" s="4">
+        <v>40.219787234042499</v>
+      </c>
+      <c r="G22" s="4">
+        <v>343.17558617734602</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0.117198859283823</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23">
+        <v>2.5999999999999899</v>
+      </c>
+      <c r="D23" s="4">
+        <v>23500</v>
+      </c>
+      <c r="E23" s="4">
+        <v>997454</v>
+      </c>
+      <c r="F23" s="4">
+        <v>42.444851063829702</v>
+      </c>
+      <c r="G23" s="4">
+        <v>349.24235624224099</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0.121534087447254</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24">
+        <v>2.69999999999999</v>
+      </c>
+      <c r="D24" s="4">
+        <v>23500</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1052904</v>
+      </c>
+      <c r="F24" s="4">
+        <v>44.804425531914802</v>
+      </c>
+      <c r="G24" s="4">
+        <v>354.76306411231297</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0.12629394112384301</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25">
+        <v>2.7999999999999901</v>
+      </c>
+      <c r="D25" s="4">
+        <v>23500</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1106559</v>
+      </c>
+      <c r="F25" s="4">
+        <v>47.0876170212765</v>
+      </c>
+      <c r="G25" s="4">
+        <v>359.95044605281998</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0.13081694310323699</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26">
+        <v>2.8999999999999901</v>
+      </c>
+      <c r="D26" s="4">
+        <v>23500</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1150773</v>
+      </c>
+      <c r="F26" s="4">
+        <v>48.969063829787203</v>
+      </c>
+      <c r="G26" s="4">
+        <v>363.91750973545498</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0.13456088954165599</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27" s="4">
+        <v>549775</v>
+      </c>
+      <c r="E27" s="4">
+        <v>-9363499</v>
+      </c>
+      <c r="F27" s="4">
+        <v>-17.031511072711499</v>
+      </c>
+      <c r="G27" s="4">
+        <v>468.15796362637099</v>
+      </c>
+      <c r="H27" s="4">
+        <v>-3.6379838422024802E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28" s="4">
+        <v>549775</v>
+      </c>
+      <c r="E28" s="4">
+        <v>-8767807</v>
+      </c>
+      <c r="F28" s="4">
+        <v>-15.9479914510481</v>
+      </c>
+      <c r="G28" s="4">
+        <v>471.757839843814</v>
+      </c>
+      <c r="H28" s="4">
+        <v>-3.3805461412847002E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29" s="4">
+        <v>549775</v>
+      </c>
+      <c r="E29" s="4">
+        <v>-7547253</v>
+      </c>
+      <c r="F29" s="4">
+        <v>-13.7278941385112</v>
+      </c>
+      <c r="G29" s="4">
+        <v>481.13074554597301</v>
+      </c>
+      <c r="H29" s="4">
+        <v>-2.8532564725069001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30" s="4">
+        <v>549775</v>
+      </c>
+      <c r="E30" s="4">
+        <v>-5926408</v>
+      </c>
+      <c r="F30" s="4">
+        <v>-10.7796971488336</v>
+      </c>
+      <c r="G30" s="4">
+        <v>501.726920894572</v>
+      </c>
+      <c r="H30" s="4">
+        <v>-2.1485187857995601E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31" s="4">
+        <v>549775</v>
+      </c>
+      <c r="E31" s="4">
+        <v>4456736</v>
+      </c>
+      <c r="F31" s="4">
+        <v>8.1064726479014109</v>
+      </c>
+      <c r="G31" s="4">
+        <v>639.91560336837199</v>
+      </c>
+      <c r="H31" s="4">
+        <v>1.26680340426624E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32" s="4">
+        <v>549775</v>
+      </c>
+      <c r="E32" s="4">
+        <v>5677290</v>
+      </c>
+      <c r="F32" s="4">
+        <v>10.326569960438301</v>
+      </c>
+      <c r="G32" s="4">
+        <v>646.77392309318896</v>
+      </c>
+      <c r="H32" s="4">
+        <v>1.5966274445716098E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="D33" s="4">
+        <v>549775</v>
+      </c>
+      <c r="E33" s="4">
+        <v>7298135</v>
+      </c>
+      <c r="F33" s="4">
+        <v>13.2747669501159</v>
+      </c>
+      <c r="G33" s="4">
+        <v>662.13124195947898</v>
+      </c>
+      <c r="H33" s="4">
+        <v>2.00485434138876E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34" s="4">
+        <v>549775</v>
+      </c>
+      <c r="E34" s="4">
+        <v>9615019</v>
+      </c>
+      <c r="F34" s="4">
+        <v>17.4890073211768</v>
+      </c>
+      <c r="G34" s="4">
+        <v>698.11089019843496</v>
+      </c>
+      <c r="H34" s="4">
+        <v>2.5051904456332999E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+      <c r="D35" s="4">
+        <v>549775</v>
+      </c>
+      <c r="E35" s="4">
+        <v>11235864</v>
+      </c>
+      <c r="F35" s="4">
+        <v>20.437204310854401</v>
+      </c>
+      <c r="G35" s="4">
+        <v>712.33268657962697</v>
+      </c>
+      <c r="H35" s="4">
+        <v>2.8690532802849101E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>6</v>
+      </c>
+      <c r="D36" s="4">
+        <v>549775</v>
+      </c>
+      <c r="E36" s="4">
+        <v>21101807</v>
+      </c>
+      <c r="F36" s="4">
+        <v>38.382623800645703</v>
+      </c>
+      <c r="G36" s="4">
+        <v>834.36138422716499</v>
+      </c>
+      <c r="H36" s="4">
+        <v>4.6002397194110201E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="4">
+        <v>549775</v>
+      </c>
+      <c r="E37" s="4">
+        <v>16232239</v>
+      </c>
+      <c r="F37" s="4">
+        <v>29.525240325587699</v>
+      </c>
+      <c r="G37" s="4">
+        <v>723.74710354339197</v>
+      </c>
+      <c r="H37" s="4">
+        <f>F37/G37</f>
+        <v>4.0794968547763627E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C82E697-E49C-024E-8A12-6FB67A7600C0}">
+  <dimension ref="A1:K41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L42" sqref="L42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <cols>
+    <col min="1" max="1" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.875" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="C2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="9">
+        <v>8363</v>
+      </c>
+      <c r="D3" s="9">
+        <v>5368</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.64187492526605205</v>
+      </c>
+      <c r="F3" s="9">
+        <v>2746</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.328351070190123</v>
+      </c>
+      <c r="H3" s="9">
+        <v>-1129740</v>
+      </c>
+      <c r="I3" s="4">
+        <v>-135.08788712184599</v>
+      </c>
+      <c r="J3" s="4">
+        <v>308.40030472648601</v>
+      </c>
+      <c r="K3" s="4">
+        <f>I3/J3</f>
+        <v>-0.43802773554861663</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="9">
+        <v>7341</v>
+      </c>
+      <c r="D4" s="9">
+        <v>4919</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.670072197248331</v>
+      </c>
+      <c r="F4" s="9">
+        <v>2187</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.297915815284021</v>
+      </c>
+      <c r="H4" s="9">
+        <v>545218</v>
+      </c>
+      <c r="I4" s="4">
+        <v>74.270262906960895</v>
+      </c>
+      <c r="J4" s="4">
+        <v>215.23690825583299</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" ref="K4:K41" si="0">I4/J4</f>
+        <v>0.34506285891582511</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="9">
+        <v>7796</v>
+      </c>
+      <c r="D5" s="9">
+        <v>5535</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.70997947665469396</v>
+      </c>
+      <c r="F5" s="9">
+        <v>2233</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.28642893791688001</v>
+      </c>
+      <c r="H5" s="9">
+        <v>448794</v>
+      </c>
+      <c r="I5" s="4">
+        <v>57.567213955874799</v>
+      </c>
+      <c r="J5" s="4">
+        <v>149.08348513310801</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.38614078483928899</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="9">
+        <v>7678</v>
+      </c>
+      <c r="D6" s="9">
+        <v>4929</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.64196405313883798</v>
+      </c>
+      <c r="F6" s="9">
+        <v>2525</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.32886168272987698</v>
+      </c>
+      <c r="H6" s="9">
+        <v>-1079525</v>
+      </c>
+      <c r="I6" s="4">
+        <v>-140.59976556394801</v>
+      </c>
+      <c r="J6" s="4">
+        <v>318.78335437429399</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.44105115161962066</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="9">
+        <v>6981</v>
+      </c>
+      <c r="D7" s="9">
+        <v>4647</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.66566394499355397</v>
+      </c>
+      <c r="F7" s="9">
+        <v>2077</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.29752184500787798</v>
+      </c>
+      <c r="H7" s="9">
+        <v>592507</v>
+      </c>
+      <c r="I7" s="4">
+        <v>84.874230053001</v>
+      </c>
+      <c r="J7" s="4">
+        <v>251.811106142657</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.33705514960455207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="9">
+        <v>8841</v>
+      </c>
+      <c r="D8" s="9">
+        <v>6246</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.70648116728876797</v>
+      </c>
+      <c r="F8" s="9">
+        <v>2564</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.290012442031444</v>
+      </c>
+      <c r="H8" s="9">
+        <v>552473</v>
+      </c>
+      <c r="I8" s="4">
+        <v>62.489876710779299</v>
+      </c>
+      <c r="J8" s="4">
+        <v>169.53135741657701</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.36860364750827479</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="9">
+        <v>7395</v>
+      </c>
+      <c r="D9" s="9">
+        <v>4730</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.63962136578769402</v>
+      </c>
+      <c r="F9" s="9">
+        <v>2438</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.32968221771467199</v>
+      </c>
+      <c r="H9" s="9">
+        <v>-1062982</v>
+      </c>
+      <c r="I9" s="4">
+        <v>-143.74334009465801</v>
+      </c>
+      <c r="J9" s="4">
+        <v>323.78006884415697</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.44395363991303954</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="9">
+        <v>6864</v>
+      </c>
+      <c r="D10" s="9">
+        <v>4563</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.66477272727272696</v>
+      </c>
+      <c r="F10" s="9">
+        <v>2051</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.29880536130536101</v>
+      </c>
+      <c r="H10" s="9">
+        <v>615457</v>
+      </c>
+      <c r="I10" s="4">
+        <v>89.664481351981294</v>
+      </c>
+      <c r="J10" s="4">
+        <v>264.130633299073</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.33947020923716531</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="9">
+        <v>9241</v>
+      </c>
+      <c r="D11" s="9">
+        <v>6529</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.70652526782815706</v>
+      </c>
+      <c r="F11" s="9">
+        <v>2677</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.289687263283194</v>
+      </c>
+      <c r="H11" s="9">
+        <v>597187</v>
+      </c>
+      <c r="I11" s="4">
+        <v>64.623633805865097</v>
+      </c>
+      <c r="J11" s="4">
+        <v>177.30774509785499</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.36447157889352061</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="9">
+        <v>6794</v>
+      </c>
+      <c r="D12" s="9">
+        <v>4351</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.64041801589637903</v>
+      </c>
+      <c r="F12" s="9">
+        <v>2292</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.33735649102148901</v>
+      </c>
+      <c r="H12" s="9">
+        <v>-1021589</v>
+      </c>
+      <c r="I12" s="4">
+        <v>-150.366352664115</v>
+      </c>
+      <c r="J12" s="4">
+        <v>335.06092552103598</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.44877316694057368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="9">
+        <v>6340</v>
+      </c>
+      <c r="D13" s="9">
+        <v>4233</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.66766561514195499</v>
+      </c>
+      <c r="F13" s="9">
+        <v>1910</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.30126182965299603</v>
+      </c>
+      <c r="H13" s="9">
+        <v>635377</v>
+      </c>
+      <c r="I13" s="4">
+        <v>100.21719242902201</v>
+      </c>
+      <c r="J13" s="4">
+        <v>293.43692435220299</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.34152890830035587</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="9">
+        <v>10366</v>
+      </c>
+      <c r="D14" s="9">
+        <v>7238</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.69824426008103402</v>
+      </c>
+      <c r="F14" s="9">
+        <v>2964</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.28593478680300899</v>
+      </c>
+      <c r="H14" s="9">
+        <v>692799</v>
+      </c>
+      <c r="I14" s="4">
+        <v>66.833783523056098</v>
+      </c>
+      <c r="J14" s="4">
+        <v>191.617806966996</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.34878691380998561</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="9">
+        <v>5890</v>
+      </c>
+      <c r="D15" s="9">
+        <v>3749</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.63650254668930395</v>
+      </c>
+      <c r="F15" s="9">
+        <v>2008</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.340916808149405</v>
+      </c>
+      <c r="H15" s="9">
+        <v>-943942</v>
+      </c>
+      <c r="I15" s="4">
+        <v>-160.261799660441</v>
+      </c>
+      <c r="J15" s="4">
+        <v>354.10680477908198</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.4525804008777074</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="9">
+        <v>5637</v>
+      </c>
+      <c r="D16" s="9">
+        <v>3800</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.67411743835373406</v>
+      </c>
+      <c r="F16" s="9">
+        <v>1695</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.30069185737094201</v>
+      </c>
+      <c r="H16" s="9">
+        <v>677545</v>
+      </c>
+      <c r="I16" s="4">
+        <v>120.19602625509999</v>
+      </c>
+      <c r="J16" s="4">
+        <v>347.24404474810001</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.34614280092922362</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="9">
+        <v>11973</v>
+      </c>
+      <c r="D17" s="9">
+        <v>8273</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.69097135220913697</v>
+      </c>
+      <c r="F17" s="9">
+        <v>3463</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.28923411008101502</v>
+      </c>
+      <c r="H17" s="9">
+        <v>893167</v>
+      </c>
+      <c r="I17" s="4">
+        <v>74.598429800384196</v>
+      </c>
+      <c r="J17" s="4">
+        <v>226.26751440802201</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="0"/>
+        <v>0.32969129481779208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="9">
+        <v>4861</v>
+      </c>
+      <c r="D18" s="9">
+        <v>3079</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.63340876362888299</v>
+      </c>
+      <c r="F18" s="9">
+        <v>1660</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.34149351985188198</v>
+      </c>
+      <c r="H18" s="9">
+        <v>-827053</v>
+      </c>
+      <c r="I18" s="4">
+        <v>-170.14050606871001</v>
+      </c>
+      <c r="J18" s="4">
+        <v>379.20586584360302</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.4486758286035627</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="9">
+        <v>4605</v>
+      </c>
+      <c r="D19" s="9">
+        <v>3091</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.67122692725298505</v>
+      </c>
+      <c r="F19" s="9">
+        <v>1441</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.31292073832790401</v>
+      </c>
+      <c r="H19" s="9">
+        <v>748158</v>
+      </c>
+      <c r="I19" s="4">
+        <v>162.46644951139999</v>
+      </c>
+      <c r="J19" s="4">
+        <v>458.20696187440802</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="0"/>
+        <v>0.35457001536334393</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="9">
+        <v>14034</v>
+      </c>
+      <c r="D20" s="9">
+        <v>9652</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.68775830126834803</v>
+      </c>
+      <c r="F20" s="9">
+        <v>4065</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.28965369816160702</v>
+      </c>
+      <c r="H20" s="9">
+        <v>1270965</v>
+      </c>
+      <c r="I20" s="4">
+        <v>90.563274903804995</v>
+      </c>
+      <c r="J20" s="4">
+        <v>294.76896422899603</v>
+      </c>
+      <c r="K20" s="4">
+        <f t="shared" si="0"/>
+        <v>0.30723476991780402</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="9">
+        <v>524605</v>
+      </c>
+      <c r="D21" s="9">
+        <v>95177</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.181426025295222</v>
+      </c>
+      <c r="F21" s="9">
+        <v>126095</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.24036179601795599</v>
+      </c>
+      <c r="H21" s="9">
+        <v>-26460114</v>
+      </c>
+      <c r="I21" s="4">
+        <v>-50.438165858121799</v>
+      </c>
+      <c r="J21" s="4">
+        <v>163.28663865019999</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.30889340533350507</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="9">
+        <v>19389</v>
+      </c>
+      <c r="D22" s="9">
+        <v>17763</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.91613801640105197</v>
+      </c>
+      <c r="F22" s="9">
+        <v>8345</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.43039867966372602</v>
+      </c>
+      <c r="H22" s="9">
+        <v>5315885</v>
+      </c>
+      <c r="I22" s="4">
+        <v>274.17014802207399</v>
+      </c>
+      <c r="J22" s="4">
+        <v>649.777056070394</v>
+      </c>
+      <c r="K22" s="4">
+        <f t="shared" si="0"/>
+        <v>0.42194495090385525</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="9">
+        <v>5781</v>
+      </c>
+      <c r="D23" s="9">
+        <v>5288</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.91472063656806701</v>
+      </c>
+      <c r="F23" s="9">
+        <v>2753</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.47621518768379101</v>
+      </c>
+      <c r="H23" s="9">
+        <v>12376422</v>
+      </c>
+      <c r="I23" s="4">
+        <v>2140.8790866631998</v>
+      </c>
+      <c r="J23" s="4">
+        <v>3505.64237923476</v>
+      </c>
+      <c r="K23" s="4">
+        <f t="shared" si="0"/>
+        <v>0.61069523216185229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="9">
+        <v>519222</v>
+      </c>
+      <c r="D24" s="9">
+        <v>91241</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.175726375230633</v>
+      </c>
+      <c r="F24" s="9">
+        <v>124210</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.239223299474983</v>
+      </c>
+      <c r="H24" s="9">
+        <v>-26268834</v>
+      </c>
+      <c r="I24" s="4">
+        <v>-50.592682898644497</v>
+      </c>
+      <c r="J24" s="4">
+        <v>163.63976765775499</v>
+      </c>
+      <c r="K24" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.30917107511700187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="9">
+        <v>24772</v>
+      </c>
+      <c r="D25" s="9">
+        <v>21699</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.87594865170353597</v>
+      </c>
+      <c r="F25" s="9">
+        <v>10230</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.41296625222024802</v>
+      </c>
+      <c r="H25" s="9">
+        <v>6345159</v>
+      </c>
+      <c r="I25" s="4">
+        <v>256.14237849184502</v>
+      </c>
+      <c r="J25" s="4">
+        <v>723.91095312658604</v>
+      </c>
+      <c r="K25" s="4">
+        <f t="shared" si="0"/>
+        <v>0.35383133434514413</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="9">
+        <v>5781</v>
+      </c>
+      <c r="D26" s="9">
+        <v>5288</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.91472063656806701</v>
+      </c>
+      <c r="F26" s="9">
+        <v>2753</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.47621518768379101</v>
+      </c>
+      <c r="H26" s="9">
+        <v>12376422</v>
+      </c>
+      <c r="I26" s="4">
+        <v>2140.8790866631998</v>
+      </c>
+      <c r="J26" s="4">
+        <v>3505.64237923476</v>
+      </c>
+      <c r="K26" s="4">
+        <f t="shared" si="0"/>
+        <v>0.61069523216185229</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="9">
+        <v>510710</v>
+      </c>
+      <c r="D27" s="9">
+        <v>84004</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.16448473693485499</v>
+      </c>
+      <c r="F27" s="9">
+        <v>121125</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.237169822404104</v>
+      </c>
+      <c r="H27" s="9">
+        <v>-25370357</v>
+      </c>
+      <c r="I27" s="4">
+        <v>-49.676640363415601</v>
+      </c>
+      <c r="J27" s="4">
+        <v>160.517677309986</v>
+      </c>
+      <c r="K27" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.30947769240070583</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="9">
+        <v>26924</v>
+      </c>
+      <c r="D28" s="9">
+        <v>24158</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.89726637943841903</v>
+      </c>
+      <c r="F28" s="9">
+        <v>10922</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.40566037735848998</v>
+      </c>
+      <c r="H28" s="9">
+        <v>6655652</v>
+      </c>
+      <c r="I28" s="4">
+        <v>247.201455950081</v>
+      </c>
+      <c r="J28" s="4">
+        <v>651.27733320014602</v>
+      </c>
+      <c r="K28" s="4">
+        <f t="shared" si="0"/>
+        <v>0.37956404030740737</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="9">
+        <v>12141</v>
+      </c>
+      <c r="D29" s="9">
+        <v>10066</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.82909150811300503</v>
+      </c>
+      <c r="F29" s="9">
+        <v>5146</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.42385305987974597</v>
+      </c>
+      <c r="H29" s="9">
+        <v>23171441</v>
+      </c>
+      <c r="I29" s="4">
+        <v>1908.5282101968501</v>
+      </c>
+      <c r="J29" s="4">
+        <v>3555.3590256981802</v>
+      </c>
+      <c r="K29" s="4">
+        <f t="shared" si="0"/>
+        <v>0.53680323039163802</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="9">
+        <v>505327</v>
+      </c>
+      <c r="D30" s="9">
+        <v>80068</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.15844789611479199</v>
+      </c>
+      <c r="F30" s="9">
+        <v>119240</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.23596601804376099</v>
+      </c>
+      <c r="H30" s="9">
+        <v>-25179077</v>
+      </c>
+      <c r="I30" s="4">
+        <v>-49.827294009621397</v>
+      </c>
+      <c r="J30" s="4">
+        <v>160.857802985349</v>
+      </c>
+      <c r="K30" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.30975988161519086</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="9">
+        <v>32307</v>
+      </c>
+      <c r="D31" s="9">
+        <v>28094</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.86959482465100402</v>
+      </c>
+      <c r="F31" s="9">
+        <v>12807</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.396415637477945</v>
+      </c>
+      <c r="H31" s="9">
+        <v>7684926</v>
+      </c>
+      <c r="I31" s="4">
+        <v>237.871854396879</v>
+      </c>
+      <c r="J31" s="4">
+        <v>708.137874227824</v>
+      </c>
+      <c r="K31" s="4">
+        <f t="shared" si="0"/>
+        <v>0.33591178081847695</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="9">
+        <v>12141</v>
+      </c>
+      <c r="D32" s="9">
+        <v>10066</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.82909150811300503</v>
+      </c>
+      <c r="F32" s="9">
+        <v>5146</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.42385305987974597</v>
+      </c>
+      <c r="H32" s="9">
+        <v>23171441</v>
+      </c>
+      <c r="I32" s="4">
+        <v>1908.5282101968501</v>
+      </c>
+      <c r="J32" s="4">
+        <v>3555.3590256981802</v>
+      </c>
+      <c r="K32" s="4">
+        <f t="shared" si="0"/>
+        <v>0.53680323039163802</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="9">
+        <v>495753</v>
+      </c>
+      <c r="D33" s="9">
+        <v>74224</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.149719719295697</v>
+      </c>
+      <c r="F33" s="9">
+        <v>116124</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.23423761429582801</v>
+      </c>
+      <c r="H33" s="9">
+        <v>-24853477</v>
+      </c>
+      <c r="I33" s="4">
+        <v>-50.132781849025598</v>
+      </c>
+      <c r="J33" s="4">
+        <v>161.61869403492</v>
+      </c>
+      <c r="K33" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.31019172719087623</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="9">
+        <v>41881</v>
+      </c>
+      <c r="D34" s="9">
+        <v>33938</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.81034359255987198</v>
+      </c>
+      <c r="F34" s="9">
+        <v>15923</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.38019627038513798</v>
+      </c>
+      <c r="H34" s="9">
+        <v>8980171</v>
+      </c>
+      <c r="I34" s="4">
+        <v>214.42112174971899</v>
+      </c>
+      <c r="J34" s="4">
+        <v>807.77563842702898</v>
+      </c>
+      <c r="K34" s="4">
+        <f t="shared" si="0"/>
+        <v>0.26544638331413223</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="9">
+        <v>12141</v>
+      </c>
+      <c r="D35" s="9">
+        <v>10066</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.82909150811300503</v>
+      </c>
+      <c r="F35" s="9">
+        <v>5146</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.42385305987974597</v>
+      </c>
+      <c r="H35" s="9">
+        <v>23171441</v>
+      </c>
+      <c r="I35" s="4">
+        <v>1908.5282101968501</v>
+      </c>
+      <c r="J35" s="4">
+        <v>3555.3590256981802</v>
+      </c>
+      <c r="K35" s="4">
+        <f t="shared" si="0"/>
+        <v>0.53680323039163802</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="9">
+        <v>490676</v>
+      </c>
+      <c r="D36" s="9">
+        <v>70862</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.144417089892311</v>
+      </c>
+      <c r="F36" s="9">
+        <v>114446</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.23324148725431801</v>
+      </c>
+      <c r="H36" s="9">
+        <v>-24488582</v>
+      </c>
+      <c r="I36" s="4">
+        <v>-49.907845502938798</v>
+      </c>
+      <c r="J36" s="4">
+        <v>160.766919630758</v>
+      </c>
+      <c r="K36" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.31043603757268484</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="9">
+        <v>44686</v>
+      </c>
+      <c r="D37" s="9">
+        <v>35954</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.80459204225036896</v>
+      </c>
+      <c r="F37" s="9">
+        <v>16824</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.37649375643378202</v>
+      </c>
+      <c r="H37" s="9">
+        <v>9346533</v>
+      </c>
+      <c r="I37" s="4">
+        <v>209.16020677617101</v>
+      </c>
+      <c r="J37" s="4">
+        <v>802.45183630058102</v>
+      </c>
+      <c r="K37" s="4">
+        <f t="shared" si="0"/>
+        <v>0.26065141521817659</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="9">
+        <v>14413</v>
+      </c>
+      <c r="D38" s="9">
+        <v>11412</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.79178519392215296</v>
+      </c>
+      <c r="F38" s="9">
+        <v>5923</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.41094844931658903</v>
+      </c>
+      <c r="H38" s="9">
+        <v>26377913</v>
+      </c>
+      <c r="I38" s="4">
+        <v>1830.14729757857</v>
+      </c>
+      <c r="J38" s="4">
+        <v>3595.2433006218998</v>
+      </c>
+      <c r="K38" s="4">
+        <f t="shared" si="0"/>
+        <v>0.50904685567788799</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="9">
+        <v>484486</v>
+      </c>
+      <c r="D39" s="9">
+        <v>69277</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.14299071593400001</v>
+      </c>
+      <c r="F39" s="9">
+        <v>111738</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.23063205128734299</v>
+      </c>
+      <c r="H39" s="9">
+        <v>-21971381</v>
+      </c>
+      <c r="I39" s="4">
+        <v>-45.349878015050997</v>
+      </c>
+      <c r="J39" s="4">
+        <v>142.289102363853</v>
+      </c>
+      <c r="K39" s="4">
+        <f>I39/J39</f>
+        <v>-0.31871645306388297</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="9">
+        <v>8573</v>
+      </c>
+      <c r="D40" s="9">
+        <v>3502</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.40849177650764001</v>
+      </c>
+      <c r="F40" s="9">
+        <v>3052</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.35600139974338002</v>
+      </c>
+      <c r="H40" s="9">
+        <v>6628619</v>
+      </c>
+      <c r="I40" s="4">
+        <v>773.19713052607005</v>
+      </c>
+      <c r="J40" s="4">
+        <v>2492.5002992610298</v>
+      </c>
+      <c r="K40" s="4">
+        <f t="shared" si="0"/>
+        <v>0.31020944340721068</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="9">
+        <v>56716</v>
+      </c>
+      <c r="D41" s="9">
+        <v>45449</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.80134353621553001</v>
+      </c>
+      <c r="F41" s="9">
+        <v>22403</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.39500317370759502</v>
+      </c>
+      <c r="H41" s="9">
+        <v>31575001</v>
+      </c>
+      <c r="I41" s="4">
+        <v>556.721225051131</v>
+      </c>
+      <c r="J41" s="4">
+        <v>1885.80440381427</v>
+      </c>
+      <c r="K41" s="4">
+        <f t="shared" si="0"/>
+        <v>0.29521684429471806</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/baseline_prWin_metrics.xlsx
+++ b/baseline_prWin_metrics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael_peng/Documents/pkrprb/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael.peng/Documents/pkrprb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{85E8F4E8-4D21-E444-9BFB-56A1148989B8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5C977D-3299-BE4C-8C15-2816809D7B67}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" activeTab="8" xr2:uid="{CD697F08-0CC6-5044-82D1-47E874A00822}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14340" activeTab="2" xr2:uid="{CD697F08-0CC6-5044-82D1-47E874A00822}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline prWin =&gt; win" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="expert rules all" sheetId="9" r:id="rId8"/>
     <sheet name="expert rules" sheetId="8" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="62">
   <si>
     <t>Deal</t>
   </si>
@@ -250,6 +250,10 @@
     <t>pairs</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>tr = 20180723~0802, tt=20180803</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -257,7 +261,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -346,23 +350,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="千分位" xfId="1" builtinId="3"/>
     <cellStyle name="百分比" xfId="2" builtinId="5"/>
-    <cellStyle name="逗號" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -729,7 +733,7 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -767,7 +771,7 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="8"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -803,7 +807,7 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="8"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -839,7 +843,7 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="8"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -875,7 +879,7 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -913,7 +917,7 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="8"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
@@ -949,7 +953,7 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="8"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
@@ -985,7 +989,7 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="8"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
@@ -1021,7 +1025,7 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1059,7 +1063,7 @@
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="8"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
@@ -1095,7 +1099,7 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="8"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="1" t="s">
         <v>2</v>
       </c>
@@ -1131,7 +1135,7 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="8"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
@@ -1167,7 +1171,7 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1205,7 +1209,7 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="8"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
@@ -1241,7 +1245,7 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="8"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="1" t="s">
         <v>2</v>
       </c>
@@ -1277,7 +1281,7 @@
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="8"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="1" t="s">
         <v>3</v>
       </c>
@@ -1382,7 +1386,7 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1420,7 +1424,7 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1458,7 +1462,7 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1496,7 +1500,7 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1534,7 +1538,7 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1572,7 +1576,7 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1610,7 +1614,7 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1648,7 +1652,7 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1686,7 +1690,7 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1724,7 +1728,7 @@
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1762,7 +1766,7 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1800,7 +1804,7 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1838,7 +1842,7 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1876,7 +1880,7 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1914,7 +1918,7 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1952,7 +1956,7 @@
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -2003,10 +2007,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78455AF6-6C0D-6F4D-B58E-63EC2598B450}">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
@@ -2014,14 +2018,22 @@
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="11.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="G1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
@@ -2031,8 +2043,17 @@
       <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" hidden="1">
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2048,8 +2069,23 @@
       <c r="E3" s="4">
         <v>208956.75</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" hidden="1">
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="3">
+        <v>278609</v>
+      </c>
+      <c r="J3" s="3">
+        <v>278609</v>
+      </c>
+      <c r="K3" s="3">
+        <v>278609</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2065,8 +2101,23 @@
       <c r="E4" s="4">
         <v>80.95</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" hidden="1">
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.88871141994699998</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.78354252734100005</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.82899690964799999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2082,8 +2133,23 @@
       <c r="E5" s="4">
         <v>14.06</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" hidden="1">
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.72274483153299995</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.32529675665399999</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.30392285776900002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2099,8 +2165,23 @@
       <c r="E6" s="4">
         <v>59.83</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" hidden="1">
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.785069059969</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.75860989354999997</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.74527085124699999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2116,8 +2197,23 @@
       <c r="E7" s="4">
         <v>7.96</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.66958826940600003</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.20703798117300001</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.190882563453</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -2133,8 +2229,23 @@
       <c r="E8" s="4">
         <v>69652.25</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="3">
+        <v>41415</v>
+      </c>
+      <c r="J8" s="3">
+        <v>41415</v>
+      </c>
+      <c r="K8" s="3">
+        <v>41415</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -2150,8 +2261,23 @@
       <c r="E9" s="4">
         <v>80.86</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.86813956296000006</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.75808282023399998</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.81526017143499996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -2167,8 +2293,23 @@
       <c r="E10" s="4">
         <v>13.74</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.66985067408300003</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.233845683261</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.26055861602399999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -2184,8 +2325,23 @@
       <c r="E11" s="4">
         <v>57.98</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.73106360517299995</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.56027849028900001</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.62552204176299997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2201,13 +2357,28 @@
       <c r="E12" s="4">
         <v>7.79</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.61809661943500005</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.147758020874</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.16455078125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:11">
       <c r="C14" s="4" t="s">
         <v>10</v>
       </c>
@@ -2217,8 +2388,17 @@
       <c r="E14" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" hidden="1">
+      <c r="I14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" hidden="1">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2234,8 +2414,23 @@
       <c r="E15" s="4">
         <v>208956.75</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" hidden="1">
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="1">
+        <v>278609</v>
+      </c>
+      <c r="J15" s="1">
+        <v>278609</v>
+      </c>
+      <c r="K15" s="1">
+        <v>278609</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" hidden="1">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -2251,8 +2446,20 @@
       <c r="E16" s="4">
         <v>81.77</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" hidden="1">
+      <c r="H16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.89460499999999998</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.78883700000000001</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.83111800000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" hidden="1">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -2268,8 +2475,20 @@
       <c r="E17" s="4">
         <v>21.27</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" hidden="1">
+      <c r="H17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.73826499999999995</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.34606399999999998</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.31377100000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" hidden="1">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -2285,8 +2504,20 @@
       <c r="E18" s="4">
         <v>68.540000000000006</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" hidden="1">
+      <c r="H18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.79893899999999995</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.78832199999999997</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.764154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" hidden="1">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -2302,8 +2533,20 @@
       <c r="E19" s="4">
         <v>12.59</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="H19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.68615700000000002</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.221692</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.19741600000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -2319,8 +2562,23 @@
       <c r="E20" s="4">
         <v>69652.25</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="3">
+        <v>41415</v>
+      </c>
+      <c r="J20" s="3">
+        <v>41415</v>
+      </c>
+      <c r="K20" s="3">
+        <v>41415</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -2336,8 +2594,20 @@
       <c r="E21" s="4">
         <v>81.400000000000006</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="H21" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.87212400000000001</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.76020799999999999</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.81506699999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -2353,8 +2623,20 @@
       <c r="E22" s="4">
         <v>19.809999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="H22" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.67695499999999997</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.22961799999999999</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.25226999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -2370,8 +2652,20 @@
       <c r="E23" s="4">
         <v>63.21</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="H23" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.74673699999999998</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.58199000000000001</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.62993699999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -2387,13 +2681,25 @@
       <c r="E24" s="4">
         <v>11.75</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="H24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.61910100000000001</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0.14302300000000001</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.15771499999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -2407,7 +2713,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1">
+    <row r="27" spans="1:11" hidden="1">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -2424,7 +2730,7 @@
         <v>208956.75</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1">
+    <row r="28" spans="1:11" hidden="1">
       <c r="B28" t="s">
         <v>4</v>
       </c>
@@ -2438,7 +2744,7 @@
         <v>82.54</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1">
+    <row r="29" spans="1:11" hidden="1">
       <c r="B29" t="s">
         <v>5</v>
       </c>
@@ -2452,7 +2758,7 @@
         <v>29.08</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1">
+    <row r="30" spans="1:11" hidden="1">
       <c r="B30" t="s">
         <v>6</v>
       </c>
@@ -2466,7 +2772,7 @@
         <v>70.69</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1">
+    <row r="31" spans="1:11" hidden="1">
       <c r="B31" t="s">
         <v>7</v>
       </c>
@@ -2480,7 +2786,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -13670,6 +13976,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -13677,7 +13984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C82E697-E49C-024E-8A12-6FB67A7600C0}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L42" sqref="L42"/>
     </sheetView>
@@ -13686,12 +13993,12 @@
   <cols>
     <col min="1" max="1" width="20.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.25" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.875" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="9.75" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.875" style="4" bestFit="1" customWidth="1"/>
   </cols>
@@ -13713,25 +14020,25 @@
       </c>
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
-      <c r="K1" s="10"/>
+      <c r="K1" s="9"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>35</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>35</v>
       </c>
       <c r="I2" s="4" t="s">
@@ -13751,22 +14058,22 @@
       <c r="B3" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>8363</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>5368</v>
       </c>
       <c r="E3" s="1">
         <v>0.64187492526605205</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>2746</v>
       </c>
       <c r="G3" s="1">
         <v>0.328351070190123</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>-1129740</v>
       </c>
       <c r="I3" s="4">
@@ -13784,22 +14091,22 @@
       <c r="B4" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>7341</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>4919</v>
       </c>
       <c r="E4" s="1">
         <v>0.670072197248331</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>2187</v>
       </c>
       <c r="G4" s="1">
         <v>0.297915815284021</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <v>545218</v>
       </c>
       <c r="I4" s="4">
@@ -13817,22 +14124,22 @@
       <c r="B5" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>7796</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>5535</v>
       </c>
       <c r="E5" s="1">
         <v>0.70997947665469396</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>2233</v>
       </c>
       <c r="G5" s="1">
         <v>0.28642893791688001</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <v>448794</v>
       </c>
       <c r="I5" s="4">
@@ -13853,22 +14160,22 @@
       <c r="B6" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>7678</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>4929</v>
       </c>
       <c r="E6" s="1">
         <v>0.64196405313883798</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>2525</v>
       </c>
       <c r="G6" s="1">
         <v>0.32886168272987698</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <v>-1079525</v>
       </c>
       <c r="I6" s="4">
@@ -13886,22 +14193,22 @@
       <c r="B7" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>6981</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>4647</v>
       </c>
       <c r="E7" s="1">
         <v>0.66566394499355397</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>2077</v>
       </c>
       <c r="G7" s="1">
         <v>0.29752184500787798</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <v>592507</v>
       </c>
       <c r="I7" s="4">
@@ -13919,22 +14226,22 @@
       <c r="B8" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>8841</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>6246</v>
       </c>
       <c r="E8" s="1">
         <v>0.70648116728876797</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>2564</v>
       </c>
       <c r="G8" s="1">
         <v>0.290012442031444</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <v>552473</v>
       </c>
       <c r="I8" s="4">
@@ -13955,22 +14262,22 @@
       <c r="B9" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>7395</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>4730</v>
       </c>
       <c r="E9" s="1">
         <v>0.63962136578769402</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>2438</v>
       </c>
       <c r="G9" s="1">
         <v>0.32968221771467199</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <v>-1062982</v>
       </c>
       <c r="I9" s="4">
@@ -13988,22 +14295,22 @@
       <c r="B10" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>6864</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>4563</v>
       </c>
       <c r="E10" s="1">
         <v>0.66477272727272696</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>2051</v>
       </c>
       <c r="G10" s="1">
         <v>0.29880536130536101</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <v>615457</v>
       </c>
       <c r="I10" s="4">
@@ -14021,22 +14328,22 @@
       <c r="B11" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>9241</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>6529</v>
       </c>
       <c r="E11" s="1">
         <v>0.70652526782815706</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>2677</v>
       </c>
       <c r="G11" s="1">
         <v>0.289687263283194</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
         <v>597187</v>
       </c>
       <c r="I11" s="4">
@@ -14057,22 +14364,22 @@
       <c r="B12" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>6794</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>4351</v>
       </c>
       <c r="E12" s="1">
         <v>0.64041801589637903</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <v>2292</v>
       </c>
       <c r="G12" s="1">
         <v>0.33735649102148901</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="8">
         <v>-1021589</v>
       </c>
       <c r="I12" s="4">
@@ -14090,22 +14397,22 @@
       <c r="B13" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>6340</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>4233</v>
       </c>
       <c r="E13" s="1">
         <v>0.66766561514195499</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <v>1910</v>
       </c>
       <c r="G13" s="1">
         <v>0.30126182965299603</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="8">
         <v>635377</v>
       </c>
       <c r="I13" s="4">
@@ -14123,22 +14430,22 @@
       <c r="B14" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>10366</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>7238</v>
       </c>
       <c r="E14" s="1">
         <v>0.69824426008103402</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <v>2964</v>
       </c>
       <c r="G14" s="1">
         <v>0.28593478680300899</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="8">
         <v>692799</v>
       </c>
       <c r="I14" s="4">
@@ -14159,22 +14466,22 @@
       <c r="B15" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>5890</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <v>3749</v>
       </c>
       <c r="E15" s="1">
         <v>0.63650254668930395</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <v>2008</v>
       </c>
       <c r="G15" s="1">
         <v>0.340916808149405</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="8">
         <v>-943942</v>
       </c>
       <c r="I15" s="4">
@@ -14192,22 +14499,22 @@
       <c r="B16" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <v>5637</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <v>3800</v>
       </c>
       <c r="E16" s="1">
         <v>0.67411743835373406</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <v>1695</v>
       </c>
       <c r="G16" s="1">
         <v>0.30069185737094201</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="8">
         <v>677545</v>
       </c>
       <c r="I16" s="4">
@@ -14225,22 +14532,22 @@
       <c r="B17" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <v>11973</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>8273</v>
       </c>
       <c r="E17" s="1">
         <v>0.69097135220913697</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <v>3463</v>
       </c>
       <c r="G17" s="1">
         <v>0.28923411008101502</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="8">
         <v>893167</v>
       </c>
       <c r="I17" s="4">
@@ -14261,22 +14568,22 @@
       <c r="B18" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="8">
         <v>4861</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="8">
         <v>3079</v>
       </c>
       <c r="E18" s="1">
         <v>0.63340876362888299</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <v>1660</v>
       </c>
       <c r="G18" s="1">
         <v>0.34149351985188198</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="8">
         <v>-827053</v>
       </c>
       <c r="I18" s="4">
@@ -14294,22 +14601,22 @@
       <c r="B19" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <v>4605</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="8">
         <v>3091</v>
       </c>
       <c r="E19" s="1">
         <v>0.67122692725298505</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <v>1441</v>
       </c>
       <c r="G19" s="1">
         <v>0.31292073832790401</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="8">
         <v>748158</v>
       </c>
       <c r="I19" s="4">
@@ -14327,22 +14634,22 @@
       <c r="B20" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="8">
         <v>14034</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="8">
         <v>9652</v>
       </c>
       <c r="E20" s="1">
         <v>0.68775830126834803</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
         <v>4065</v>
       </c>
       <c r="G20" s="1">
         <v>0.28965369816160702</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="8">
         <v>1270965</v>
       </c>
       <c r="I20" s="4">
@@ -14363,22 +14670,22 @@
       <c r="B21" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <v>524605</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <v>95177</v>
       </c>
       <c r="E21" s="1">
         <v>0.181426025295222</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="8">
         <v>126095</v>
       </c>
       <c r="G21" s="1">
         <v>0.24036179601795599</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="8">
         <v>-26460114</v>
       </c>
       <c r="I21" s="4">
@@ -14396,22 +14703,22 @@
       <c r="B22" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="8">
         <v>19389</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="8">
         <v>17763</v>
       </c>
       <c r="E22" s="1">
         <v>0.91613801640105197</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="8">
         <v>8345</v>
       </c>
       <c r="G22" s="1">
         <v>0.43039867966372602</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="8">
         <v>5315885</v>
       </c>
       <c r="I22" s="4">
@@ -14429,22 +14736,22 @@
       <c r="B23" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="8">
         <v>5781</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="8">
         <v>5288</v>
       </c>
       <c r="E23" s="1">
         <v>0.91472063656806701</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="8">
         <v>2753</v>
       </c>
       <c r="G23" s="1">
         <v>0.47621518768379101</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="8">
         <v>12376422</v>
       </c>
       <c r="I23" s="4">
@@ -14465,22 +14772,22 @@
       <c r="B24" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="8">
         <v>519222</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="8">
         <v>91241</v>
       </c>
       <c r="E24" s="1">
         <v>0.175726375230633</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="8">
         <v>124210</v>
       </c>
       <c r="G24" s="1">
         <v>0.239223299474983</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="8">
         <v>-26268834</v>
       </c>
       <c r="I24" s="4">
@@ -14498,22 +14805,22 @@
       <c r="B25" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="8">
         <v>24772</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="8">
         <v>21699</v>
       </c>
       <c r="E25" s="1">
         <v>0.87594865170353597</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="8">
         <v>10230</v>
       </c>
       <c r="G25" s="1">
         <v>0.41296625222024802</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="8">
         <v>6345159</v>
       </c>
       <c r="I25" s="4">
@@ -14531,22 +14838,22 @@
       <c r="B26" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="8">
         <v>5781</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="8">
         <v>5288</v>
       </c>
       <c r="E26" s="1">
         <v>0.91472063656806701</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="8">
         <v>2753</v>
       </c>
       <c r="G26" s="1">
         <v>0.47621518768379101</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="8">
         <v>12376422</v>
       </c>
       <c r="I26" s="4">
@@ -14567,22 +14874,22 @@
       <c r="B27" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="8">
         <v>510710</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="8">
         <v>84004</v>
       </c>
       <c r="E27" s="1">
         <v>0.16448473693485499</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="8">
         <v>121125</v>
       </c>
       <c r="G27" s="1">
         <v>0.237169822404104</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="8">
         <v>-25370357</v>
       </c>
       <c r="I27" s="4">
@@ -14600,22 +14907,22 @@
       <c r="B28" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="8">
         <v>26924</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="8">
         <v>24158</v>
       </c>
       <c r="E28" s="1">
         <v>0.89726637943841903</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="8">
         <v>10922</v>
       </c>
       <c r="G28" s="1">
         <v>0.40566037735848998</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="8">
         <v>6655652</v>
       </c>
       <c r="I28" s="4">
@@ -14633,22 +14940,22 @@
       <c r="B29" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="8">
         <v>12141</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="8">
         <v>10066</v>
       </c>
       <c r="E29" s="1">
         <v>0.82909150811300503</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="8">
         <v>5146</v>
       </c>
       <c r="G29" s="1">
         <v>0.42385305987974597</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="8">
         <v>23171441</v>
       </c>
       <c r="I29" s="4">
@@ -14669,22 +14976,22 @@
       <c r="B30" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="8">
         <v>505327</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="8">
         <v>80068</v>
       </c>
       <c r="E30" s="1">
         <v>0.15844789611479199</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="8">
         <v>119240</v>
       </c>
       <c r="G30" s="1">
         <v>0.23596601804376099</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="8">
         <v>-25179077</v>
       </c>
       <c r="I30" s="4">
@@ -14702,22 +15009,22 @@
       <c r="B31" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="8">
         <v>32307</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="8">
         <v>28094</v>
       </c>
       <c r="E31" s="1">
         <v>0.86959482465100402</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="8">
         <v>12807</v>
       </c>
       <c r="G31" s="1">
         <v>0.396415637477945</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H31" s="8">
         <v>7684926</v>
       </c>
       <c r="I31" s="4">
@@ -14735,22 +15042,22 @@
       <c r="B32" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="8">
         <v>12141</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="8">
         <v>10066</v>
       </c>
       <c r="E32" s="1">
         <v>0.82909150811300503</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="8">
         <v>5146</v>
       </c>
       <c r="G32" s="1">
         <v>0.42385305987974597</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="8">
         <v>23171441</v>
       </c>
       <c r="I32" s="4">
@@ -14771,22 +15078,22 @@
       <c r="B33" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="8">
         <v>495753</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="8">
         <v>74224</v>
       </c>
       <c r="E33" s="1">
         <v>0.149719719295697</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="8">
         <v>116124</v>
       </c>
       <c r="G33" s="1">
         <v>0.23423761429582801</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="8">
         <v>-24853477</v>
       </c>
       <c r="I33" s="4">
@@ -14804,22 +15111,22 @@
       <c r="B34" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="8">
         <v>41881</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="8">
         <v>33938</v>
       </c>
       <c r="E34" s="1">
         <v>0.81034359255987198</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="8">
         <v>15923</v>
       </c>
       <c r="G34" s="1">
         <v>0.38019627038513798</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H34" s="8">
         <v>8980171</v>
       </c>
       <c r="I34" s="4">
@@ -14837,22 +15144,22 @@
       <c r="B35" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="8">
         <v>12141</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="8">
         <v>10066</v>
       </c>
       <c r="E35" s="1">
         <v>0.82909150811300503</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="8">
         <v>5146</v>
       </c>
       <c r="G35" s="1">
         <v>0.42385305987974597</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H35" s="8">
         <v>23171441</v>
       </c>
       <c r="I35" s="4">
@@ -14873,22 +15180,22 @@
       <c r="B36" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="8">
         <v>490676</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="8">
         <v>70862</v>
       </c>
       <c r="E36" s="1">
         <v>0.144417089892311</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="8">
         <v>114446</v>
       </c>
       <c r="G36" s="1">
         <v>0.23324148725431801</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H36" s="8">
         <v>-24488582</v>
       </c>
       <c r="I36" s="4">
@@ -14906,22 +15213,22 @@
       <c r="B37" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="8">
         <v>44686</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="8">
         <v>35954</v>
       </c>
       <c r="E37" s="1">
         <v>0.80459204225036896</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F37" s="8">
         <v>16824</v>
       </c>
       <c r="G37" s="1">
         <v>0.37649375643378202</v>
       </c>
-      <c r="H37" s="9">
+      <c r="H37" s="8">
         <v>9346533</v>
       </c>
       <c r="I37" s="4">
@@ -14939,22 +15246,22 @@
       <c r="B38" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="8">
         <v>14413</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="8">
         <v>11412</v>
       </c>
       <c r="E38" s="1">
         <v>0.79178519392215296</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38" s="8">
         <v>5923</v>
       </c>
       <c r="G38" s="1">
         <v>0.41094844931658903</v>
       </c>
-      <c r="H38" s="9">
+      <c r="H38" s="8">
         <v>26377913</v>
       </c>
       <c r="I38" s="4">
@@ -14975,22 +15282,22 @@
       <c r="B39" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="8">
         <v>484486</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="8">
         <v>69277</v>
       </c>
       <c r="E39" s="1">
         <v>0.14299071593400001</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="8">
         <v>111738</v>
       </c>
       <c r="G39" s="1">
         <v>0.23063205128734299</v>
       </c>
-      <c r="H39" s="9">
+      <c r="H39" s="8">
         <v>-21971381</v>
       </c>
       <c r="I39" s="4">
@@ -15008,22 +15315,22 @@
       <c r="B40" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="8">
         <v>8573</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="8">
         <v>3502</v>
       </c>
       <c r="E40" s="1">
         <v>0.40849177650764001</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40" s="8">
         <v>3052</v>
       </c>
       <c r="G40" s="1">
         <v>0.35600139974338002</v>
       </c>
-      <c r="H40" s="9">
+      <c r="H40" s="8">
         <v>6628619</v>
       </c>
       <c r="I40" s="4">
@@ -15041,22 +15348,22 @@
       <c r="B41" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="8">
         <v>56716</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="8">
         <v>45449</v>
       </c>
       <c r="E41" s="1">
         <v>0.80134353621553001</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F41" s="8">
         <v>22403</v>
       </c>
       <c r="G41" s="1">
         <v>0.39500317370759502</v>
       </c>
-      <c r="H41" s="9">
+      <c r="H41" s="8">
         <v>31575001</v>
       </c>
       <c r="I41" s="4">

--- a/baseline_prWin_metrics.xlsx
+++ b/baseline_prWin_metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael.peng/Documents/pkrprb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5C977D-3299-BE4C-8C15-2816809D7B67}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1913DB-3E21-3248-BAAD-A0EFAB52BE11}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14340" activeTab="2" xr2:uid="{CD697F08-0CC6-5044-82D1-47E874A00822}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14340" activeTab="9" xr2:uid="{CD697F08-0CC6-5044-82D1-47E874A00822}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline prWin =&gt; win" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Calib" sheetId="7" r:id="rId7"/>
     <sheet name="expert rules all" sheetId="9" r:id="rId8"/>
     <sheet name="expert rules" sheetId="8" r:id="rId9"/>
+    <sheet name="Deal Steal" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="63">
   <si>
     <t>Deal</t>
   </si>
@@ -253,6 +254,9 @@
   <si>
     <t>tr = 20180723~0802, tt=20180803</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>steal</t>
   </si>
 </sst>
 </file>
@@ -1329,6 +1333,2421 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192EEAE9-8FF6-5A49-9550-00A90EB68A4E}">
+  <dimension ref="A1:K100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="J87" sqref="J87"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <cols>
+    <col min="1" max="1" width="2.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>50928</v>
+      </c>
+      <c r="E2">
+        <v>0.01</v>
+      </c>
+      <c r="F2">
+        <v>1218</v>
+      </c>
+      <c r="G2">
+        <v>3451</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.47747957993000001</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.52045405868500005</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.35207186322799999</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.99753694581300001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.90843936537900005</v>
+      </c>
+      <c r="E3">
+        <v>0.02</v>
+      </c>
+      <c r="F3">
+        <v>1218</v>
+      </c>
+      <c r="G3">
+        <v>3198</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.53558926487699998</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.54936594202900002</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.37929956222599998</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.99589490968799999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.77955845506499999</v>
+      </c>
+      <c r="E4">
+        <v>0.03</v>
+      </c>
+      <c r="F4">
+        <v>1218</v>
+      </c>
+      <c r="G4">
+        <v>3045</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.57082847141199999</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.56861365235700001</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.39802955665</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.99507389162600002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.84382355951300003</v>
+      </c>
+      <c r="E5">
+        <v>0.04</v>
+      </c>
+      <c r="F5">
+        <v>1218</v>
+      </c>
+      <c r="G5">
+        <v>2918</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.58558994197299996</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.415010281014</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.99425287356299996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.72438938675099995</v>
+      </c>
+      <c r="E6">
+        <v>0.05</v>
+      </c>
+      <c r="F6">
+        <v>1218</v>
+      </c>
+      <c r="G6">
+        <v>2790</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.62893815635899997</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.60329341317399998</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.433333333333</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.99261083743800005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>4285</v>
+      </c>
+      <c r="E7">
+        <v>0.06</v>
+      </c>
+      <c r="F7">
+        <v>1218</v>
+      </c>
+      <c r="G7">
+        <v>2705</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.64644107351199998</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.61381595717600002</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.44510166358600001</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.98850574712600003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.83640606767799996</v>
+      </c>
+      <c r="E8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F8">
+        <v>1218</v>
+      </c>
+      <c r="G8">
+        <v>2639</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.66044340723499995</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.62276380606699999</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.45509662751000002</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.98604269293900004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.684943820225</v>
+      </c>
+      <c r="E9">
+        <v>0.08</v>
+      </c>
+      <c r="F9">
+        <v>1218</v>
+      </c>
+      <c r="G9">
+        <v>2574</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.67421236872800006</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.63185654008400005</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.465423465423</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.98357963875200005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.75670307845100004</v>
+      </c>
+      <c r="E10">
+        <v>0.09</v>
+      </c>
+      <c r="F10">
+        <v>1218</v>
+      </c>
+      <c r="G10">
+        <v>2515</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.68471411902000001</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.63809268684700005</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.47355864811100001</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.97783251231500001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.62561576354699999</v>
+      </c>
+      <c r="E11">
+        <v>0.1</v>
+      </c>
+      <c r="F11">
+        <v>1218</v>
+      </c>
+      <c r="G11">
+        <v>2451</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.696849474912</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.64595257563399999</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.483476132191</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.97290640394100003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="E12">
+        <v>0.11</v>
+      </c>
+      <c r="F12">
+        <v>1218</v>
+      </c>
+      <c r="G12">
+        <v>2389</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.70945157526299996</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.65483781535899999</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.494349100042</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.96962233169099998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="E13">
+        <v>0.12</v>
+      </c>
+      <c r="F13">
+        <v>1218</v>
+      </c>
+      <c r="G13">
+        <v>2306</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.72415402567099996</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.66458569807000001</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.50780572419799996</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.96141215106699995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="E14">
+        <v>0.13</v>
+      </c>
+      <c r="F14">
+        <v>1218</v>
+      </c>
+      <c r="G14">
+        <v>2260</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.730688448075</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.66820011500900001</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.51415929203499999</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.95402298850599998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="E15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F15">
+        <v>1218</v>
+      </c>
+      <c r="G15">
+        <v>2204</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.74049008167999997</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.67504383401500001</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.52404718693300001</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.94827586206900005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="E16">
+        <v>0.15</v>
+      </c>
+      <c r="F16">
+        <v>1218</v>
+      </c>
+      <c r="G16">
+        <v>2145</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.75052508751500002</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.68212905144199998</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.53473193473199998</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.94170771757000005</v>
+      </c>
+    </row>
+    <row r="17" spans="5:11">
+      <c r="E17">
+        <v>0.16</v>
+      </c>
+      <c r="F17">
+        <v>1218</v>
+      </c>
+      <c r="G17">
+        <v>2092</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.75822637106199997</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.68700906344400003</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.543499043977</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.93349753694600002</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11">
+      <c r="E18">
+        <v>0.17</v>
+      </c>
+      <c r="F18">
+        <v>1218</v>
+      </c>
+      <c r="G18">
+        <v>2032</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.76802800466700005</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.694153846154</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.555118110236</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.92610837438399995</v>
+      </c>
+    </row>
+    <row r="19" spans="5:11">
+      <c r="E19">
+        <v>0.18</v>
+      </c>
+      <c r="F19">
+        <v>1218</v>
+      </c>
+      <c r="G19">
+        <v>1992</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.77549591598599998</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.70031152647999995</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.56425702811199996</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.922824302135</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11">
+      <c r="E20">
+        <v>0.19</v>
+      </c>
+      <c r="F20">
+        <v>1218</v>
+      </c>
+      <c r="G20">
+        <v>1945</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.78273045507600003</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.70565918431899999</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.57377892030800004</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.91625615763500001</v>
+      </c>
+    </row>
+    <row r="21" spans="5:11">
+      <c r="E21">
+        <v>0.2</v>
+      </c>
+      <c r="F21">
+        <v>1218</v>
+      </c>
+      <c r="G21">
+        <v>1902</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.78763127187899995</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.70833333333299997</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.58096740273400005</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.90722495894900002</v>
+      </c>
+    </row>
+    <row r="22" spans="5:11">
+      <c r="E22">
+        <v>0.21</v>
+      </c>
+      <c r="F22">
+        <v>1218</v>
+      </c>
+      <c r="G22">
+        <v>1860</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.79229871645299998</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.71085120207899999</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.58817204301100001</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.89819376026300002</v>
+      </c>
+    </row>
+    <row r="23" spans="5:11">
+      <c r="E23">
+        <v>0.22</v>
+      </c>
+      <c r="F23">
+        <v>1218</v>
+      </c>
+      <c r="G23">
+        <v>1818</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.79743290548400003</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.71409749670599998</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.59625962596299997</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.88998357963899999</v>
+      </c>
+    </row>
+    <row r="24" spans="5:11">
+      <c r="E24">
+        <v>0.23</v>
+      </c>
+      <c r="F24">
+        <v>1218</v>
+      </c>
+      <c r="G24">
+        <v>1790</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.80070011668600005</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.71609042553199997</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0.60167597765400005</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.88423645320199995</v>
+      </c>
+    </row>
+    <row r="25" spans="5:11">
+      <c r="E25">
+        <v>0.24</v>
+      </c>
+      <c r="F25">
+        <v>1218</v>
+      </c>
+      <c r="G25">
+        <v>1743</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.80513418903199996</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.71800067544699997</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.60986804360299995</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.87274220032799998</v>
+      </c>
+    </row>
+    <row r="26" spans="5:11">
+      <c r="E26">
+        <v>0.25</v>
+      </c>
+      <c r="F26">
+        <v>1218</v>
+      </c>
+      <c r="G26">
+        <v>1699</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.80886814469099999</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.71923208776100001</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0.61742201294900001</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0.861247947455</v>
+      </c>
+    </row>
+    <row r="27" spans="5:11">
+      <c r="E27">
+        <v>0.26</v>
+      </c>
+      <c r="F27">
+        <v>1218</v>
+      </c>
+      <c r="G27">
+        <v>1659</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.81400233372200004</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.72297532151499999</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0.62688366485799996</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0.85385878489300004</v>
+      </c>
+    </row>
+    <row r="28" spans="5:11">
+      <c r="E28">
+        <v>0.27</v>
+      </c>
+      <c r="F28">
+        <v>1218</v>
+      </c>
+      <c r="G28">
+        <v>1640</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.81563593932300005</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.72358292512199995</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0.63048780487800005</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0.84893267651899995</v>
+      </c>
+    </row>
+    <row r="29" spans="5:11">
+      <c r="E29">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F29">
+        <v>1218</v>
+      </c>
+      <c r="G29">
+        <v>1615</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.81866977829599996</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.72573243910999996</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0.63653250774000003</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0.84400656814399999</v>
+      </c>
+    </row>
+    <row r="30" spans="5:11">
+      <c r="E30">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F30">
+        <v>1218</v>
+      </c>
+      <c r="G30">
+        <v>1587</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.81960326721099996</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0.724420677362</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0.64020163831099997</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0.83415435139600003</v>
+      </c>
+    </row>
+    <row r="31" spans="5:11">
+      <c r="E31">
+        <v>0.3</v>
+      </c>
+      <c r="F31">
+        <v>1218</v>
+      </c>
+      <c r="G31">
+        <v>1553</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.82147024504099997</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0.72392638036800006</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0.64584674822900001</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0.82348111658500001</v>
+      </c>
+    </row>
+    <row r="32" spans="5:11">
+      <c r="E32">
+        <v>0.31</v>
+      </c>
+      <c r="F32">
+        <v>1218</v>
+      </c>
+      <c r="G32">
+        <v>1528</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.82310385064199998</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0.72396212673000004</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0.65052356020900004</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0.81609195402300005</v>
+      </c>
+    </row>
+    <row r="33" spans="5:11">
+      <c r="E33">
+        <v>0.32</v>
+      </c>
+      <c r="F33">
+        <v>1218</v>
+      </c>
+      <c r="G33">
+        <v>1502</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.826371061844</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.72647058823499999</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0.65778961384800005</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0.81116584564899996</v>
+      </c>
+    </row>
+    <row r="34" spans="5:11">
+      <c r="E34">
+        <v>0.33</v>
+      </c>
+      <c r="F34">
+        <v>1218</v>
+      </c>
+      <c r="G34">
+        <v>1466</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.82870478413100002</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0.72652757078999997</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0.665075034106</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0.80049261083699996</v>
+      </c>
+    </row>
+    <row r="35" spans="5:11">
+      <c r="E35">
+        <v>0.34</v>
+      </c>
+      <c r="F35">
+        <v>1218</v>
+      </c>
+      <c r="G35">
+        <v>1451</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.83127187864600005</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.72911202697599997</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0.67057201929700005</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0.79885057471300003</v>
+      </c>
+    </row>
+    <row r="36" spans="5:11">
+      <c r="E36">
+        <v>0.35</v>
+      </c>
+      <c r="F36">
+        <v>1218</v>
+      </c>
+      <c r="G36">
+        <v>1418</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.83057176196000004</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0.72458270106199996</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0.67348377997200004</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0.78407224958900001</v>
+      </c>
+    </row>
+    <row r="37" spans="5:11">
+      <c r="E37">
+        <v>0.36</v>
+      </c>
+      <c r="F37">
+        <v>1218</v>
+      </c>
+      <c r="G37">
+        <v>1384</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.83290548424699995</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0.72482705611099996</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0.68135838150299999</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0.77422003284100005</v>
+      </c>
+    </row>
+    <row r="38" spans="5:11">
+      <c r="E38">
+        <v>0.37</v>
+      </c>
+      <c r="F38">
+        <v>1218</v>
+      </c>
+      <c r="G38">
+        <v>1355</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0.83453908984799996</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0.72444617178399995</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0.68782287822900001</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0.76518883415399996</v>
+      </c>
+    </row>
+    <row r="39" spans="5:11">
+      <c r="E39">
+        <v>0.38</v>
+      </c>
+      <c r="F39">
+        <v>1218</v>
+      </c>
+      <c r="G39">
+        <v>1326</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0.83757292882099998</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0.72641509433999996</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0.69683257918599995</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0.75862068965499996</v>
+      </c>
+    </row>
+    <row r="40" spans="5:11">
+      <c r="E40">
+        <v>0.39</v>
+      </c>
+      <c r="F40">
+        <v>1218</v>
+      </c>
+      <c r="G40">
+        <v>1299</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0.83920653442199999</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0.72626142232799995</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0.70361816782099995</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0.75041050903100004</v>
+      </c>
+    </row>
+    <row r="41" spans="5:11">
+      <c r="E41">
+        <v>0.4</v>
+      </c>
+      <c r="F41">
+        <v>1218</v>
+      </c>
+      <c r="G41">
+        <v>1271</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0.842007001167</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0.72800321414199998</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0.71282454760000002</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0.74384236453200003</v>
+      </c>
+    </row>
+    <row r="42" spans="5:11">
+      <c r="E42">
+        <v>0.41</v>
+      </c>
+      <c r="F42">
+        <v>1218</v>
+      </c>
+      <c r="G42">
+        <v>1238</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0.83990665110899998</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0.72068403908800005</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0.71486268174500001</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0.72660098522200001</v>
+      </c>
+    </row>
+    <row r="43" spans="5:11">
+      <c r="E43">
+        <v>0.42</v>
+      </c>
+      <c r="F43">
+        <v>1218</v>
+      </c>
+      <c r="G43">
+        <v>1212</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.84130688448099999</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0.72016460905299995</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0.72194719471900004</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0.71839080459799998</v>
+      </c>
+    </row>
+    <row r="44" spans="5:11">
+      <c r="E44">
+        <v>0.43</v>
+      </c>
+      <c r="F44">
+        <v>1218</v>
+      </c>
+      <c r="G44">
+        <v>1177</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.842007001167</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0.71732776618000005</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0.72982158028900002</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0.70525451559899999</v>
+      </c>
+    </row>
+    <row r="45" spans="5:11">
+      <c r="E45">
+        <v>0.44</v>
+      </c>
+      <c r="F45">
+        <v>1218</v>
+      </c>
+      <c r="G45">
+        <v>1151</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0.84247374562400001</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0.71506964964099995</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0.73588184187700001</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0.69540229885100002</v>
+      </c>
+    </row>
+    <row r="46" spans="5:11">
+      <c r="E46">
+        <v>0.45</v>
+      </c>
+      <c r="F46">
+        <v>1218</v>
+      </c>
+      <c r="G46">
+        <v>1127</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0.841073512252</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0.70959488272899995</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0.73824312333599995</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0.68308702791499998</v>
+      </c>
+    </row>
+    <row r="47" spans="5:11">
+      <c r="E47">
+        <v>0.46</v>
+      </c>
+      <c r="F47">
+        <v>1218</v>
+      </c>
+      <c r="G47">
+        <v>1102</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0.83990665110899998</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0.70431034482800003</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0.74137931034500004</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0.67077175697900004</v>
+      </c>
+    </row>
+    <row r="48" spans="5:11">
+      <c r="E48">
+        <v>0.47</v>
+      </c>
+      <c r="F48">
+        <v>1218</v>
+      </c>
+      <c r="G48">
+        <v>1074</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0.83943990665099999</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0.69982547992999999</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0.74674115456199996</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0.658456486043</v>
+      </c>
+    </row>
+    <row r="49" spans="5:11">
+      <c r="E49">
+        <v>0.48</v>
+      </c>
+      <c r="F49">
+        <v>1218</v>
+      </c>
+      <c r="G49">
+        <v>1045</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0.840140023337</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0.69730446310200001</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0.75502392344500002</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0.64778325123199998</v>
+      </c>
+    </row>
+    <row r="50" spans="5:11">
+      <c r="E50">
+        <v>0.49</v>
+      </c>
+      <c r="F50">
+        <v>1218</v>
+      </c>
+      <c r="G50">
+        <v>1025</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0.83873978996499998</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0.69193045029</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0.75707317073199998</v>
+      </c>
+      <c r="K50" s="1">
+        <v>0.63711001641999998</v>
+      </c>
+    </row>
+    <row r="51" spans="5:11">
+      <c r="E51">
+        <v>0.5</v>
+      </c>
+      <c r="F51">
+        <v>1218</v>
+      </c>
+      <c r="G51">
+        <v>1007</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0.83640606767799996</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0.684943820225</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0.75670307845100004</v>
+      </c>
+      <c r="K51" s="1">
+        <v>0.62561576354699999</v>
+      </c>
+    </row>
+    <row r="52" spans="5:11">
+      <c r="E52">
+        <v>0.51</v>
+      </c>
+      <c r="F52">
+        <v>1218</v>
+      </c>
+      <c r="G52">
+        <v>971</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0.83547257876299996</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0.67793513019600005</v>
+      </c>
+      <c r="J52" s="1">
+        <v>0.764160659114</v>
+      </c>
+      <c r="K52" s="1">
+        <v>0.60919540229900004</v>
+      </c>
+    </row>
+    <row r="53" spans="5:11">
+      <c r="E53">
+        <v>0.52</v>
+      </c>
+      <c r="F53">
+        <v>1218</v>
+      </c>
+      <c r="G53">
+        <v>942</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0.83337222870500005</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0.66944444444399998</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0.76751592356700005</v>
+      </c>
+      <c r="K53" s="1">
+        <v>0.59359605911299995</v>
+      </c>
+    </row>
+    <row r="54" spans="5:11">
+      <c r="E54">
+        <v>0.53</v>
+      </c>
+      <c r="F54">
+        <v>1218</v>
+      </c>
+      <c r="G54">
+        <v>922</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0.83523920653399997</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0.67009345794399999</v>
+      </c>
+      <c r="J54" s="1">
+        <v>0.777657266811</v>
+      </c>
+      <c r="K54" s="1">
+        <v>0.58866995073899997</v>
+      </c>
+    </row>
+    <row r="55" spans="5:11">
+      <c r="E55">
+        <v>0.54</v>
+      </c>
+      <c r="F55">
+        <v>1218</v>
+      </c>
+      <c r="G55">
+        <v>897</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0.83453908984799996</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0.664775413712</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0.78372352285400004</v>
+      </c>
+      <c r="K55" s="1">
+        <v>0.577175697865</v>
+      </c>
+    </row>
+    <row r="56" spans="5:11">
+      <c r="E56">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F56">
+        <v>1218</v>
+      </c>
+      <c r="G56">
+        <v>875</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0.83267211201900004</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0.65742952699500001</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0.78628571428600003</v>
+      </c>
+      <c r="K56" s="1">
+        <v>0.56486042692899996</v>
+      </c>
+    </row>
+    <row r="57" spans="5:11">
+      <c r="E57">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F57">
+        <v>1218</v>
+      </c>
+      <c r="G57">
+        <v>846</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0.83010501750300003</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0.64728682170499996</v>
+      </c>
+      <c r="J57" s="1">
+        <v>0.78959810874699998</v>
+      </c>
+      <c r="K57" s="1">
+        <v>0.54844006568100001</v>
+      </c>
+    </row>
+    <row r="58" spans="5:11">
+      <c r="E58">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F58">
+        <v>1218</v>
+      </c>
+      <c r="G58">
+        <v>826</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0.82870478413100002</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0.64090019569500001</v>
+      </c>
+      <c r="J58" s="1">
+        <v>0.79297820823200005</v>
+      </c>
+      <c r="K58" s="1">
+        <v>0.53776683086999999</v>
+      </c>
+    </row>
+    <row r="59" spans="5:11">
+      <c r="E59">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F59">
+        <v>1218</v>
+      </c>
+      <c r="G59">
+        <v>802</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0.82963827304600002</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0.63861386138599996</v>
+      </c>
+      <c r="J59" s="1">
+        <v>0.80423940149600004</v>
+      </c>
+      <c r="K59" s="1">
+        <v>0.52955665024599996</v>
+      </c>
+    </row>
+    <row r="60" spans="5:11">
+      <c r="E60">
+        <v>0.59</v>
+      </c>
+      <c r="F60">
+        <v>1218</v>
+      </c>
+      <c r="G60">
+        <v>782</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0.82777129521600001</v>
+      </c>
+      <c r="I60" s="1">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="J60" s="1">
+        <v>0.80690537084400005</v>
+      </c>
+      <c r="K60" s="1">
+        <v>0.51806239737299997</v>
+      </c>
+    </row>
+    <row r="61" spans="5:11">
+      <c r="E61">
+        <v>0.6</v>
+      </c>
+      <c r="F61">
+        <v>1218</v>
+      </c>
+      <c r="G61">
+        <v>761</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0.82707117853000001</v>
+      </c>
+      <c r="I61" s="1">
+        <v>0.62556846892399998</v>
+      </c>
+      <c r="J61" s="1">
+        <v>0.81340341655699999</v>
+      </c>
+      <c r="K61" s="1">
+        <v>0.50821018062400003</v>
+      </c>
+    </row>
+    <row r="62" spans="5:11">
+      <c r="E62">
+        <v>0.61</v>
+      </c>
+      <c r="F62">
+        <v>1218</v>
+      </c>
+      <c r="G62">
+        <v>734</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0.82450408401399999</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0.61475409836100003</v>
+      </c>
+      <c r="J62" s="1">
+        <v>0.81743869209800002</v>
+      </c>
+      <c r="K62" s="1">
+        <v>0.49261083743799999</v>
+      </c>
+    </row>
+    <row r="63" spans="5:11">
+      <c r="E63">
+        <v>0.62</v>
+      </c>
+      <c r="F63">
+        <v>1218</v>
+      </c>
+      <c r="G63">
+        <v>706</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0.82030338389699997</v>
+      </c>
+      <c r="I63" s="1">
+        <v>0.59979209979199999</v>
+      </c>
+      <c r="J63" s="1">
+        <v>0.81728045325800003</v>
+      </c>
+      <c r="K63" s="1">
+        <v>0.473727422003</v>
+      </c>
+    </row>
+    <row r="64" spans="5:11">
+      <c r="E64">
+        <v>0.63</v>
+      </c>
+      <c r="F64">
+        <v>1218</v>
+      </c>
+      <c r="G64">
+        <v>679</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0.81540256709500003</v>
+      </c>
+      <c r="I64" s="1">
+        <v>0.58302583025800003</v>
+      </c>
+      <c r="J64" s="1">
+        <v>0.81443298969099998</v>
+      </c>
+      <c r="K64" s="1">
+        <v>0.45402298850599998</v>
+      </c>
+    </row>
+    <row r="65" spans="5:11">
+      <c r="E65">
+        <v>0.64</v>
+      </c>
+      <c r="F65">
+        <v>1218</v>
+      </c>
+      <c r="G65">
+        <v>653</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0.81446907818000003</v>
+      </c>
+      <c r="I65" s="1">
+        <v>0.57509353286999998</v>
+      </c>
+      <c r="J65" s="1">
+        <v>0.82388973966300005</v>
+      </c>
+      <c r="K65" s="1">
+        <v>0.44170771756999999</v>
+      </c>
+    </row>
+    <row r="66" spans="5:11">
+      <c r="E66">
+        <v>0.65</v>
+      </c>
+      <c r="F66">
+        <v>1218</v>
+      </c>
+      <c r="G66">
+        <v>639</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0.81260210035000002</v>
+      </c>
+      <c r="I66" s="1">
+        <v>0.56758212170199995</v>
+      </c>
+      <c r="J66" s="1">
+        <v>0.82472613458499999</v>
+      </c>
+      <c r="K66" s="1">
+        <v>0.43267651888300002</v>
+      </c>
+    </row>
+    <row r="67" spans="5:11">
+      <c r="E67">
+        <v>0.66</v>
+      </c>
+      <c r="F67">
+        <v>1218</v>
+      </c>
+      <c r="G67">
+        <v>612</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0.809568261377</v>
+      </c>
+      <c r="I67" s="1">
+        <v>0.55409836065600004</v>
+      </c>
+      <c r="J67" s="1">
+        <v>0.82843137254900001</v>
+      </c>
+      <c r="K67" s="1">
+        <v>0.41625615763500001</v>
+      </c>
+    </row>
+    <row r="68" spans="5:11">
+      <c r="E68">
+        <v>0.67</v>
+      </c>
+      <c r="F68">
+        <v>1218</v>
+      </c>
+      <c r="G68">
+        <v>589</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0.80746791131899998</v>
+      </c>
+      <c r="I68" s="1">
+        <v>0.54344216934099998</v>
+      </c>
+      <c r="J68" s="1">
+        <v>0.83361629881199995</v>
+      </c>
+      <c r="K68" s="1">
+        <v>0.403119868637</v>
+      </c>
+    </row>
+    <row r="69" spans="5:11">
+      <c r="E69">
+        <v>0.68</v>
+      </c>
+      <c r="F69">
+        <v>1218</v>
+      </c>
+      <c r="G69">
+        <v>562</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0.80396732788799996</v>
+      </c>
+      <c r="I69" s="1">
+        <v>0.52808988763999998</v>
+      </c>
+      <c r="J69" s="1">
+        <v>0.83629893238399999</v>
+      </c>
+      <c r="K69" s="1">
+        <v>0.38587848932699997</v>
+      </c>
+    </row>
+    <row r="70" spans="5:11">
+      <c r="E70">
+        <v>0.69</v>
+      </c>
+      <c r="F70">
+        <v>1218</v>
+      </c>
+      <c r="G70">
+        <v>545</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0.80326721120199995</v>
+      </c>
+      <c r="I70" s="1">
+        <v>0.52183777651700003</v>
+      </c>
+      <c r="J70" s="1">
+        <v>0.84403669724800001</v>
+      </c>
+      <c r="K70" s="1">
+        <v>0.377668308703</v>
+      </c>
+    </row>
+    <row r="71" spans="5:11">
+      <c r="E71">
+        <v>0.7</v>
+      </c>
+      <c r="F71">
+        <v>1218</v>
+      </c>
+      <c r="G71">
+        <v>514</v>
+      </c>
+      <c r="H71" s="1">
+        <v>0.79883313885600005</v>
+      </c>
+      <c r="I71" s="1">
+        <v>0.502309468822</v>
+      </c>
+      <c r="J71" s="1">
+        <v>0.84630350194600001</v>
+      </c>
+      <c r="K71" s="1">
+        <v>0.35714285714299998</v>
+      </c>
+    </row>
+    <row r="72" spans="5:11">
+      <c r="E72">
+        <v>0.71</v>
+      </c>
+      <c r="F72">
+        <v>1218</v>
+      </c>
+      <c r="G72">
+        <v>486</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0.795565927655</v>
+      </c>
+      <c r="I72" s="1">
+        <v>0.48591549295800002</v>
+      </c>
+      <c r="J72" s="1">
+        <v>0.85185185185199996</v>
+      </c>
+      <c r="K72" s="1">
+        <v>0.33990147783300001</v>
+      </c>
+    </row>
+    <row r="73" spans="5:11">
+      <c r="E73">
+        <v>0.72</v>
+      </c>
+      <c r="F73">
+        <v>1218</v>
+      </c>
+      <c r="G73">
+        <v>462</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0.79183197199499999</v>
+      </c>
+      <c r="I73" s="1">
+        <v>0.46904761904800002</v>
+      </c>
+      <c r="J73" s="1">
+        <v>0.85281385281400002</v>
+      </c>
+      <c r="K73" s="1">
+        <v>0.32348111658500001</v>
+      </c>
+    </row>
+    <row r="74" spans="5:11">
+      <c r="E74">
+        <v>0.73</v>
+      </c>
+      <c r="F74">
+        <v>1218</v>
+      </c>
+      <c r="G74">
+        <v>443</v>
+      </c>
+      <c r="H74" s="1">
+        <v>0.78973162193699997</v>
+      </c>
+      <c r="I74" s="1">
+        <v>0.45755568934399998</v>
+      </c>
+      <c r="J74" s="1">
+        <v>0.85778781038399998</v>
+      </c>
+      <c r="K74" s="1">
+        <v>0.31198686371099998</v>
+      </c>
+    </row>
+    <row r="75" spans="5:11">
+      <c r="E75">
+        <v>0.74</v>
+      </c>
+      <c r="F75">
+        <v>1218</v>
+      </c>
+      <c r="G75">
+        <v>419</v>
+      </c>
+      <c r="H75" s="1">
+        <v>0.78459743290499995</v>
+      </c>
+      <c r="I75" s="1">
+        <v>0.43616371411100002</v>
+      </c>
+      <c r="J75" s="1">
+        <v>0.85202863961800002</v>
+      </c>
+      <c r="K75" s="1">
+        <v>0.29310344827599999</v>
+      </c>
+    </row>
+    <row r="76" spans="5:11">
+      <c r="E76">
+        <v>0.75</v>
+      </c>
+      <c r="F76">
+        <v>1218</v>
+      </c>
+      <c r="G76">
+        <v>397</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0.78133022170400002</v>
+      </c>
+      <c r="I76" s="1">
+        <v>0.41981424148599999</v>
+      </c>
+      <c r="J76" s="1">
+        <v>0.853904282116</v>
+      </c>
+      <c r="K76" s="1">
+        <v>0.27832512315300001</v>
+      </c>
+    </row>
+    <row r="77" spans="5:11">
+      <c r="E77">
+        <v>0.76</v>
+      </c>
+      <c r="F77">
+        <v>1218</v>
+      </c>
+      <c r="G77">
+        <v>379</v>
+      </c>
+      <c r="H77" s="1">
+        <v>0.778996499417</v>
+      </c>
+      <c r="I77" s="1">
+        <v>0.407013149656</v>
+      </c>
+      <c r="J77" s="1">
+        <v>0.85751978891799996</v>
+      </c>
+      <c r="K77" s="1">
+        <v>0.26683087027899999</v>
+      </c>
+    </row>
+    <row r="78" spans="5:11">
+      <c r="E78">
+        <v>0.77</v>
+      </c>
+      <c r="F78">
+        <v>1218</v>
+      </c>
+      <c r="G78">
+        <v>360</v>
+      </c>
+      <c r="H78" s="1">
+        <v>0.776896149358</v>
+      </c>
+      <c r="I78" s="1">
+        <v>0.39416983523400001</v>
+      </c>
+      <c r="J78" s="1">
+        <v>0.86388888888899995</v>
+      </c>
+      <c r="K78" s="1">
+        <v>0.255336617406</v>
+      </c>
+    </row>
+    <row r="79" spans="5:11">
+      <c r="E79">
+        <v>0.78</v>
+      </c>
+      <c r="F79">
+        <v>1218</v>
+      </c>
+      <c r="G79">
+        <v>343</v>
+      </c>
+      <c r="H79" s="1">
+        <v>0.77432905484199999</v>
+      </c>
+      <c r="I79" s="1">
+        <v>0.38052530429199999</v>
+      </c>
+      <c r="J79" s="1">
+        <v>0.86588921282800002</v>
+      </c>
+      <c r="K79" s="1">
+        <v>0.24384236453200001</v>
+      </c>
+    </row>
+    <row r="80" spans="5:11">
+      <c r="E80">
+        <v>0.79</v>
+      </c>
+      <c r="F80">
+        <v>1218</v>
+      </c>
+      <c r="G80">
+        <v>329</v>
+      </c>
+      <c r="H80" s="1">
+        <v>0.77339556592799996</v>
+      </c>
+      <c r="I80" s="1">
+        <v>0.37233354880399999</v>
+      </c>
+      <c r="J80" s="1">
+        <v>0.87537993921000001</v>
+      </c>
+      <c r="K80" s="1">
+        <v>0.23645320197</v>
+      </c>
+    </row>
+    <row r="81" spans="5:11">
+      <c r="E81">
+        <v>0.8</v>
+      </c>
+      <c r="F81">
+        <v>1218</v>
+      </c>
+      <c r="G81">
+        <v>313</v>
+      </c>
+      <c r="H81" s="1">
+        <v>0.77199533255499997</v>
+      </c>
+      <c r="I81" s="1">
+        <v>0.36185499673400001</v>
+      </c>
+      <c r="J81" s="1">
+        <v>0.88498402555900002</v>
+      </c>
+      <c r="K81" s="1">
+        <v>0.227422003284</v>
+      </c>
+    </row>
+    <row r="82" spans="5:11">
+      <c r="E82">
+        <v>0.81</v>
+      </c>
+      <c r="F82">
+        <v>1218</v>
+      </c>
+      <c r="G82">
+        <v>295</v>
+      </c>
+      <c r="H82" s="1">
+        <v>0.76872812135400004</v>
+      </c>
+      <c r="I82" s="1">
+        <v>0.34500991407800002</v>
+      </c>
+      <c r="J82" s="1">
+        <v>0.88474576271200001</v>
+      </c>
+      <c r="K82" s="1">
+        <v>0.21428571428599999</v>
+      </c>
+    </row>
+    <row r="83" spans="5:11">
+      <c r="E83">
+        <v>0.82</v>
+      </c>
+      <c r="F83">
+        <v>1218</v>
+      </c>
+      <c r="G83">
+        <v>276</v>
+      </c>
+      <c r="H83" s="1">
+        <v>0.76616102683800003</v>
+      </c>
+      <c r="I83" s="1">
+        <v>0.32931726907600001</v>
+      </c>
+      <c r="J83" s="1">
+        <v>0.89130434782599999</v>
+      </c>
+      <c r="K83" s="1">
+        <v>0.20197044335</v>
+      </c>
+    </row>
+    <row r="84" spans="5:11">
+      <c r="E84">
+        <v>0.83</v>
+      </c>
+      <c r="F84">
+        <v>1218</v>
+      </c>
+      <c r="G84">
+        <v>262</v>
+      </c>
+      <c r="H84" s="1">
+        <v>0.76336056009300002</v>
+      </c>
+      <c r="I84" s="1">
+        <v>0.31486486486499998</v>
+      </c>
+      <c r="J84" s="1">
+        <v>0.88931297709900003</v>
+      </c>
+      <c r="K84" s="1">
+        <v>0.19129720853900001</v>
+      </c>
+    </row>
+    <row r="85" spans="5:11">
+      <c r="E85">
+        <v>0.84</v>
+      </c>
+      <c r="F85">
+        <v>1218</v>
+      </c>
+      <c r="G85">
+        <v>242</v>
+      </c>
+      <c r="H85" s="1">
+        <v>0.75962660443399999</v>
+      </c>
+      <c r="I85" s="1">
+        <v>0.29452054794499999</v>
+      </c>
+      <c r="J85" s="1">
+        <v>0.88842975206599994</v>
+      </c>
+      <c r="K85" s="1">
+        <v>0.17651888341499999</v>
+      </c>
+    </row>
+    <row r="86" spans="5:11">
+      <c r="E86">
+        <v>0.85</v>
+      </c>
+      <c r="F86">
+        <v>1218</v>
+      </c>
+      <c r="G86">
+        <v>225</v>
+      </c>
+      <c r="H86" s="1">
+        <v>0.75705950991799997</v>
+      </c>
+      <c r="I86" s="1">
+        <v>0.27858627858599999</v>
+      </c>
+      <c r="J86" s="1">
+        <v>0.89333333333300002</v>
+      </c>
+      <c r="K86" s="1">
+        <v>0.16502463054200001</v>
+      </c>
+    </row>
+    <row r="87" spans="5:11">
+      <c r="E87">
+        <v>0.86</v>
+      </c>
+      <c r="F87">
+        <v>1218</v>
+      </c>
+      <c r="G87">
+        <v>206</v>
+      </c>
+      <c r="H87" s="1">
+        <v>0.75495915985999995</v>
+      </c>
+      <c r="I87" s="1">
+        <v>0.26264044943800002</v>
+      </c>
+      <c r="J87" s="1">
+        <v>0.90776699029100005</v>
+      </c>
+      <c r="K87" s="1">
+        <v>0.15353037766800001</v>
+      </c>
+    </row>
+    <row r="88" spans="5:11">
+      <c r="E88">
+        <v>0.87</v>
+      </c>
+      <c r="F88">
+        <v>1218</v>
+      </c>
+      <c r="G88">
+        <v>192</v>
+      </c>
+      <c r="H88" s="1">
+        <v>0.75309218202999995</v>
+      </c>
+      <c r="I88" s="1">
+        <v>0.24964539007100001</v>
+      </c>
+      <c r="J88" s="1">
+        <v>0.91666666666700003</v>
+      </c>
+      <c r="K88" s="1">
+        <v>0.14449917898199999</v>
+      </c>
+    </row>
+    <row r="89" spans="5:11">
+      <c r="E89">
+        <v>0.88</v>
+      </c>
+      <c r="F89">
+        <v>1218</v>
+      </c>
+      <c r="G89">
+        <v>177</v>
+      </c>
+      <c r="H89" s="1">
+        <v>0.75052508751500002</v>
+      </c>
+      <c r="I89" s="1">
+        <v>0.23369175627200001</v>
+      </c>
+      <c r="J89" s="1">
+        <v>0.92090395480200005</v>
+      </c>
+      <c r="K89" s="1">
+        <v>0.13382594417099999</v>
+      </c>
+    </row>
+    <row r="90" spans="5:11">
+      <c r="E90">
+        <v>0.89</v>
+      </c>
+      <c r="F90">
+        <v>1218</v>
+      </c>
+      <c r="G90">
+        <v>162</v>
+      </c>
+      <c r="H90" s="1">
+        <v>0.74795799299900001</v>
+      </c>
+      <c r="I90" s="1">
+        <v>0.217391304348</v>
+      </c>
+      <c r="J90" s="1">
+        <v>0.92592592592599998</v>
+      </c>
+      <c r="K90" s="1">
+        <v>0.12315270936</v>
+      </c>
+    </row>
+    <row r="91" spans="5:11">
+      <c r="E91">
+        <v>0.9</v>
+      </c>
+      <c r="F91">
+        <v>1218</v>
+      </c>
+      <c r="G91">
+        <v>141</v>
+      </c>
+      <c r="H91" s="1">
+        <v>0.74352392065299999</v>
+      </c>
+      <c r="I91" s="1">
+        <v>0.19131714495999999</v>
+      </c>
+      <c r="J91" s="1">
+        <v>0.92198581560299997</v>
+      </c>
+      <c r="K91" s="1">
+        <v>0.106732348112</v>
+      </c>
+    </row>
+    <row r="92" spans="5:11">
+      <c r="E92">
+        <v>0.91</v>
+      </c>
+      <c r="F92">
+        <v>1218</v>
+      </c>
+      <c r="G92">
+        <v>122</v>
+      </c>
+      <c r="H92" s="1">
+        <v>0.74002333722299996</v>
+      </c>
+      <c r="I92" s="1">
+        <v>0.16865671641800001</v>
+      </c>
+      <c r="J92" s="1">
+        <v>0.92622950819700001</v>
+      </c>
+      <c r="K92" s="1">
+        <v>9.2775041050899995E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="5:11">
+      <c r="E93">
+        <v>0.92</v>
+      </c>
+      <c r="F93">
+        <v>1218</v>
+      </c>
+      <c r="G93">
+        <v>103</v>
+      </c>
+      <c r="H93" s="1">
+        <v>0.73698949825000004</v>
+      </c>
+      <c r="I93" s="1">
+        <v>0.146858440575</v>
+      </c>
+      <c r="J93" s="1">
+        <v>0.94174757281599997</v>
+      </c>
+      <c r="K93" s="1">
+        <v>7.9638752052499998E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="5:11">
+      <c r="E94">
+        <v>0.93</v>
+      </c>
+      <c r="F94">
+        <v>1218</v>
+      </c>
+      <c r="G94">
+        <v>92</v>
+      </c>
+      <c r="H94" s="1">
+        <v>0.73488914819100004</v>
+      </c>
+      <c r="I94" s="1">
+        <v>0.13282442748100001</v>
+      </c>
+      <c r="J94" s="1">
+        <v>0.94565217391300005</v>
+      </c>
+      <c r="K94" s="1">
+        <v>7.1428571428599999E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="5:11">
+      <c r="E95">
+        <v>0.94</v>
+      </c>
+      <c r="F95">
+        <v>1218</v>
+      </c>
+      <c r="G95">
+        <v>81</v>
+      </c>
+      <c r="H95" s="1">
+        <v>0.73325554259000003</v>
+      </c>
+      <c r="I95" s="1">
+        <v>0.120092378753</v>
+      </c>
+      <c r="J95" s="1">
+        <v>0.96296296296299999</v>
+      </c>
+      <c r="K95" s="1">
+        <v>6.4039408867000006E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="5:11">
+      <c r="E96">
+        <v>0.95</v>
+      </c>
+      <c r="F96">
+        <v>1218</v>
+      </c>
+      <c r="G96">
+        <v>63</v>
+      </c>
+      <c r="H96" s="1">
+        <v>0.72998833138899999</v>
+      </c>
+      <c r="I96" s="1">
+        <v>9.6799375487900005E-2</v>
+      </c>
+      <c r="J96" s="1">
+        <v>0.98412698412699995</v>
+      </c>
+      <c r="K96" s="1">
+        <v>5.0903119868600001E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="5:11">
+      <c r="E97">
+        <v>0.96</v>
+      </c>
+      <c r="F97">
+        <v>1218</v>
+      </c>
+      <c r="G97">
+        <v>57</v>
+      </c>
+      <c r="H97" s="1">
+        <v>0.728588098016</v>
+      </c>
+      <c r="I97" s="1">
+        <v>8.7843137254900006E-2</v>
+      </c>
+      <c r="J97" s="1">
+        <v>0.98245614035100004</v>
+      </c>
+      <c r="K97" s="1">
+        <v>4.5977011494300002E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="5:11">
+      <c r="E98">
+        <v>0.97</v>
+      </c>
+      <c r="F98">
+        <v>1218</v>
+      </c>
+      <c r="G98">
+        <v>54</v>
+      </c>
+      <c r="H98" s="1">
+        <v>0.72788798132999999</v>
+      </c>
+      <c r="I98" s="1">
+        <v>8.3333333333299994E-2</v>
+      </c>
+      <c r="J98" s="1">
+        <v>0.98148148148100001</v>
+      </c>
+      <c r="K98" s="1">
+        <v>4.3513957307099997E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="5:11">
+      <c r="E99">
+        <v>0.98</v>
+      </c>
+      <c r="F99">
+        <v>1218</v>
+      </c>
+      <c r="G99">
+        <v>45</v>
+      </c>
+      <c r="H99" s="1">
+        <v>0.72625437572899998</v>
+      </c>
+      <c r="I99" s="1">
+        <v>7.1258907363400001E-2</v>
+      </c>
+      <c r="J99" s="1">
+        <v>1</v>
+      </c>
+      <c r="K99" s="1">
+        <v>3.6945812807899998E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="5:11">
+      <c r="E100">
+        <v>0.99</v>
+      </c>
+      <c r="F100">
+        <v>1218</v>
+      </c>
+      <c r="G100">
+        <v>36</v>
+      </c>
+      <c r="H100" s="1">
+        <v>0.72415402567099996</v>
+      </c>
+      <c r="I100" s="1">
+        <v>5.7416267942599998E-2</v>
+      </c>
+      <c r="J100" s="1">
+        <v>1</v>
+      </c>
+      <c r="K100" s="1">
+        <v>2.9556650246300002E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3029650B-8E32-AD43-A275-CAE7A01AE438}">
   <dimension ref="A1:L17"/>
@@ -2009,7 +4428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78455AF6-6C0D-6F4D-B58E-63EC2598B450}">
   <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="E8" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>

--- a/baseline_prWin_metrics.xlsx
+++ b/baseline_prWin_metrics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael.peng/Documents/pkrprb/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael_peng/Documents/pkrprb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1913DB-3E21-3248-BAAD-A0EFAB52BE11}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{CA1361EE-4C48-004A-8553-06D26542C7F6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14340" activeTab="9" xr2:uid="{CD697F08-0CC6-5044-82D1-47E874A00822}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" activeTab="9" xr2:uid="{CD697F08-0CC6-5044-82D1-47E874A00822}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline prWin =&gt; win" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="expert rules" sheetId="8" r:id="rId9"/>
     <sheet name="Deal Steal" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -369,8 +369,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="千分位" xfId="1" builtinId="3"/>
     <cellStyle name="百分比" xfId="2" builtinId="5"/>
+    <cellStyle name="逗號" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1337,8 +1337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192EEAE9-8FF6-5A49-9550-00A90EB68A4E}">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J87" sqref="J87"/>
+    <sheetView tabSelected="1" topLeftCell="B68" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="J72" sqref="J72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
@@ -1383,28 +1383,28 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>50928</v>
+        <v>46792</v>
       </c>
       <c r="E2">
         <v>0.01</v>
       </c>
       <c r="F2">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G2">
-        <v>3451</v>
+        <v>3588</v>
       </c>
       <c r="H2" s="1">
-        <v>0.47747957993000001</v>
+        <v>0.34139581758600002</v>
       </c>
       <c r="I2" s="1">
-        <v>0.52045405868500005</v>
+        <v>0.42700569925499998</v>
       </c>
       <c r="J2" s="1">
-        <v>0.35207186322799999</v>
+        <v>0.27146042363400003</v>
       </c>
       <c r="K2" s="1">
-        <v>0.99753694581300001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1415,28 +1415,28 @@
         <v>4</v>
       </c>
       <c r="C3" s="1">
-        <v>0.90843936537900005</v>
+        <v>0.84450333390300003</v>
       </c>
       <c r="E3">
         <v>0.02</v>
       </c>
       <c r="F3">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G3">
-        <v>3198</v>
+        <v>3432</v>
       </c>
       <c r="H3" s="1">
-        <v>0.53558926487699998</v>
+        <v>0.38019652305399998</v>
       </c>
       <c r="I3" s="1">
-        <v>0.54936594202900002</v>
+        <v>0.44167044938700001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.37929956222599998</v>
+        <v>0.28350815850799999</v>
       </c>
       <c r="K3" s="1">
-        <v>0.99589490968799999</v>
+        <v>0.998973305955</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1447,28 +1447,28 @@
         <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>0.77955845506499999</v>
+        <v>0.69806622956300002</v>
       </c>
       <c r="E4">
         <v>0.03</v>
       </c>
       <c r="F4">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G4">
-        <v>3045</v>
+        <v>3313</v>
       </c>
       <c r="H4" s="1">
-        <v>0.57082847141199999</v>
+        <v>0.41017888636900002</v>
       </c>
       <c r="I4" s="1">
-        <v>0.56861365235700001</v>
+        <v>0.45393048751999998</v>
       </c>
       <c r="J4" s="1">
-        <v>0.39802955665</v>
+        <v>0.29369151826099998</v>
       </c>
       <c r="K4" s="1">
-        <v>0.99507389162600002</v>
+        <v>0.998973305955</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1479,28 +1479,28 @@
         <v>6</v>
       </c>
       <c r="C5" s="1">
-        <v>0.84382355951300003</v>
+        <v>0.56731417779600002</v>
       </c>
       <c r="E5">
         <v>0.04</v>
       </c>
       <c r="F5">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G5">
-        <v>2918</v>
+        <v>3221</v>
       </c>
       <c r="H5" s="1">
-        <v>0.6</v>
+        <v>0.43335852859700003</v>
       </c>
       <c r="I5" s="1">
-        <v>0.58558994197299996</v>
+        <v>0.46388557806899999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.415010281014</v>
+        <v>0.30208009934800001</v>
       </c>
       <c r="K5" s="1">
-        <v>0.99425287356299996</v>
+        <v>0.998973305955</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1511,28 +1511,28 @@
         <v>7</v>
       </c>
       <c r="C6" s="1">
-        <v>0.72438938675099995</v>
+        <v>0.90713977566899995</v>
       </c>
       <c r="E6">
         <v>0.05</v>
       </c>
       <c r="F6">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G6">
-        <v>2790</v>
+        <v>3144</v>
       </c>
       <c r="H6" s="1">
-        <v>0.62893815635899997</v>
+        <v>0.45175107079900001</v>
       </c>
       <c r="I6" s="1">
-        <v>0.60329341317399998</v>
+        <v>0.47158814958700002</v>
       </c>
       <c r="J6" s="1">
-        <v>0.433333333333</v>
+        <v>0.30884223918600001</v>
       </c>
       <c r="K6" s="1">
-        <v>0.99261083743800005</v>
+        <v>0.99691991786400003</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1543,28 +1543,28 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>4285</v>
+        <v>3969</v>
       </c>
       <c r="E7">
         <v>0.06</v>
       </c>
       <c r="F7">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G7">
-        <v>2705</v>
+        <v>3069</v>
       </c>
       <c r="H7" s="1">
-        <v>0.64644107351199998</v>
+        <v>0.47014361300099999</v>
       </c>
       <c r="I7" s="1">
-        <v>0.61381595717600002</v>
+        <v>0.47984170170700002</v>
       </c>
       <c r="J7" s="1">
-        <v>0.44510166358600001</v>
+        <v>0.31606386445099999</v>
       </c>
       <c r="K7" s="1">
-        <v>0.98850574712600003</v>
+        <v>0.99589322381900003</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1575,28 +1575,28 @@
         <v>4</v>
       </c>
       <c r="C8" s="1">
-        <v>0.83640606767799996</v>
+        <v>0.78810783572700005</v>
       </c>
       <c r="E8">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F8">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G8">
-        <v>2639</v>
+        <v>3000</v>
       </c>
       <c r="H8" s="1">
-        <v>0.66044340723499995</v>
+        <v>0.48752834467099998</v>
       </c>
       <c r="I8" s="1">
-        <v>0.62276380606699999</v>
+        <v>0.48817312531500001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.45509662751000002</v>
+        <v>0.32333333333300002</v>
       </c>
       <c r="K8" s="1">
-        <v>0.98604269293900004</v>
+        <v>0.99589322381900003</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1607,28 +1607,28 @@
         <v>5</v>
       </c>
       <c r="C9" s="1">
-        <v>0.684943820225</v>
+        <v>0.67516415604500002</v>
       </c>
       <c r="E9">
         <v>0.08</v>
       </c>
       <c r="F9">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G9">
-        <v>2574</v>
+        <v>2921</v>
       </c>
       <c r="H9" s="1">
-        <v>0.67421236872800006</v>
+        <v>0.50692869740500002</v>
       </c>
       <c r="I9" s="1">
-        <v>0.63185654008400005</v>
+        <v>0.49756097561000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.465423465423</v>
+        <v>0.33173570694999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0.98357963875200005</v>
+        <v>0.99486652977400003</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1639,28 +1639,28 @@
         <v>6</v>
       </c>
       <c r="C10" s="1">
-        <v>0.75670307845100004</v>
+        <v>0.541176470588</v>
       </c>
       <c r="E10">
         <v>0.09</v>
       </c>
       <c r="F10">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G10">
-        <v>2515</v>
+        <v>2865</v>
       </c>
       <c r="H10" s="1">
-        <v>0.68471411902000001</v>
+        <v>0.52053413958200001</v>
       </c>
       <c r="I10" s="1">
-        <v>0.63809268684700005</v>
+        <v>0.50429799426900002</v>
       </c>
       <c r="J10" s="1">
-        <v>0.47355864811100001</v>
+        <v>0.33787085514800003</v>
       </c>
       <c r="K10" s="1">
-        <v>0.97783251231500001</v>
+        <v>0.99383983572900003</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1671,28 +1671,28 @@
         <v>7</v>
       </c>
       <c r="C11" s="1">
-        <v>0.62561576354699999</v>
+        <v>0.89733059548299998</v>
       </c>
       <c r="E11">
         <v>0.1</v>
       </c>
       <c r="F11">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G11">
-        <v>2451</v>
+        <v>2815</v>
       </c>
       <c r="H11" s="1">
-        <v>0.696849474912</v>
+        <v>0.53313177122699995</v>
       </c>
       <c r="I11" s="1">
-        <v>0.64595257563399999</v>
+        <v>0.51095275798399997</v>
       </c>
       <c r="J11" s="1">
-        <v>0.483476132191</v>
+        <v>0.34387211367699999</v>
       </c>
       <c r="K11" s="1">
-        <v>0.97290640394100003</v>
+        <v>0.99383983572900003</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1700,22 +1700,22 @@
         <v>0.11</v>
       </c>
       <c r="F12">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G12">
-        <v>2389</v>
+        <v>2769</v>
       </c>
       <c r="H12" s="1">
-        <v>0.70945157526299996</v>
+        <v>0.54421768707499996</v>
       </c>
       <c r="I12" s="1">
-        <v>0.65483781535899999</v>
+        <v>0.51669783595999996</v>
       </c>
       <c r="J12" s="1">
-        <v>0.494349100042</v>
+        <v>0.34922354640699999</v>
       </c>
       <c r="K12" s="1">
-        <v>0.96962233169099998</v>
+        <v>0.99281314168400003</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1723,22 +1723,22 @@
         <v>0.12</v>
       </c>
       <c r="F13">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G13">
-        <v>2306</v>
+        <v>2726</v>
       </c>
       <c r="H13" s="1">
-        <v>0.72415402567099996</v>
+        <v>0.55505165029000003</v>
       </c>
       <c r="I13" s="1">
-        <v>0.66458569807000001</v>
+        <v>0.52270270270300001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.50780572419799996</v>
+        <v>0.35473220836399999</v>
       </c>
       <c r="K13" s="1">
-        <v>0.96141215106699995</v>
+        <v>0.99281314168400003</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1746,22 +1746,22 @@
         <v>0.13</v>
       </c>
       <c r="F14">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G14">
-        <v>2260</v>
+        <v>2684</v>
       </c>
       <c r="H14" s="1">
-        <v>0.730688448075</v>
+        <v>0.56563366087199995</v>
       </c>
       <c r="I14" s="1">
-        <v>0.66820011500900001</v>
+        <v>0.52870420995099998</v>
       </c>
       <c r="J14" s="1">
-        <v>0.51415929203499999</v>
+        <v>0.36028315946299999</v>
       </c>
       <c r="K14" s="1">
-        <v>0.95402298850599998</v>
+        <v>0.99281314168400003</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1769,22 +1769,22 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="F15">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G15">
-        <v>2204</v>
+        <v>2634</v>
       </c>
       <c r="H15" s="1">
-        <v>0.74049008167999997</v>
+        <v>0.57671957671999996</v>
       </c>
       <c r="I15" s="1">
-        <v>0.67504383401500001</v>
+        <v>0.53436807095299999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.52404718693300001</v>
+        <v>0.36598329536800001</v>
       </c>
       <c r="K15" s="1">
-        <v>0.94827586206900005</v>
+        <v>0.98973305954799995</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1792,22 +1792,22 @@
         <v>0.15</v>
       </c>
       <c r="F16">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G16">
-        <v>2145</v>
+        <v>2592</v>
       </c>
       <c r="H16" s="1">
-        <v>0.75052508751500002</v>
+        <v>0.58730158730199999</v>
       </c>
       <c r="I16" s="1">
-        <v>0.68212905144199998</v>
+        <v>0.54066180594500002</v>
       </c>
       <c r="J16" s="1">
-        <v>0.53473193473199998</v>
+        <v>0.371913580247</v>
       </c>
       <c r="K16" s="1">
-        <v>0.94170771757000005</v>
+        <v>0.98973305954799995</v>
       </c>
     </row>
     <row r="17" spans="5:11">
@@ -1815,22 +1815,22 @@
         <v>0.16</v>
       </c>
       <c r="F17">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G17">
-        <v>2092</v>
+        <v>2556</v>
       </c>
       <c r="H17" s="1">
-        <v>0.75822637106199997</v>
+        <v>0.596371882086</v>
       </c>
       <c r="I17" s="1">
-        <v>0.68700906344400003</v>
+        <v>0.54617563739399999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.543499043977</v>
+        <v>0.37715179968700002</v>
       </c>
       <c r="K17" s="1">
-        <v>0.93349753694600002</v>
+        <v>0.98973305954799995</v>
       </c>
     </row>
     <row r="18" spans="5:11">
@@ -1838,22 +1838,22 @@
         <v>0.17</v>
       </c>
       <c r="F18">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G18">
-        <v>2032</v>
+        <v>2531</v>
       </c>
       <c r="H18" s="1">
-        <v>0.76802800466700005</v>
+        <v>0.60267069790899996</v>
       </c>
       <c r="I18" s="1">
-        <v>0.694153846154</v>
+        <v>0.55007132667600001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.555118110236</v>
+        <v>0.38087712366699999</v>
       </c>
       <c r="K18" s="1">
-        <v>0.92610837438399995</v>
+        <v>0.98973305954799995</v>
       </c>
     </row>
     <row r="19" spans="5:11">
@@ -1861,22 +1861,22 @@
         <v>0.18</v>
       </c>
       <c r="F19">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G19">
-        <v>1992</v>
+        <v>2491</v>
       </c>
       <c r="H19" s="1">
-        <v>0.77549591598599998</v>
+        <v>0.61224489795899995</v>
       </c>
       <c r="I19" s="1">
-        <v>0.70031152647999995</v>
+        <v>0.55584415584400004</v>
       </c>
       <c r="J19" s="1">
-        <v>0.56425702811199996</v>
+        <v>0.38659173022900001</v>
       </c>
       <c r="K19" s="1">
-        <v>0.922824302135</v>
+        <v>0.98870636550299995</v>
       </c>
     </row>
     <row r="20" spans="5:11">
@@ -1884,22 +1884,22 @@
         <v>0.19</v>
       </c>
       <c r="F20">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G20">
-        <v>1945</v>
+        <v>2462</v>
       </c>
       <c r="H20" s="1">
-        <v>0.78273045507600003</v>
+        <v>0.61955152431299998</v>
       </c>
       <c r="I20" s="1">
-        <v>0.70565918431899999</v>
+        <v>0.56053550640299998</v>
       </c>
       <c r="J20" s="1">
-        <v>0.57377892030800004</v>
+        <v>0.39114541023600002</v>
       </c>
       <c r="K20" s="1">
-        <v>0.91625615763500001</v>
+        <v>0.98870636550299995</v>
       </c>
     </row>
     <row r="21" spans="5:11">
@@ -1907,22 +1907,22 @@
         <v>0.2</v>
       </c>
       <c r="F21">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G21">
-        <v>1902</v>
+        <v>2426</v>
       </c>
       <c r="H21" s="1">
-        <v>0.78763127187899995</v>
+        <v>0.62862181909799997</v>
       </c>
       <c r="I21" s="1">
-        <v>0.70833333333299997</v>
+        <v>0.56647058823499996</v>
       </c>
       <c r="J21" s="1">
-        <v>0.58096740273400005</v>
+        <v>0.39694971145899999</v>
       </c>
       <c r="K21" s="1">
-        <v>0.90722495894900002</v>
+        <v>0.98870636550299995</v>
       </c>
     </row>
     <row r="22" spans="5:11">
@@ -1930,22 +1930,22 @@
         <v>0.21</v>
       </c>
       <c r="F22">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G22">
-        <v>1860</v>
+        <v>2396</v>
       </c>
       <c r="H22" s="1">
-        <v>0.79229871645299998</v>
+        <v>0.634668682288</v>
       </c>
       <c r="I22" s="1">
-        <v>0.71085120207899999</v>
+        <v>0.569732937685</v>
       </c>
       <c r="J22" s="1">
-        <v>0.58817204301100001</v>
+        <v>0.40066777963299999</v>
       </c>
       <c r="K22" s="1">
-        <v>0.89819376026300002</v>
+        <v>0.98562628336799996</v>
       </c>
     </row>
     <row r="23" spans="5:11">
@@ -1953,22 +1953,22 @@
         <v>0.22</v>
       </c>
       <c r="F23">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G23">
-        <v>1818</v>
+        <v>2368</v>
       </c>
       <c r="H23" s="1">
-        <v>0.79743290548400003</v>
+        <v>0.64071554547700005</v>
       </c>
       <c r="I23" s="1">
-        <v>0.71409749670599998</v>
+        <v>0.573309395572</v>
       </c>
       <c r="J23" s="1">
-        <v>0.59625962596299997</v>
+        <v>0.40456081081099998</v>
       </c>
       <c r="K23" s="1">
-        <v>0.88998357963899999</v>
+        <v>0.98357289527699998</v>
       </c>
     </row>
     <row r="24" spans="5:11">
@@ -1976,22 +1976,22 @@
         <v>0.23</v>
       </c>
       <c r="F24">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G24">
-        <v>1790</v>
+        <v>2344</v>
       </c>
       <c r="H24" s="1">
-        <v>0.80070011668600005</v>
+        <v>0.645754598136</v>
       </c>
       <c r="I24" s="1">
-        <v>0.71609042553199997</v>
+        <v>0.57625075346599997</v>
       </c>
       <c r="J24" s="1">
-        <v>0.60167597765400005</v>
+        <v>0.40784982935199998</v>
       </c>
       <c r="K24" s="1">
-        <v>0.88423645320199995</v>
+        <v>0.98151950718699998</v>
       </c>
     </row>
     <row r="25" spans="5:11">
@@ -1999,22 +1999,22 @@
         <v>0.24</v>
       </c>
       <c r="F25">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G25">
-        <v>1743</v>
+        <v>2314</v>
       </c>
       <c r="H25" s="1">
-        <v>0.80513418903199996</v>
+        <v>0.65129755605899997</v>
       </c>
       <c r="I25" s="1">
-        <v>0.71800067544699997</v>
+        <v>0.57907542579100002</v>
       </c>
       <c r="J25" s="1">
-        <v>0.60986804360299995</v>
+        <v>0.41140881590299999</v>
       </c>
       <c r="K25" s="1">
-        <v>0.87274220032799998</v>
+        <v>0.97741273100600001</v>
       </c>
     </row>
     <row r="26" spans="5:11">
@@ -2022,22 +2022,22 @@
         <v>0.25</v>
       </c>
       <c r="F26">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G26">
-        <v>1699</v>
+        <v>2279</v>
       </c>
       <c r="H26" s="1">
-        <v>0.80886814469099999</v>
+        <v>0.65961199294499995</v>
       </c>
       <c r="I26" s="1">
-        <v>0.71923208776100001</v>
+        <v>0.584691054411</v>
       </c>
       <c r="J26" s="1">
-        <v>0.61742201294900001</v>
+        <v>0.41728828433499998</v>
       </c>
       <c r="K26" s="1">
-        <v>0.861247947455</v>
+        <v>0.97638603696100001</v>
       </c>
     </row>
     <row r="27" spans="5:11">
@@ -2045,22 +2045,22 @@
         <v>0.26</v>
       </c>
       <c r="F27">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G27">
-        <v>1659</v>
+        <v>2240</v>
       </c>
       <c r="H27" s="1">
-        <v>0.81400233372200004</v>
+        <v>0.66943814562899995</v>
       </c>
       <c r="I27" s="1">
-        <v>0.72297532151499999</v>
+        <v>0.59178593652800004</v>
       </c>
       <c r="J27" s="1">
-        <v>0.62688366485799996</v>
+        <v>0.42455357142900002</v>
       </c>
       <c r="K27" s="1">
-        <v>0.85385878489300004</v>
+        <v>0.97638603696100001</v>
       </c>
     </row>
     <row r="28" spans="5:11">
@@ -2068,22 +2068,22 @@
         <v>0.27</v>
       </c>
       <c r="F28">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G28">
-        <v>1640</v>
+        <v>2218</v>
       </c>
       <c r="H28" s="1">
-        <v>0.81563593932300005</v>
+        <v>0.67498110355300001</v>
       </c>
       <c r="I28" s="1">
-        <v>0.72358292512199995</v>
+        <v>0.59586466165399998</v>
       </c>
       <c r="J28" s="1">
-        <v>0.63048780487800005</v>
+        <v>0.42876465283999998</v>
       </c>
       <c r="K28" s="1">
-        <v>0.84893267651899995</v>
+        <v>0.97638603696100001</v>
       </c>
     </row>
     <row r="29" spans="5:11">
@@ -2091,22 +2091,22 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="F29">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G29">
-        <v>1615</v>
+        <v>2190</v>
       </c>
       <c r="H29" s="1">
-        <v>0.81866977829599996</v>
+        <v>0.68153187200800003</v>
       </c>
       <c r="I29" s="1">
-        <v>0.72573243910999996</v>
+        <v>0.60050568900099999</v>
       </c>
       <c r="J29" s="1">
-        <v>0.63653250774000003</v>
+        <v>0.43378995433799999</v>
       </c>
       <c r="K29" s="1">
-        <v>0.84400656814399999</v>
+        <v>0.97535934291600002</v>
       </c>
     </row>
     <row r="30" spans="5:11">
@@ -2114,22 +2114,22 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="F30">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G30">
-        <v>1587</v>
+        <v>2162</v>
       </c>
       <c r="H30" s="1">
-        <v>0.81960326721099996</v>
+        <v>0.68707482993199998</v>
       </c>
       <c r="I30" s="1">
-        <v>0.724420677362</v>
+        <v>0.60395408163300002</v>
       </c>
       <c r="J30" s="1">
-        <v>0.64020163831099997</v>
+        <v>0.438020351526</v>
       </c>
       <c r="K30" s="1">
-        <v>0.83415435139600003</v>
+        <v>0.97227926078000004</v>
       </c>
     </row>
     <row r="31" spans="5:11">
@@ -2137,22 +2137,22 @@
         <v>0.3</v>
       </c>
       <c r="F31">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G31">
-        <v>1553</v>
+        <v>2132</v>
       </c>
       <c r="H31" s="1">
-        <v>0.82147024504099997</v>
+        <v>0.69211388258999995</v>
       </c>
       <c r="I31" s="1">
-        <v>0.72392638036800006</v>
+        <v>0.60656793303300005</v>
       </c>
       <c r="J31" s="1">
-        <v>0.64584674822900001</v>
+        <v>0.44183864915600002</v>
       </c>
       <c r="K31" s="1">
-        <v>0.82348111658500001</v>
+        <v>0.96714579055399996</v>
       </c>
     </row>
     <row r="32" spans="5:11">
@@ -2160,22 +2160,22 @@
         <v>0.31</v>
       </c>
       <c r="F32">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G32">
-        <v>1528</v>
+        <v>2107</v>
       </c>
       <c r="H32" s="1">
-        <v>0.82310385064199998</v>
+        <v>0.69790879314700005</v>
       </c>
       <c r="I32" s="1">
-        <v>0.72396212673000004</v>
+        <v>0.61084063615700002</v>
       </c>
       <c r="J32" s="1">
-        <v>0.65052356020900004</v>
+        <v>0.44660654959700002</v>
       </c>
       <c r="K32" s="1">
-        <v>0.81609195402300005</v>
+        <v>0.96611909650899996</v>
       </c>
     </row>
     <row r="33" spans="5:11">
@@ -2183,22 +2183,22 @@
         <v>0.32</v>
       </c>
       <c r="F33">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G33">
-        <v>1502</v>
+        <v>2083</v>
       </c>
       <c r="H33" s="1">
-        <v>0.826371061844</v>
+        <v>0.70244394053899994</v>
       </c>
       <c r="I33" s="1">
-        <v>0.72647058823499999</v>
+        <v>0.61367353614700004</v>
       </c>
       <c r="J33" s="1">
-        <v>0.65778961384800005</v>
+        <v>0.450312049928</v>
       </c>
       <c r="K33" s="1">
-        <v>0.81116584564899996</v>
+        <v>0.96303901437399997</v>
       </c>
     </row>
     <row r="34" spans="5:11">
@@ -2206,22 +2206,22 @@
         <v>0.33</v>
       </c>
       <c r="F34">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G34">
-        <v>1466</v>
+        <v>2050</v>
       </c>
       <c r="H34" s="1">
-        <v>0.82870478413100002</v>
+        <v>0.70924666162799999</v>
       </c>
       <c r="I34" s="1">
-        <v>0.72652757078999997</v>
+        <v>0.61838624338600001</v>
       </c>
       <c r="J34" s="1">
-        <v>0.665075034106</v>
+        <v>0.45609756097600002</v>
       </c>
       <c r="K34" s="1">
-        <v>0.80049261083699996</v>
+        <v>0.959958932238</v>
       </c>
     </row>
     <row r="35" spans="5:11">
@@ -2229,22 +2229,22 @@
         <v>0.34</v>
       </c>
       <c r="F35">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G35">
-        <v>1451</v>
+        <v>2023</v>
       </c>
       <c r="H35" s="1">
-        <v>0.83127187864600005</v>
+        <v>0.71554547744999997</v>
       </c>
       <c r="I35" s="1">
-        <v>0.72911202697599997</v>
+        <v>0.62328995662300002</v>
       </c>
       <c r="J35" s="1">
-        <v>0.67057201929700005</v>
+        <v>0.461690558576</v>
       </c>
       <c r="K35" s="1">
-        <v>0.79885057471300003</v>
+        <v>0.958932238193</v>
       </c>
     </row>
     <row r="36" spans="5:11">
@@ -2252,22 +2252,22 @@
         <v>0.35</v>
       </c>
       <c r="F36">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G36">
-        <v>1418</v>
+        <v>1991</v>
       </c>
       <c r="H36" s="1">
-        <v>0.83057176196000004</v>
+        <v>0.72209624590599997</v>
       </c>
       <c r="I36" s="1">
-        <v>0.72458270106199996</v>
+        <v>0.62799325463699995</v>
       </c>
       <c r="J36" s="1">
-        <v>0.67348377997200004</v>
+        <v>0.46760421898499999</v>
       </c>
       <c r="K36" s="1">
-        <v>0.78407224958900001</v>
+        <v>0.95585215605700002</v>
       </c>
     </row>
     <row r="37" spans="5:11">
@@ -2275,22 +2275,22 @@
         <v>0.36</v>
       </c>
       <c r="F37">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G37">
-        <v>1384</v>
+        <v>1964</v>
       </c>
       <c r="H37" s="1">
-        <v>0.83290548424699995</v>
+        <v>0.72637944066500004</v>
       </c>
       <c r="I37" s="1">
-        <v>0.72482705611099996</v>
+        <v>0.63036078965300002</v>
       </c>
       <c r="J37" s="1">
-        <v>0.68135838150299999</v>
+        <v>0.47148676171100001</v>
       </c>
       <c r="K37" s="1">
-        <v>0.77422003284100005</v>
+        <v>0.95071868583200003</v>
       </c>
     </row>
     <row r="38" spans="5:11">
@@ -2298,22 +2298,22 @@
         <v>0.37</v>
       </c>
       <c r="F38">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G38">
-        <v>1355</v>
+        <v>1948</v>
       </c>
       <c r="H38" s="1">
-        <v>0.83453908984799996</v>
+        <v>0.72940287226</v>
       </c>
       <c r="I38" s="1">
-        <v>0.72444617178399995</v>
+        <v>0.63244353182799995</v>
       </c>
       <c r="J38" s="1">
-        <v>0.68782287822900001</v>
+        <v>0.47433264887100002</v>
       </c>
       <c r="K38" s="1">
-        <v>0.76518883415399996</v>
+        <v>0.94866529774099995</v>
       </c>
     </row>
     <row r="39" spans="5:11">
@@ -2321,22 +2321,22 @@
         <v>0.38</v>
       </c>
       <c r="F39">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G39">
-        <v>1326</v>
+        <v>1925</v>
       </c>
       <c r="H39" s="1">
-        <v>0.83757292882099998</v>
+        <v>0.73418997228500005</v>
       </c>
       <c r="I39" s="1">
-        <v>0.72641509433999996</v>
+        <v>0.63608140738200003</v>
       </c>
       <c r="J39" s="1">
-        <v>0.69683257918599995</v>
+        <v>0.47896103896100001</v>
       </c>
       <c r="K39" s="1">
-        <v>0.75862068965499996</v>
+        <v>0.94661190965099995</v>
       </c>
     </row>
     <row r="40" spans="5:11">
@@ -2344,22 +2344,22 @@
         <v>0.39</v>
       </c>
       <c r="F40">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G40">
-        <v>1299</v>
+        <v>1901</v>
       </c>
       <c r="H40" s="1">
-        <v>0.83920653442199999</v>
+        <v>0.73771730914599998</v>
       </c>
       <c r="I40" s="1">
-        <v>0.72626142232799995</v>
+        <v>0.63791304347800004</v>
       </c>
       <c r="J40" s="1">
-        <v>0.70361816782099995</v>
+        <v>0.48237769595000002</v>
       </c>
       <c r="K40" s="1">
-        <v>0.75041050903100004</v>
+        <v>0.94147843942499998</v>
       </c>
     </row>
     <row r="41" spans="5:11">
@@ -2367,22 +2367,22 @@
         <v>0.4</v>
       </c>
       <c r="F41">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G41">
-        <v>1271</v>
+        <v>1873</v>
       </c>
       <c r="H41" s="1">
-        <v>0.842007001167</v>
+        <v>0.74225245653799998</v>
       </c>
       <c r="I41" s="1">
-        <v>0.72800321414199998</v>
+        <v>0.64067439409899996</v>
       </c>
       <c r="J41" s="1">
-        <v>0.71282454760000002</v>
+        <v>0.486919380673</v>
       </c>
       <c r="K41" s="1">
-        <v>0.74384236453200003</v>
+        <v>0.93634496919900001</v>
       </c>
     </row>
     <row r="42" spans="5:11">
@@ -2390,22 +2390,22 @@
         <v>0.41</v>
       </c>
       <c r="F42">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G42">
-        <v>1238</v>
+        <v>1838</v>
       </c>
       <c r="H42" s="1">
-        <v>0.83990665110899998</v>
+        <v>0.74955908289200002</v>
       </c>
       <c r="I42" s="1">
-        <v>0.72068403908800005</v>
+        <v>0.64651493598900001</v>
       </c>
       <c r="J42" s="1">
-        <v>0.71486268174500001</v>
+        <v>0.49455930359099998</v>
       </c>
       <c r="K42" s="1">
-        <v>0.72660098522200001</v>
+        <v>0.93326488706400001</v>
       </c>
     </row>
     <row r="43" spans="5:11">
@@ -2413,22 +2413,22 @@
         <v>0.42</v>
       </c>
       <c r="F43">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G43">
-        <v>1212</v>
+        <v>1809</v>
       </c>
       <c r="H43" s="1">
-        <v>0.84130688448099999</v>
+        <v>0.75535399344900001</v>
       </c>
       <c r="I43" s="1">
-        <v>0.72016460905299995</v>
+        <v>0.65109593963300005</v>
       </c>
       <c r="J43" s="1">
-        <v>0.72194719471900004</v>
+        <v>0.50082918739600002</v>
       </c>
       <c r="K43" s="1">
-        <v>0.71839080459799998</v>
+        <v>0.93018480492800004</v>
       </c>
     </row>
     <row r="44" spans="5:11">
@@ -2436,22 +2436,22 @@
         <v>0.43</v>
       </c>
       <c r="F44">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G44">
-        <v>1177</v>
+        <v>1782</v>
       </c>
       <c r="H44" s="1">
-        <v>0.842007001167</v>
+        <v>0.75963718820899995</v>
       </c>
       <c r="I44" s="1">
-        <v>0.71732776618000005</v>
+        <v>0.65384615384599998</v>
       </c>
       <c r="J44" s="1">
-        <v>0.72982158028900002</v>
+        <v>0.50561167227799997</v>
       </c>
       <c r="K44" s="1">
-        <v>0.70525451559899999</v>
+        <v>0.92505133470199996</v>
       </c>
     </row>
     <row r="45" spans="5:11">
@@ -2459,22 +2459,22 @@
         <v>0.44</v>
       </c>
       <c r="F45">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G45">
-        <v>1151</v>
+        <v>1758</v>
       </c>
       <c r="H45" s="1">
-        <v>0.84247374562400001</v>
+        <v>0.76266061980300004</v>
       </c>
       <c r="I45" s="1">
-        <v>0.71506964964099995</v>
+        <v>0.65519765739400004</v>
       </c>
       <c r="J45" s="1">
-        <v>0.73588184187700001</v>
+        <v>0.50910125142200002</v>
       </c>
       <c r="K45" s="1">
-        <v>0.69540229885100002</v>
+        <v>0.91889117043099999</v>
       </c>
     </row>
     <row r="46" spans="5:11">
@@ -2482,22 +2482,22 @@
         <v>0.45</v>
       </c>
       <c r="F46">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G46">
-        <v>1127</v>
+        <v>1738</v>
       </c>
       <c r="H46" s="1">
-        <v>0.841073512252</v>
+        <v>0.76618795666399997</v>
       </c>
       <c r="I46" s="1">
-        <v>0.70959488272899995</v>
+        <v>0.65781710914500002</v>
       </c>
       <c r="J46" s="1">
-        <v>0.73824312333599995</v>
+        <v>0.51323360184099998</v>
       </c>
       <c r="K46" s="1">
-        <v>0.68308702791499998</v>
+        <v>0.915811088296</v>
       </c>
     </row>
     <row r="47" spans="5:11">
@@ -2505,22 +2505,22 @@
         <v>0.46</v>
       </c>
       <c r="F47">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G47">
-        <v>1102</v>
+        <v>1717</v>
       </c>
       <c r="H47" s="1">
-        <v>0.83990665110899998</v>
+        <v>0.77047115142400002</v>
       </c>
       <c r="I47" s="1">
-        <v>0.70431034482800003</v>
+        <v>0.66146413972499996</v>
       </c>
       <c r="J47" s="1">
-        <v>0.74137931034500004</v>
+        <v>0.51834595224199997</v>
       </c>
       <c r="K47" s="1">
-        <v>0.67077175697900004</v>
+        <v>0.91375770020500002</v>
       </c>
     </row>
     <row r="48" spans="5:11">
@@ -2528,22 +2528,22 @@
         <v>0.47</v>
       </c>
       <c r="F48">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G48">
-        <v>1074</v>
+        <v>1683</v>
       </c>
       <c r="H48" s="1">
-        <v>0.83943990665099999</v>
+        <v>0.77651801461299996</v>
       </c>
       <c r="I48" s="1">
-        <v>0.69982547992999999</v>
+        <v>0.66616484757200001</v>
       </c>
       <c r="J48" s="1">
-        <v>0.74674115456199996</v>
+        <v>0.52584670231700004</v>
       </c>
       <c r="K48" s="1">
-        <v>0.658456486043</v>
+        <v>0.90862422997900005</v>
       </c>
     </row>
     <row r="49" spans="5:11">
@@ -2551,22 +2551,22 @@
         <v>0.48</v>
       </c>
       <c r="F49">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G49">
-        <v>1045</v>
+        <v>1665</v>
       </c>
       <c r="H49" s="1">
-        <v>0.840140023337</v>
+        <v>0.780045351474</v>
       </c>
       <c r="I49" s="1">
-        <v>0.69730446310200001</v>
+        <v>0.66919287608900002</v>
       </c>
       <c r="J49" s="1">
-        <v>0.75502392344500002</v>
+        <v>0.53033033032999999</v>
       </c>
       <c r="K49" s="1">
-        <v>0.64778325123199998</v>
+        <v>0.90657084188899995</v>
       </c>
     </row>
     <row r="50" spans="5:11">
@@ -2574,22 +2574,22 @@
         <v>0.49</v>
       </c>
       <c r="F50">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G50">
-        <v>1025</v>
+        <v>1640</v>
       </c>
       <c r="H50" s="1">
-        <v>0.83873978996499998</v>
+        <v>0.78432854623299997</v>
       </c>
       <c r="I50" s="1">
-        <v>0.69193045029</v>
+        <v>0.67253251721499996</v>
       </c>
       <c r="J50" s="1">
-        <v>0.75707317073199998</v>
+        <v>0.535975609756</v>
       </c>
       <c r="K50" s="1">
-        <v>0.63711001641999998</v>
+        <v>0.90246406570799997</v>
       </c>
     </row>
     <row r="51" spans="5:11">
@@ -2597,22 +2597,22 @@
         <v>0.5</v>
       </c>
       <c r="F51">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G51">
-        <v>1007</v>
+        <v>1615</v>
       </c>
       <c r="H51" s="1">
-        <v>0.83640606767799996</v>
+        <v>0.78810783572700005</v>
       </c>
       <c r="I51" s="1">
-        <v>0.684943820225</v>
+        <v>0.67516415604500002</v>
       </c>
       <c r="J51" s="1">
-        <v>0.75670307845100004</v>
+        <v>0.541176470588</v>
       </c>
       <c r="K51" s="1">
-        <v>0.62561576354699999</v>
+        <v>0.89733059548299998</v>
       </c>
     </row>
     <row r="52" spans="5:11">
@@ -2620,22 +2620,22 @@
         <v>0.51</v>
       </c>
       <c r="F52">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G52">
-        <v>971</v>
+        <v>1586</v>
       </c>
       <c r="H52" s="1">
-        <v>0.83547257876299996</v>
+        <v>0.79138321995500005</v>
       </c>
       <c r="I52" s="1">
-        <v>0.67793513019600005</v>
+        <v>0.67656249999999996</v>
       </c>
       <c r="J52" s="1">
-        <v>0.764160659114</v>
+        <v>0.54602774274900001</v>
       </c>
       <c r="K52" s="1">
-        <v>0.60919540229900004</v>
+        <v>0.88911704312100004</v>
       </c>
     </row>
     <row r="53" spans="5:11">
@@ -2643,22 +2643,22 @@
         <v>0.52</v>
       </c>
       <c r="F53">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G53">
-        <v>942</v>
+        <v>1565</v>
       </c>
       <c r="H53" s="1">
-        <v>0.83337222870500005</v>
+        <v>0.793650793651</v>
       </c>
       <c r="I53" s="1">
-        <v>0.66944444444399998</v>
+        <v>0.67743205986599997</v>
       </c>
       <c r="J53" s="1">
-        <v>0.76751592356700005</v>
+        <v>0.54952076677299999</v>
       </c>
       <c r="K53" s="1">
-        <v>0.59359605911299995</v>
+        <v>0.88295687884999996</v>
       </c>
     </row>
     <row r="54" spans="5:11">
@@ -2666,22 +2666,22 @@
         <v>0.53</v>
       </c>
       <c r="F54">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G54">
-        <v>922</v>
+        <v>1544</v>
       </c>
       <c r="H54" s="1">
-        <v>0.83523920653399997</v>
+        <v>0.79541446208099997</v>
       </c>
       <c r="I54" s="1">
-        <v>0.67009345794399999</v>
+        <v>0.677521842732</v>
       </c>
       <c r="J54" s="1">
-        <v>0.777657266811</v>
+        <v>0.55246113989599999</v>
       </c>
       <c r="K54" s="1">
-        <v>0.58866995073899997</v>
+        <v>0.87577002053399999</v>
       </c>
     </row>
     <row r="55" spans="5:11">
@@ -2689,22 +2689,22 @@
         <v>0.54</v>
       </c>
       <c r="F55">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G55">
-        <v>897</v>
+        <v>1517</v>
       </c>
       <c r="H55" s="1">
-        <v>0.83453908984799996</v>
+        <v>0.798185941043</v>
       </c>
       <c r="I55" s="1">
-        <v>0.664775413712</v>
+        <v>0.67844239261299999</v>
       </c>
       <c r="J55" s="1">
-        <v>0.78372352285400004</v>
+        <v>0.55702043506900001</v>
       </c>
       <c r="K55" s="1">
-        <v>0.577175697865</v>
+        <v>0.86755646817200005</v>
       </c>
     </row>
     <row r="56" spans="5:11">
@@ -2712,22 +2712,22 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F56">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G56">
-        <v>875</v>
+        <v>1489</v>
       </c>
       <c r="H56" s="1">
-        <v>0.83267211201900004</v>
+        <v>0.80221718317000001</v>
       </c>
       <c r="I56" s="1">
-        <v>0.65742952699500001</v>
+        <v>0.68128298822599997</v>
       </c>
       <c r="J56" s="1">
-        <v>0.78628571428600003</v>
+        <v>0.563465413029</v>
       </c>
       <c r="K56" s="1">
-        <v>0.56486042692899996</v>
+        <v>0.86139630390099997</v>
       </c>
     </row>
     <row r="57" spans="5:11">
@@ -2735,22 +2735,22 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="F57">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G57">
-        <v>846</v>
+        <v>1477</v>
       </c>
       <c r="H57" s="1">
-        <v>0.83010501750300003</v>
+        <v>0.80423280423300003</v>
       </c>
       <c r="I57" s="1">
-        <v>0.64728682170499996</v>
+        <v>0.68298653610799998</v>
       </c>
       <c r="J57" s="1">
-        <v>0.78959810874699998</v>
+        <v>0.56668923493599999</v>
       </c>
       <c r="K57" s="1">
-        <v>0.54844006568100001</v>
+        <v>0.85934291581099997</v>
       </c>
     </row>
     <row r="58" spans="5:11">
@@ -2758,22 +2758,22 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="F58">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G58">
-        <v>826</v>
+        <v>1446</v>
       </c>
       <c r="H58" s="1">
-        <v>0.82870478413100002</v>
+        <v>0.80700428319499995</v>
       </c>
       <c r="I58" s="1">
-        <v>0.64090019569500001</v>
+        <v>0.68347107437999999</v>
       </c>
       <c r="J58" s="1">
-        <v>0.79297820823200005</v>
+        <v>0.57192254495200001</v>
       </c>
       <c r="K58" s="1">
-        <v>0.53776683086999999</v>
+        <v>0.84907597535900003</v>
       </c>
     </row>
     <row r="59" spans="5:11">
@@ -2781,22 +2781,22 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="F59">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G59">
-        <v>802</v>
+        <v>1425</v>
       </c>
       <c r="H59" s="1">
-        <v>0.82963827304600002</v>
+        <v>0.80826404635899995</v>
       </c>
       <c r="I59" s="1">
-        <v>0.63861386138599996</v>
+        <v>0.68278449353899995</v>
       </c>
       <c r="J59" s="1">
-        <v>0.80423940149600004</v>
+        <v>0.57473684210499998</v>
       </c>
       <c r="K59" s="1">
-        <v>0.52955665024599996</v>
+        <v>0.84086242299799996</v>
       </c>
     </row>
     <row r="60" spans="5:11">
@@ -2804,22 +2804,22 @@
         <v>0.59</v>
       </c>
       <c r="F60">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G60">
-        <v>782</v>
+        <v>1398</v>
       </c>
       <c r="H60" s="1">
-        <v>0.82777129521600001</v>
+        <v>0.81002771479000002</v>
       </c>
       <c r="I60" s="1">
-        <v>0.63100000000000001</v>
+        <v>0.68212478920700004</v>
       </c>
       <c r="J60" s="1">
-        <v>0.80690537084400005</v>
+        <v>0.57868383404900003</v>
       </c>
       <c r="K60" s="1">
-        <v>0.51806239737299997</v>
+        <v>0.83059548254600002</v>
       </c>
     </row>
     <row r="61" spans="5:11">
@@ -2827,22 +2827,22 @@
         <v>0.6</v>
       </c>
       <c r="F61">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G61">
-        <v>761</v>
+        <v>1377</v>
       </c>
       <c r="H61" s="1">
-        <v>0.82707117853000001</v>
+        <v>0.81380700428300001</v>
       </c>
       <c r="I61" s="1">
-        <v>0.62556846892399998</v>
+        <v>0.685665674181</v>
       </c>
       <c r="J61" s="1">
-        <v>0.81340341655699999</v>
+        <v>0.58533042846799999</v>
       </c>
       <c r="K61" s="1">
-        <v>0.50821018062400003</v>
+        <v>0.82751540041100002</v>
       </c>
     </row>
     <row r="62" spans="5:11">
@@ -2850,22 +2850,22 @@
         <v>0.61</v>
       </c>
       <c r="F62">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G62">
-        <v>734</v>
+        <v>1349</v>
       </c>
       <c r="H62" s="1">
-        <v>0.82450408401399999</v>
+        <v>0.81531872008100004</v>
       </c>
       <c r="I62" s="1">
-        <v>0.61475409836100003</v>
+        <v>0.68445975032299999</v>
       </c>
       <c r="J62" s="1">
-        <v>0.81743869209800002</v>
+        <v>0.58932542624200002</v>
       </c>
       <c r="K62" s="1">
-        <v>0.49261083743799999</v>
+        <v>0.81622176591399997</v>
       </c>
     </row>
     <row r="63" spans="5:11">
@@ -2873,22 +2873,22 @@
         <v>0.62</v>
       </c>
       <c r="F63">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G63">
-        <v>706</v>
+        <v>1322</v>
       </c>
       <c r="H63" s="1">
-        <v>0.82030338389699997</v>
+        <v>0.81859410430799995</v>
       </c>
       <c r="I63" s="1">
-        <v>0.59979209979199999</v>
+        <v>0.68641114982600004</v>
       </c>
       <c r="J63" s="1">
-        <v>0.81728045325800003</v>
+        <v>0.59606656580899997</v>
       </c>
       <c r="K63" s="1">
-        <v>0.473727422003</v>
+        <v>0.80903490759800001</v>
       </c>
     </row>
     <row r="64" spans="5:11">
@@ -2896,22 +2896,22 @@
         <v>0.63</v>
       </c>
       <c r="F64">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G64">
-        <v>679</v>
+        <v>1306</v>
       </c>
       <c r="H64" s="1">
-        <v>0.81540256709500003</v>
+        <v>0.81909800957400003</v>
       </c>
       <c r="I64" s="1">
-        <v>0.58302583025800003</v>
+        <v>0.68508771929800005</v>
       </c>
       <c r="J64" s="1">
-        <v>0.81443298969099998</v>
+        <v>0.59800918836100003</v>
       </c>
       <c r="K64" s="1">
-        <v>0.45402298850599998</v>
+        <v>0.80184804928099995</v>
       </c>
     </row>
     <row r="65" spans="5:11">
@@ -2919,22 +2919,22 @@
         <v>0.64</v>
       </c>
       <c r="F65">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G65">
-        <v>653</v>
+        <v>1283</v>
       </c>
       <c r="H65" s="1">
-        <v>0.81446907818000003</v>
+        <v>0.82035777273900001</v>
       </c>
       <c r="I65" s="1">
-        <v>0.57509353286999998</v>
+        <v>0.68409392999600005</v>
       </c>
       <c r="J65" s="1">
-        <v>0.82388973966300005</v>
+        <v>0.60171473109899998</v>
       </c>
       <c r="K65" s="1">
-        <v>0.44170771756999999</v>
+        <v>0.79260780287499999</v>
       </c>
     </row>
     <row r="66" spans="5:11">
@@ -2942,22 +2942,22 @@
         <v>0.65</v>
       </c>
       <c r="F66">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G66">
-        <v>639</v>
+        <v>1254</v>
       </c>
       <c r="H66" s="1">
-        <v>0.81260210035000002</v>
+        <v>0.82413706223200001</v>
       </c>
       <c r="I66" s="1">
-        <v>0.56758212170199995</v>
+        <v>0.68671454219000005</v>
       </c>
       <c r="J66" s="1">
-        <v>0.82472613458499999</v>
+        <v>0.61004784689000002</v>
       </c>
       <c r="K66" s="1">
-        <v>0.43267651888300002</v>
+        <v>0.78542094455900002</v>
       </c>
     </row>
     <row r="67" spans="5:11">
@@ -2965,22 +2965,22 @@
         <v>0.66</v>
       </c>
       <c r="F67">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G67">
-        <v>612</v>
+        <v>1230</v>
       </c>
       <c r="H67" s="1">
-        <v>0.809568261377</v>
+        <v>0.82716049382699997</v>
       </c>
       <c r="I67" s="1">
-        <v>0.55409836065600004</v>
+        <v>0.68874773139699996</v>
       </c>
       <c r="J67" s="1">
-        <v>0.82843137254900001</v>
+        <v>0.61707317073199996</v>
       </c>
       <c r="K67" s="1">
-        <v>0.41625615763500001</v>
+        <v>0.77926078028699997</v>
       </c>
     </row>
     <row r="68" spans="5:11">
@@ -2988,22 +2988,22 @@
         <v>0.67</v>
       </c>
       <c r="F68">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G68">
-        <v>589</v>
+        <v>1201</v>
       </c>
       <c r="H68" s="1">
-        <v>0.80746791131899998</v>
+        <v>0.82892416225700005</v>
       </c>
       <c r="I68" s="1">
-        <v>0.54344216934099998</v>
+        <v>0.68781609195399995</v>
       </c>
       <c r="J68" s="1">
-        <v>0.83361629881199995</v>
+        <v>0.62281432139899995</v>
       </c>
       <c r="K68" s="1">
-        <v>0.403119868637</v>
+        <v>0.76796714579100001</v>
       </c>
     </row>
     <row r="69" spans="5:11">
@@ -3011,22 +3011,22 @@
         <v>0.68</v>
       </c>
       <c r="F69">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G69">
-        <v>562</v>
+        <v>1182</v>
       </c>
       <c r="H69" s="1">
-        <v>0.80396732788799996</v>
+        <v>0.82917611488999998</v>
       </c>
       <c r="I69" s="1">
-        <v>0.52808988763999998</v>
+        <v>0.685528756957</v>
       </c>
       <c r="J69" s="1">
-        <v>0.83629893238399999</v>
+        <v>0.62521150592200003</v>
       </c>
       <c r="K69" s="1">
-        <v>0.38587848932699997</v>
+        <v>0.75872689938399995</v>
       </c>
     </row>
     <row r="70" spans="5:11">
@@ -3034,22 +3034,22 @@
         <v>0.69</v>
       </c>
       <c r="F70">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G70">
-        <v>545</v>
+        <v>1152</v>
       </c>
       <c r="H70" s="1">
-        <v>0.80326721120199995</v>
+        <v>0.83119173595399998</v>
       </c>
       <c r="I70" s="1">
-        <v>0.52183777651700003</v>
+        <v>0.68485418626500005</v>
       </c>
       <c r="J70" s="1">
-        <v>0.84403669724800001</v>
+        <v>0.631944444444</v>
       </c>
       <c r="K70" s="1">
-        <v>0.377668308703</v>
+        <v>0.74743326488700002</v>
       </c>
     </row>
     <row r="71" spans="5:11">
@@ -3057,22 +3057,22 @@
         <v>0.7</v>
       </c>
       <c r="F71">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G71">
-        <v>514</v>
+        <v>1127</v>
       </c>
       <c r="H71" s="1">
-        <v>0.79883313885600005</v>
+        <v>0.83497102544699997</v>
       </c>
       <c r="I71" s="1">
-        <v>0.502309468822</v>
+        <v>0.68824369347900005</v>
       </c>
       <c r="J71" s="1">
-        <v>0.84630350194600001</v>
+        <v>0.64152617568799997</v>
       </c>
       <c r="K71" s="1">
-        <v>0.35714285714299998</v>
+        <v>0.74229979466100005</v>
       </c>
     </row>
     <row r="72" spans="5:11">
@@ -3080,22 +3080,22 @@
         <v>0.71</v>
       </c>
       <c r="F72">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G72">
-        <v>486</v>
+        <v>1095</v>
       </c>
       <c r="H72" s="1">
-        <v>0.795565927655</v>
+        <v>0.83849836230800001</v>
       </c>
       <c r="I72" s="1">
-        <v>0.48591549295800002</v>
+        <v>0.69018849685799999</v>
       </c>
       <c r="J72" s="1">
-        <v>0.85185185185199996</v>
+        <v>0.65205479452100001</v>
       </c>
       <c r="K72" s="1">
-        <v>0.33990147783300001</v>
+        <v>0.73305954825499997</v>
       </c>
     </row>
     <row r="73" spans="5:11">
@@ -3103,22 +3103,22 @@
         <v>0.72</v>
       </c>
       <c r="F73">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G73">
-        <v>462</v>
+        <v>1064</v>
       </c>
       <c r="H73" s="1">
-        <v>0.79183197199499999</v>
+        <v>0.83925422020700002</v>
       </c>
       <c r="I73" s="1">
-        <v>0.46904761904800002</v>
+        <v>0.68694798822400005</v>
       </c>
       <c r="J73" s="1">
-        <v>0.85281385281400002</v>
+        <v>0.65789473684199995</v>
       </c>
       <c r="K73" s="1">
-        <v>0.32348111658500001</v>
+        <v>0.71868583162199995</v>
       </c>
     </row>
     <row r="74" spans="5:11">
@@ -3126,22 +3126,22 @@
         <v>0.73</v>
       </c>
       <c r="F74">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G74">
-        <v>443</v>
+        <v>1034</v>
       </c>
       <c r="H74" s="1">
-        <v>0.78973162193699997</v>
+        <v>0.83824640967499997</v>
       </c>
       <c r="I74" s="1">
-        <v>0.45755568934399998</v>
+        <v>0.68027888446200002</v>
       </c>
       <c r="J74" s="1">
-        <v>0.85778781038399998</v>
+        <v>0.66054158607400004</v>
       </c>
       <c r="K74" s="1">
-        <v>0.31198686371099998</v>
+        <v>0.70123203285400004</v>
       </c>
     </row>
     <row r="75" spans="5:11">
@@ -3149,22 +3149,22 @@
         <v>0.74</v>
       </c>
       <c r="F75">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G75">
-        <v>419</v>
+        <v>1002</v>
       </c>
       <c r="H75" s="1">
-        <v>0.78459743290499995</v>
+        <v>0.83623078861199995</v>
       </c>
       <c r="I75" s="1">
-        <v>0.43616371411100002</v>
+        <v>0.67105263157899997</v>
       </c>
       <c r="J75" s="1">
-        <v>0.85202863961800002</v>
+        <v>0.66167664670699999</v>
       </c>
       <c r="K75" s="1">
-        <v>0.29310344827599999</v>
+        <v>0.68069815195100003</v>
       </c>
     </row>
     <row r="76" spans="5:11">
@@ -3172,22 +3172,22 @@
         <v>0.75</v>
       </c>
       <c r="F76">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G76">
-        <v>397</v>
+        <v>984</v>
       </c>
       <c r="H76" s="1">
-        <v>0.78133022170400002</v>
+        <v>0.83723859914300003</v>
       </c>
       <c r="I76" s="1">
-        <v>0.41981424148599999</v>
+        <v>0.67007150153200001</v>
       </c>
       <c r="J76" s="1">
-        <v>0.853904282116</v>
+        <v>0.66666666666700003</v>
       </c>
       <c r="K76" s="1">
-        <v>0.27832512315300001</v>
+        <v>0.67351129363399997</v>
       </c>
     </row>
     <row r="77" spans="5:11">
@@ -3195,22 +3195,22 @@
         <v>0.76</v>
       </c>
       <c r="F77">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G77">
-        <v>379</v>
+        <v>955</v>
       </c>
       <c r="H77" s="1">
-        <v>0.778996499417</v>
+        <v>0.83799445704200004</v>
       </c>
       <c r="I77" s="1">
-        <v>0.407013149656</v>
+        <v>0.66666666666700003</v>
       </c>
       <c r="J77" s="1">
-        <v>0.85751978891799996</v>
+        <v>0.67329842931899997</v>
       </c>
       <c r="K77" s="1">
-        <v>0.26683087027899999</v>
+        <v>0.66016427104700004</v>
       </c>
     </row>
     <row r="78" spans="5:11">
@@ -3218,22 +3218,22 @@
         <v>0.77</v>
       </c>
       <c r="F78">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G78">
-        <v>360</v>
+        <v>919</v>
       </c>
       <c r="H78" s="1">
-        <v>0.776896149358</v>
+        <v>0.83900226757399998</v>
       </c>
       <c r="I78" s="1">
-        <v>0.39416983523400001</v>
+        <v>0.66244057052299998</v>
       </c>
       <c r="J78" s="1">
-        <v>0.86388888888899995</v>
+        <v>0.68226332970600001</v>
       </c>
       <c r="K78" s="1">
-        <v>0.255336617406</v>
+        <v>0.64373716632400002</v>
       </c>
     </row>
     <row r="79" spans="5:11">
@@ -3241,22 +3241,22 @@
         <v>0.78</v>
       </c>
       <c r="F79">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G79">
-        <v>343</v>
+        <v>888</v>
       </c>
       <c r="H79" s="1">
-        <v>0.77432905484199999</v>
+        <v>0.83975812547200002</v>
       </c>
       <c r="I79" s="1">
-        <v>0.38052530429199999</v>
+        <v>0.65843179377000005</v>
       </c>
       <c r="J79" s="1">
-        <v>0.86588921282800002</v>
+        <v>0.69031531531500001</v>
       </c>
       <c r="K79" s="1">
-        <v>0.24384236453200001</v>
+        <v>0.62936344969199998</v>
       </c>
     </row>
     <row r="80" spans="5:11">
@@ -3264,22 +3264,22 @@
         <v>0.79</v>
       </c>
       <c r="F80">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G80">
-        <v>329</v>
+        <v>862</v>
       </c>
       <c r="H80" s="1">
-        <v>0.77339556592799996</v>
+        <v>0.83673469387800004</v>
       </c>
       <c r="I80" s="1">
-        <v>0.37233354880399999</v>
+        <v>0.64705882352900002</v>
       </c>
       <c r="J80" s="1">
-        <v>0.87537993921000001</v>
+        <v>0.68909512761000002</v>
       </c>
       <c r="K80" s="1">
-        <v>0.23645320197</v>
+        <v>0.60985626283399996</v>
       </c>
     </row>
     <row r="81" spans="5:11">
@@ -3287,22 +3287,22 @@
         <v>0.8</v>
       </c>
       <c r="F81">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G81">
-        <v>313</v>
+        <v>822</v>
       </c>
       <c r="H81" s="1">
-        <v>0.77199533255499997</v>
+        <v>0.83572688334599998</v>
       </c>
       <c r="I81" s="1">
-        <v>0.36185499673400001</v>
+        <v>0.63697104677100003</v>
       </c>
       <c r="J81" s="1">
-        <v>0.88498402555900002</v>
+        <v>0.695863746959</v>
       </c>
       <c r="K81" s="1">
-        <v>0.227422003284</v>
+        <v>0.58726899383999998</v>
       </c>
     </row>
     <row r="82" spans="5:11">
@@ -3310,22 +3310,22 @@
         <v>0.81</v>
       </c>
       <c r="F82">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G82">
-        <v>295</v>
+        <v>785</v>
       </c>
       <c r="H82" s="1">
-        <v>0.76872812135400004</v>
+        <v>0.834467120181</v>
       </c>
       <c r="I82" s="1">
-        <v>0.34500991407800002</v>
+        <v>0.62649232518499998</v>
       </c>
       <c r="J82" s="1">
-        <v>0.88474576271200001</v>
+        <v>0.70191082802500004</v>
       </c>
       <c r="K82" s="1">
-        <v>0.21428571428599999</v>
+        <v>0.56570841889099999</v>
       </c>
     </row>
     <row r="83" spans="5:11">
@@ -3333,22 +3333,22 @@
         <v>0.82</v>
       </c>
       <c r="F83">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G83">
-        <v>276</v>
+        <v>759</v>
       </c>
       <c r="H83" s="1">
-        <v>0.76616102683800003</v>
+        <v>0.834467120181</v>
       </c>
       <c r="I83" s="1">
-        <v>0.32931726907600001</v>
+        <v>0.62088863242900005</v>
       </c>
       <c r="J83" s="1">
-        <v>0.89130434782599999</v>
+        <v>0.70882740448000003</v>
       </c>
       <c r="K83" s="1">
-        <v>0.20197044335</v>
+        <v>0.55236139630400005</v>
       </c>
     </row>
     <row r="84" spans="5:11">
@@ -3356,22 +3356,22 @@
         <v>0.83</v>
       </c>
       <c r="F84">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G84">
-        <v>262</v>
+        <v>736</v>
       </c>
       <c r="H84" s="1">
-        <v>0.76336056009300002</v>
+        <v>0.83320735701699999</v>
       </c>
       <c r="I84" s="1">
-        <v>0.31486486486499998</v>
+        <v>0.61286549707600002</v>
       </c>
       <c r="J84" s="1">
-        <v>0.88931297709900003</v>
+        <v>0.71195652173900004</v>
       </c>
       <c r="K84" s="1">
-        <v>0.19129720853900001</v>
+        <v>0.53798767967100003</v>
       </c>
     </row>
     <row r="85" spans="5:11">
@@ -3379,22 +3379,22 @@
         <v>0.84</v>
       </c>
       <c r="F85">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G85">
-        <v>242</v>
+        <v>709</v>
       </c>
       <c r="H85" s="1">
-        <v>0.75962660443399999</v>
+        <v>0.83194759385200001</v>
       </c>
       <c r="I85" s="1">
-        <v>0.29452054794499999</v>
+        <v>0.60368389780200005</v>
       </c>
       <c r="J85" s="1">
-        <v>0.88842975206599994</v>
+        <v>0.71650211565599997</v>
       </c>
       <c r="K85" s="1">
-        <v>0.17651888341499999</v>
+        <v>0.52156057494899999</v>
       </c>
     </row>
     <row r="86" spans="5:11">
@@ -3402,22 +3402,22 @@
         <v>0.85</v>
       </c>
       <c r="F86">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G86">
-        <v>225</v>
+        <v>673</v>
       </c>
       <c r="H86" s="1">
-        <v>0.75705950991799997</v>
+        <v>0.82942806752300002</v>
       </c>
       <c r="I86" s="1">
-        <v>0.27858627858599999</v>
+        <v>0.588949605343</v>
       </c>
       <c r="J86" s="1">
-        <v>0.89333333333300002</v>
+        <v>0.72065378900400001</v>
       </c>
       <c r="K86" s="1">
-        <v>0.16502463054200001</v>
+        <v>0.49794661191</v>
       </c>
     </row>
     <row r="87" spans="5:11">
@@ -3425,22 +3425,22 @@
         <v>0.86</v>
       </c>
       <c r="F87">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G87">
-        <v>206</v>
+        <v>637</v>
       </c>
       <c r="H87" s="1">
-        <v>0.75495915985999995</v>
+        <v>0.82489292013100002</v>
       </c>
       <c r="I87" s="1">
-        <v>0.26264044943800002</v>
+        <v>0.56859093730599997</v>
       </c>
       <c r="J87" s="1">
-        <v>0.90776699029100005</v>
+        <v>0.71899529042400001</v>
       </c>
       <c r="K87" s="1">
-        <v>0.15353037766800001</v>
+        <v>0.47022587268999999</v>
       </c>
     </row>
     <row r="88" spans="5:11">
@@ -3448,22 +3448,22 @@
         <v>0.87</v>
       </c>
       <c r="F88">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G88">
-        <v>192</v>
+        <v>597</v>
       </c>
       <c r="H88" s="1">
-        <v>0.75309218202999995</v>
+        <v>0.82186948853599995</v>
       </c>
       <c r="I88" s="1">
-        <v>0.24964539007100001</v>
+        <v>0.54996817313799995</v>
       </c>
       <c r="J88" s="1">
-        <v>0.91666666666700003</v>
+        <v>0.72361809045199998</v>
       </c>
       <c r="K88" s="1">
-        <v>0.14449917898199999</v>
+        <v>0.44353182751499998</v>
       </c>
     </row>
     <row r="89" spans="5:11">
@@ -3471,22 +3471,22 @@
         <v>0.88</v>
       </c>
       <c r="F89">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G89">
-        <v>177</v>
+        <v>562</v>
       </c>
       <c r="H89" s="1">
-        <v>0.75052508751500002</v>
+        <v>0.82161753590300002</v>
       </c>
       <c r="I89" s="1">
-        <v>0.23369175627200001</v>
+        <v>0.5390625</v>
       </c>
       <c r="J89" s="1">
-        <v>0.92090395480200005</v>
+        <v>0.73665480426999996</v>
       </c>
       <c r="K89" s="1">
-        <v>0.13382594417099999</v>
+        <v>0.42505133470200002</v>
       </c>
     </row>
     <row r="90" spans="5:11">
@@ -3494,22 +3494,22 @@
         <v>0.89</v>
       </c>
       <c r="F90">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G90">
-        <v>162</v>
+        <v>526</v>
       </c>
       <c r="H90" s="1">
-        <v>0.74795799299900001</v>
+        <v>0.81657848324500004</v>
       </c>
       <c r="I90" s="1">
-        <v>0.217391304348</v>
+        <v>0.51466666666700001</v>
       </c>
       <c r="J90" s="1">
-        <v>0.92592592592599998</v>
+        <v>0.73384030418299995</v>
       </c>
       <c r="K90" s="1">
-        <v>0.12315270936</v>
+        <v>0.39630390143700001</v>
       </c>
     </row>
     <row r="91" spans="5:11">
@@ -3517,22 +3517,22 @@
         <v>0.9</v>
       </c>
       <c r="F91">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G91">
-        <v>141</v>
+        <v>473</v>
       </c>
       <c r="H91" s="1">
-        <v>0.74352392065299999</v>
+        <v>0.81279919375200005</v>
       </c>
       <c r="I91" s="1">
-        <v>0.19131714495999999</v>
+        <v>0.48652384243300001</v>
       </c>
       <c r="J91" s="1">
-        <v>0.92198581560299997</v>
+        <v>0.74418604651200004</v>
       </c>
       <c r="K91" s="1">
-        <v>0.106732348112</v>
+        <v>0.36139630390100003</v>
       </c>
     </row>
     <row r="92" spans="5:11">
@@ -3540,22 +3540,22 @@
         <v>0.91</v>
       </c>
       <c r="F92">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G92">
-        <v>122</v>
+        <v>432</v>
       </c>
       <c r="H92" s="1">
-        <v>0.74002333722299996</v>
+        <v>0.80801209372600002</v>
       </c>
       <c r="I92" s="1">
-        <v>0.16865671641800001</v>
+        <v>0.458036984353</v>
       </c>
       <c r="J92" s="1">
-        <v>0.92622950819700001</v>
+        <v>0.74537037036999998</v>
       </c>
       <c r="K92" s="1">
-        <v>9.2775041050899995E-2</v>
+        <v>0.33059548254600002</v>
       </c>
     </row>
     <row r="93" spans="5:11">
@@ -3563,22 +3563,22 @@
         <v>0.92</v>
       </c>
       <c r="F93">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G93">
-        <v>103</v>
+        <v>399</v>
       </c>
       <c r="H93" s="1">
-        <v>0.73698949825000004</v>
+        <v>0.80423280423300003</v>
       </c>
       <c r="I93" s="1">
-        <v>0.146858440575</v>
+        <v>0.43408594318999999</v>
       </c>
       <c r="J93" s="1">
-        <v>0.94174757281599997</v>
+        <v>0.74686716791999996</v>
       </c>
       <c r="K93" s="1">
-        <v>7.9638752052499998E-2</v>
+        <v>0.30595482546199998</v>
       </c>
     </row>
     <row r="94" spans="5:11">
@@ -3586,22 +3586,22 @@
         <v>0.93</v>
       </c>
       <c r="F94">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G94">
-        <v>92</v>
+        <v>357</v>
       </c>
       <c r="H94" s="1">
-        <v>0.73488914819100004</v>
+        <v>0.80372889896699995</v>
       </c>
       <c r="I94" s="1">
-        <v>0.13282442748100001</v>
+        <v>0.41472577009799999</v>
       </c>
       <c r="J94" s="1">
-        <v>0.94565217391300005</v>
+        <v>0.77310924369699996</v>
       </c>
       <c r="K94" s="1">
-        <v>7.1428571428599999E-2</v>
+        <v>0.28336755646799999</v>
       </c>
     </row>
     <row r="95" spans="5:11">
@@ -3609,22 +3609,22 @@
         <v>0.94</v>
       </c>
       <c r="F95">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G95">
-        <v>81</v>
+        <v>299</v>
       </c>
       <c r="H95" s="1">
-        <v>0.73325554259000003</v>
+        <v>0.79717813051099995</v>
       </c>
       <c r="I95" s="1">
-        <v>0.120092378753</v>
+        <v>0.36763550667700001</v>
       </c>
       <c r="J95" s="1">
-        <v>0.96296296296299999</v>
+        <v>0.78260869565199997</v>
       </c>
       <c r="K95" s="1">
-        <v>6.4039408867000006E-2</v>
+        <v>0.24024640657099999</v>
       </c>
     </row>
     <row r="96" spans="5:11">
@@ -3632,22 +3632,22 @@
         <v>0.95</v>
       </c>
       <c r="F96">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G96">
-        <v>63</v>
+        <v>244</v>
       </c>
       <c r="H96" s="1">
-        <v>0.72998833138899999</v>
+        <v>0.79188712522000004</v>
       </c>
       <c r="I96" s="1">
-        <v>9.6799375487900005E-2</v>
+        <v>0.32183908045999998</v>
       </c>
       <c r="J96" s="1">
-        <v>0.98412698412699995</v>
+        <v>0.80327868852499995</v>
       </c>
       <c r="K96" s="1">
-        <v>5.0903119868600001E-2</v>
+        <v>0.20123203285399999</v>
       </c>
     </row>
     <row r="97" spans="5:11">
@@ -3655,22 +3655,22 @@
         <v>0.96</v>
       </c>
       <c r="F97">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G97">
-        <v>57</v>
+        <v>187</v>
       </c>
       <c r="H97" s="1">
-        <v>0.728588098016</v>
+        <v>0.78306878306899996</v>
       </c>
       <c r="I97" s="1">
-        <v>8.7843137254900006E-2</v>
+        <v>0.25839793281700002</v>
       </c>
       <c r="J97" s="1">
-        <v>0.98245614035100004</v>
+        <v>0.80213903743299997</v>
       </c>
       <c r="K97" s="1">
-        <v>4.5977011494300002E-2</v>
+        <v>0.15400410677599999</v>
       </c>
     </row>
     <row r="98" spans="5:11">
@@ -3678,22 +3678,22 @@
         <v>0.97</v>
       </c>
       <c r="F98">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G98">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="H98" s="1">
-        <v>0.72788798132999999</v>
+        <v>0.775510204082</v>
       </c>
       <c r="I98" s="1">
-        <v>8.3333333333299994E-2</v>
+        <v>0.19801980197999999</v>
       </c>
       <c r="J98" s="1">
-        <v>0.98148148148100001</v>
+        <v>0.80291970802900003</v>
       </c>
       <c r="K98" s="1">
-        <v>4.3513957307099997E-2</v>
+        <v>0.112936344969</v>
       </c>
     </row>
     <row r="99" spans="5:11">
@@ -3701,22 +3701,22 @@
         <v>0.98</v>
       </c>
       <c r="F99">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G99">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="H99" s="1">
-        <v>0.72625437572899998</v>
+        <v>0.76694381456299998</v>
       </c>
       <c r="I99" s="1">
-        <v>7.1258907363400001E-2</v>
+        <v>0.123222748815</v>
       </c>
       <c r="J99" s="1">
-        <v>1</v>
+        <v>0.80246913580199997</v>
       </c>
       <c r="K99" s="1">
-        <v>3.6945812807899998E-2</v>
+        <v>6.6735112936299995E-2</v>
       </c>
     </row>
     <row r="100" spans="5:11">
@@ -3724,22 +3724,22 @@
         <v>0.99</v>
       </c>
       <c r="F100">
-        <v>1218</v>
+        <v>974</v>
       </c>
       <c r="G100">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H100" s="1">
-        <v>0.72415402567099996</v>
+        <v>0.75787351977799999</v>
       </c>
       <c r="I100" s="1">
-        <v>5.7416267942599998E-2</v>
+        <v>3.8038038038000002E-2</v>
       </c>
       <c r="J100" s="1">
-        <v>1</v>
+        <v>0.76</v>
       </c>
       <c r="K100" s="1">
-        <v>2.9556650246300002E-2</v>
+        <v>1.95071868583E-2</v>
       </c>
     </row>
   </sheetData>

--- a/baseline_prWin_metrics.xlsx
+++ b/baseline_prWin_metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael.peng/Documents/pkrprb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511B4E80-2149-D544-9EE6-88619ABD30C4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616CB403-7196-4A49-A269-AC6A5D329225}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14340" firstSheet="2" activeTab="4" xr2:uid="{CD697F08-0CC6-5044-82D1-47E874A00822}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14340" firstSheet="2" activeTab="5" xr2:uid="{CD697F08-0CC6-5044-82D1-47E874A00822}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline prWin =&gt; win" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="63">
   <si>
     <t>Deal</t>
   </si>
@@ -17506,8 +17506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCBF2583-5519-4143-80BE-D0EA616BA128}">
   <dimension ref="A1:W100"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="X4" sqref="X4"/>
+    <sheetView topLeftCell="N83" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="V100" sqref="V100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
@@ -21089,7 +21089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A73FEB14-2BBE-E949-945D-9E82AE381211}">
   <dimension ref="A1:W100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N88" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="J1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="V100" sqref="V100"/>
     </sheetView>
   </sheetViews>
@@ -24069,10 +24069,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA59032-87A3-4B47-B791-4264FEB17194}">
-  <dimension ref="A1:K60"/>
+  <dimension ref="A1:W100"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="V100" sqref="V100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
@@ -24085,17 +24085,47 @@
     <col min="8" max="8" width="8.625" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="9.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
         <v>18</v>
       </c>
       <c r="G1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
@@ -24114,8 +24144,38 @@
       <c r="K2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" hidden="1">
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2">
+        <v>85223</v>
+      </c>
+      <c r="O2">
+        <v>2982</v>
+      </c>
+      <c r="Q2">
+        <v>0.01</v>
+      </c>
+      <c r="R2">
+        <v>1276</v>
+      </c>
+      <c r="S2">
+        <v>2928</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0.44600938967100001</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0.60704091341599997</v>
+      </c>
+      <c r="V2" s="6">
+        <v>0.43579234972699998</v>
+      </c>
+      <c r="W2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -24146,8 +24206,38 @@
       <c r="K3">
         <v>40107</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" hidden="1">
+      <c r="M3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.90311300939887096</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0.78604963112005299</v>
+      </c>
+      <c r="Q3">
+        <v>0.02</v>
+      </c>
+      <c r="R3">
+        <v>1276</v>
+      </c>
+      <c r="S3">
+        <v>2845</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0.47317236753899999</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0.61878184906599998</v>
+      </c>
+      <c r="V3" s="6">
+        <v>0.44815465729300002</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0.99921630094000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -24175,8 +24265,38 @@
       <c r="K4">
         <v>0.90069100000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" hidden="1">
+      <c r="M4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.88285450805135801</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0.743156199677938</v>
+      </c>
+      <c r="Q4">
+        <v>0.03</v>
+      </c>
+      <c r="R4">
+        <v>1276</v>
+      </c>
+      <c r="S4">
+        <v>2783</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0.49329309188499998</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0.62774082286300004</v>
+      </c>
+      <c r="V4" s="6">
+        <v>0.45777937477500003</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0.99843260188100003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -24204,8 +24324,38 @@
       <c r="K5">
         <v>0.87787099999999996</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" hidden="1">
+      <c r="M5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.90261379130283403</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.76407284768211903</v>
+      </c>
+      <c r="Q5">
+        <v>0.04</v>
+      </c>
+      <c r="R5">
+        <v>1276</v>
+      </c>
+      <c r="S5">
+        <v>2710</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0.51576123407100005</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0.63773206221800005</v>
+      </c>
+      <c r="V5" s="6">
+        <v>0.46900369003699999</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0.99608150470199996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -24233,8 +24383,38 @@
       <c r="K6">
         <v>0.907161</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" hidden="1">
+      <c r="M6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.86394180041095103</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.72335423197492099</v>
+      </c>
+      <c r="Q6">
+        <v>0.05</v>
+      </c>
+      <c r="R6">
+        <v>1276</v>
+      </c>
+      <c r="S6">
+        <v>2651</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0.533534540577</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0.64578558696199995</v>
+      </c>
+      <c r="V6" s="6">
+        <v>0.47831007167099998</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0.99373040752399999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -24262,8 +24442,29 @@
       <c r="K7">
         <v>0.85041299999999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="Q7">
+        <v>0.06</v>
+      </c>
+      <c r="R7">
+        <v>1276</v>
+      </c>
+      <c r="S7">
+        <v>2599</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0.55030181086499996</v>
+      </c>
+      <c r="U7" s="1">
+        <v>0.65393548387099998</v>
+      </c>
+      <c r="V7" s="6">
+        <v>0.48749519045799999</v>
+      </c>
+      <c r="W7" s="1">
+        <v>0.99294670846400002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -24294,8 +24495,29 @@
       <c r="K8">
         <v>5844</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="Q8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R8">
+        <v>1276</v>
+      </c>
+      <c r="S8">
+        <v>2542</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0.56874580818200005</v>
+      </c>
+      <c r="U8" s="1">
+        <v>0.66317443687800004</v>
+      </c>
+      <c r="V8" s="6">
+        <v>0.49803304484700001</v>
+      </c>
+      <c r="W8" s="1">
+        <v>0.99216300940400004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -24323,8 +24545,29 @@
       <c r="K9" s="1">
         <v>0.77891900000000003</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="Q9">
+        <v>0.08</v>
+      </c>
+      <c r="R9">
+        <v>1276</v>
+      </c>
+      <c r="S9">
+        <v>2501</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0.58115358819600005</v>
+      </c>
+      <c r="U9" s="1">
+        <v>0.66931427058500004</v>
+      </c>
+      <c r="V9" s="6">
+        <v>0.50539784086399997</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0.99059561128499996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -24352,8 +24595,29 @@
       <c r="K10" s="1">
         <v>0.72857099999999997</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="Q10">
+        <v>0.09</v>
+      </c>
+      <c r="R10">
+        <v>1276</v>
+      </c>
+      <c r="S10">
+        <v>2451</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0.59590878604999997</v>
+      </c>
+      <c r="U10" s="1">
+        <v>0.67668365978</v>
+      </c>
+      <c r="V10" s="6">
+        <v>0.51448388412900004</v>
+      </c>
+      <c r="W10" s="1">
+        <v>0.98824451410699998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -24381,8 +24645,29 @@
       <c r="K11" s="1">
         <v>0.75819899999999996</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="Q11">
+        <v>0.1</v>
+      </c>
+      <c r="R11">
+        <v>1276</v>
+      </c>
+      <c r="S11">
+        <v>2406</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0.608316566063</v>
+      </c>
+      <c r="U11" s="1">
+        <v>0.68278109723000002</v>
+      </c>
+      <c r="V11" s="6">
+        <v>0.52244389027399996</v>
+      </c>
+      <c r="W11" s="1">
+        <v>0.98510971786799995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -24410,13 +24695,55 @@
       <c r="K12" s="1">
         <v>0.70117300000000005</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="Q12">
+        <v>0.11</v>
+      </c>
+      <c r="R12">
+        <v>1276</v>
+      </c>
+      <c r="S12">
+        <v>2366</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0.62105969148200002</v>
+      </c>
+      <c r="U12" s="1">
+        <v>0.68973091707900003</v>
+      </c>
+      <c r="V12" s="6">
+        <v>0.53085376162300002</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0.98432601880899995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="Q13">
+        <v>0.12</v>
+      </c>
+      <c r="R13">
+        <v>1276</v>
+      </c>
+      <c r="S13">
+        <v>2317</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0.63547954392999995</v>
+      </c>
+      <c r="U13" s="1">
+        <v>0.69746729752299996</v>
+      </c>
+      <c r="V13" s="6">
+        <v>0.54078549848900004</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0.98197492163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -24429,8 +24756,29 @@
       <c r="E14" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" hidden="1">
+      <c r="Q14">
+        <v>0.13</v>
+      </c>
+      <c r="R14">
+        <v>1276</v>
+      </c>
+      <c r="S14">
+        <v>2278</v>
+      </c>
+      <c r="T14" s="1">
+        <v>0.64587525150900005</v>
+      </c>
+      <c r="U14" s="1">
+        <v>0.70287000562699997</v>
+      </c>
+      <c r="V14" s="6">
+        <v>0.548287971905</v>
+      </c>
+      <c r="W14" s="1">
+        <v>0.97884012539200005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" hidden="1">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -24446,8 +24794,29 @@
       <c r="E15" s="4">
         <v>30080.25</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" hidden="1">
+      <c r="Q15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="R15">
+        <v>1276</v>
+      </c>
+      <c r="S15">
+        <v>2236</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0.65593561368200004</v>
+      </c>
+      <c r="U15" s="1">
+        <v>0.70785876993200003</v>
+      </c>
+      <c r="V15" s="6">
+        <v>0.55590339892700003</v>
+      </c>
+      <c r="W15" s="1">
+        <v>0.97413793103400004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" hidden="1">
       <c r="B16" t="s">
         <v>4</v>
       </c>
@@ -24460,8 +24829,29 @@
       <c r="E16" s="4">
         <v>89.21</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" hidden="1">
+      <c r="Q16">
+        <v>0.15</v>
+      </c>
+      <c r="R16">
+        <v>1276</v>
+      </c>
+      <c r="S16">
+        <v>2186</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0.66867873910099995</v>
+      </c>
+      <c r="U16" s="1">
+        <v>0.71461582900099996</v>
+      </c>
+      <c r="V16" s="6">
+        <v>0.56587374199499996</v>
+      </c>
+      <c r="W16" s="1">
+        <v>0.969435736677</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" hidden="1">
       <c r="B17" t="s">
         <v>5</v>
       </c>
@@ -24474,8 +24864,29 @@
       <c r="E17" s="4">
         <v>86.63</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" hidden="1">
+      <c r="Q17">
+        <v>0.16</v>
+      </c>
+      <c r="R17">
+        <v>1276</v>
+      </c>
+      <c r="S17">
+        <v>2156</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0.67739771965100004</v>
+      </c>
+      <c r="U17" s="1">
+        <v>0.71969696969700003</v>
+      </c>
+      <c r="V17" s="6">
+        <v>0.57282003710600005</v>
+      </c>
+      <c r="W17" s="1">
+        <v>0.96786833855800003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" hidden="1">
       <c r="B18" t="s">
         <v>6</v>
       </c>
@@ -24488,8 +24899,29 @@
       <c r="E18" s="4">
         <v>90.29</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" hidden="1">
+      <c r="Q18">
+        <v>0.17</v>
+      </c>
+      <c r="R18">
+        <v>1276</v>
+      </c>
+      <c r="S18">
+        <v>2124</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0.68544600939</v>
+      </c>
+      <c r="U18" s="1">
+        <v>0.72411764705899995</v>
+      </c>
+      <c r="V18" s="6">
+        <v>0.57956685499100002</v>
+      </c>
+      <c r="W18" s="1">
+        <v>0.96473354231999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" hidden="1">
       <c r="B19" t="s">
         <v>7</v>
       </c>
@@ -24502,8 +24934,29 @@
       <c r="E19" s="4">
         <v>83.25</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="Q19">
+        <v>0.18</v>
+      </c>
+      <c r="R19">
+        <v>1276</v>
+      </c>
+      <c r="S19">
+        <v>2095</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0.69181757209899997</v>
+      </c>
+      <c r="U19" s="1">
+        <v>0.727380599229</v>
+      </c>
+      <c r="V19" s="6">
+        <v>0.58520286396200005</v>
+      </c>
+      <c r="W19" s="1">
+        <v>0.96081504702200005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -24519,8 +24972,29 @@
       <c r="E20" s="4">
         <v>10026.75</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="Q20">
+        <v>0.19</v>
+      </c>
+      <c r="R20">
+        <v>1276</v>
+      </c>
+      <c r="S20">
+        <v>2062</v>
+      </c>
+      <c r="T20" s="1">
+        <v>0.69953051643200004</v>
+      </c>
+      <c r="U20" s="1">
+        <v>0.73157579388899996</v>
+      </c>
+      <c r="V20" s="6">
+        <v>0.59214354995200003</v>
+      </c>
+      <c r="W20" s="1">
+        <v>0.95689655172400001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="B21" t="s">
         <v>4</v>
       </c>
@@ -24533,8 +25007,29 @@
       <c r="E21" s="4">
         <v>79.11</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="Q21">
+        <v>0.2</v>
+      </c>
+      <c r="R21">
+        <v>1276</v>
+      </c>
+      <c r="S21">
+        <v>2026</v>
+      </c>
+      <c r="T21" s="1">
+        <v>0.70824949698200002</v>
+      </c>
+      <c r="U21" s="1">
+        <v>0.73652331920000003</v>
+      </c>
+      <c r="V21" s="6">
+        <v>0.60019743336599995</v>
+      </c>
+      <c r="W21" s="1">
+        <v>0.95297805642599998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="B22" t="s">
         <v>5</v>
       </c>
@@ -24547,8 +25042,29 @@
       <c r="E22" s="4">
         <v>73.92</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="Q22">
+        <v>0.21</v>
+      </c>
+      <c r="R22">
+        <v>1276</v>
+      </c>
+      <c r="S22">
+        <v>1997</v>
+      </c>
+      <c r="T22" s="1">
+        <v>0.71596244131499998</v>
+      </c>
+      <c r="U22" s="1">
+        <v>0.74121600977699997</v>
+      </c>
+      <c r="V22" s="6">
+        <v>0.60741111667500003</v>
+      </c>
+      <c r="W22" s="1">
+        <v>0.950626959248</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="B23" t="s">
         <v>6</v>
       </c>
@@ -24561,8 +25077,29 @@
       <c r="E23" s="4">
         <v>77.64</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="Q23">
+        <v>0.22</v>
+      </c>
+      <c r="R23">
+        <v>1276</v>
+      </c>
+      <c r="S23">
+        <v>1965</v>
+      </c>
+      <c r="T23" s="1">
+        <v>0.72199865861800006</v>
+      </c>
+      <c r="U23" s="1">
+        <v>0.74421474853400005</v>
+      </c>
+      <c r="V23" s="6">
+        <v>0.61374045801499999</v>
+      </c>
+      <c r="W23" s="1">
+        <v>0.94514106583099999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="B24" t="s">
         <v>7</v>
       </c>
@@ -24575,13 +25112,55 @@
       <c r="E24" s="4">
         <v>70.55</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="Q24">
+        <v>0.23</v>
+      </c>
+      <c r="R24">
+        <v>1276</v>
+      </c>
+      <c r="S24">
+        <v>1935</v>
+      </c>
+      <c r="T24" s="1">
+        <v>0.72669349429899999</v>
+      </c>
+      <c r="U24" s="1">
+        <v>0.74618498909999997</v>
+      </c>
+      <c r="V24" s="6">
+        <v>0.61912144702799998</v>
+      </c>
+      <c r="W24" s="1">
+        <v>0.93887147335400001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="Q25">
+        <v>0.24</v>
+      </c>
+      <c r="R25">
+        <v>1276</v>
+      </c>
+      <c r="S25">
+        <v>1899</v>
+      </c>
+      <c r="T25" s="1">
+        <v>0.73407109322599995</v>
+      </c>
+      <c r="U25" s="1">
+        <v>0.750236220472</v>
+      </c>
+      <c r="V25" s="6">
+        <v>0.627172195893</v>
+      </c>
+      <c r="W25" s="1">
+        <v>0.933385579937</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="C26" s="4" t="s">
         <v>10</v>
       </c>
@@ -24591,8 +25170,29 @@
       <c r="E26" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" hidden="1">
+      <c r="Q26">
+        <v>0.25</v>
+      </c>
+      <c r="R26">
+        <v>1276</v>
+      </c>
+      <c r="S26">
+        <v>1864</v>
+      </c>
+      <c r="T26" s="1">
+        <v>0.74178403755900002</v>
+      </c>
+      <c r="U26" s="1">
+        <v>0.75477707006399997</v>
+      </c>
+      <c r="V26" s="6">
+        <v>0.63572961373400005</v>
+      </c>
+      <c r="W26" s="1">
+        <v>0.92868338557999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" hidden="1">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -24608,8 +25208,29 @@
       <c r="E27" s="4">
         <v>30080.25</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" hidden="1">
+      <c r="Q27">
+        <v>0.26</v>
+      </c>
+      <c r="R27">
+        <v>1276</v>
+      </c>
+      <c r="S27">
+        <v>1843</v>
+      </c>
+      <c r="T27" s="1">
+        <v>0.74480214621100005</v>
+      </c>
+      <c r="U27" s="1">
+        <v>0.75601154216099997</v>
+      </c>
+      <c r="V27" s="6">
+        <v>0.63971785132900005</v>
+      </c>
+      <c r="W27" s="1">
+        <v>0.92398119122300004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" hidden="1">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -24625,8 +25246,29 @@
       <c r="E28" s="4">
         <v>89.07</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" hidden="1">
+      <c r="Q28">
+        <v>0.27</v>
+      </c>
+      <c r="R28">
+        <v>1276</v>
+      </c>
+      <c r="S28">
+        <v>1820</v>
+      </c>
+      <c r="T28" s="1">
+        <v>0.74782025486299997</v>
+      </c>
+      <c r="U28" s="1">
+        <v>0.75710594315199997</v>
+      </c>
+      <c r="V28" s="6">
+        <v>0.64395604395600003</v>
+      </c>
+      <c r="W28" s="1">
+        <v>0.91849529780600003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" hidden="1">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -24642,8 +25284,29 @@
       <c r="E29" s="4">
         <v>86.53</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" hidden="1">
+      <c r="Q29">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R29">
+        <v>1276</v>
+      </c>
+      <c r="S29">
+        <v>1792</v>
+      </c>
+      <c r="T29" s="1">
+        <v>0.75318578135500003</v>
+      </c>
+      <c r="U29" s="1">
+        <v>0.760104302477</v>
+      </c>
+      <c r="V29" s="6">
+        <v>0.65066964285700002</v>
+      </c>
+      <c r="W29" s="1">
+        <v>0.91379310344800002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" hidden="1">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -24659,8 +25322,29 @@
       <c r="E30" s="4">
         <v>89.6</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" hidden="1">
+      <c r="Q30">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="R30">
+        <v>1276</v>
+      </c>
+      <c r="S30">
+        <v>1765</v>
+      </c>
+      <c r="T30" s="1">
+        <v>0.75620389000699995</v>
+      </c>
+      <c r="U30" s="1">
+        <v>0.76093390332099997</v>
+      </c>
+      <c r="V30" s="6">
+        <v>0.65552407932000001</v>
+      </c>
+      <c r="W30" s="1">
+        <v>0.90673981191200004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" hidden="1">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -24676,8 +25360,29 @@
       <c r="E31" s="4">
         <v>83.67</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="Q31">
+        <v>0.3</v>
+      </c>
+      <c r="R31">
+        <v>1276</v>
+      </c>
+      <c r="S31">
+        <v>1734</v>
+      </c>
+      <c r="T31" s="1">
+        <v>0.75989268946999999</v>
+      </c>
+      <c r="U31" s="1">
+        <v>0.76212624584699995</v>
+      </c>
+      <c r="V31" s="6">
+        <v>0.66147635524799997</v>
+      </c>
+      <c r="W31" s="1">
+        <v>0.89890282131699994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -24693,8 +25398,29 @@
       <c r="E32" s="4">
         <v>10026.75</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="Q32">
+        <v>0.31</v>
+      </c>
+      <c r="R32">
+        <v>1276</v>
+      </c>
+      <c r="S32">
+        <v>1704</v>
+      </c>
+      <c r="T32" s="1">
+        <v>0.76525821596200005</v>
+      </c>
+      <c r="U32" s="1">
+        <v>0.765100671141</v>
+      </c>
+      <c r="V32" s="6">
+        <v>0.66901408450699995</v>
+      </c>
+      <c r="W32" s="1">
+        <v>0.89341692790000005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -24710,8 +25436,29 @@
       <c r="E33" s="4">
         <v>79.61</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="Q33">
+        <v>0.32</v>
+      </c>
+      <c r="R33">
+        <v>1276</v>
+      </c>
+      <c r="S33">
+        <v>1674</v>
+      </c>
+      <c r="T33" s="1">
+        <v>0.76659959758600005</v>
+      </c>
+      <c r="U33" s="1">
+        <v>0.76406779661000002</v>
+      </c>
+      <c r="V33" s="6">
+        <v>0.673237753883</v>
+      </c>
+      <c r="W33" s="1">
+        <v>0.88322884012500003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -24727,8 +25474,29 @@
       <c r="E34" s="4">
         <v>74.78</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="Q34">
+        <v>0.33</v>
+      </c>
+      <c r="R34">
+        <v>1276</v>
+      </c>
+      <c r="S34">
+        <v>1649</v>
+      </c>
+      <c r="T34" s="1">
+        <v>0.76894701542599997</v>
+      </c>
+      <c r="U34" s="1">
+        <v>0.76444444444399995</v>
+      </c>
+      <c r="V34" s="6">
+        <v>0.67798665858100005</v>
+      </c>
+      <c r="W34" s="1">
+        <v>0.87617554858900004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -24744,8 +25512,29 @@
       <c r="E35" s="4">
         <v>77.760000000000005</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="Q35">
+        <v>0.34</v>
+      </c>
+      <c r="R35">
+        <v>1276</v>
+      </c>
+      <c r="S35">
+        <v>1625</v>
+      </c>
+      <c r="T35" s="1">
+        <v>0.772300469484</v>
+      </c>
+      <c r="U35" s="1">
+        <v>0.76594277835199998</v>
+      </c>
+      <c r="V35" s="6">
+        <v>0.68369230769199996</v>
+      </c>
+      <c r="W35" s="1">
+        <v>0.87068965517200003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -24761,13 +25550,55 @@
       <c r="E36" s="4">
         <v>72.03</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="Q36">
+        <v>0.35</v>
+      </c>
+      <c r="R36">
+        <v>1276</v>
+      </c>
+      <c r="S36">
+        <v>1600</v>
+      </c>
+      <c r="T36" s="1">
+        <v>0.77464788732400003</v>
+      </c>
+      <c r="U36" s="1">
+        <v>0.76634214186399996</v>
+      </c>
+      <c r="V36" s="6">
+        <v>0.68874999999999997</v>
+      </c>
+      <c r="W36" s="1">
+        <v>0.86363636363600005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
       <c r="A37" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="Q37">
+        <v>0.36</v>
+      </c>
+      <c r="R37">
+        <v>1276</v>
+      </c>
+      <c r="S37">
+        <v>1583</v>
+      </c>
+      <c r="T37" s="1">
+        <v>0.77632461435300004</v>
+      </c>
+      <c r="U37" s="1">
+        <v>0.76670164393100004</v>
+      </c>
+      <c r="V37" s="6">
+        <v>0.69235628553399997</v>
+      </c>
+      <c r="W37" s="1">
+        <v>0.85893416927900001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
       <c r="C38" s="4" t="s">
         <v>10</v>
       </c>
@@ -24777,8 +25608,29 @@
       <c r="E38" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" hidden="1">
+      <c r="Q38">
+        <v>0.37</v>
+      </c>
+      <c r="R38">
+        <v>1276</v>
+      </c>
+      <c r="S38">
+        <v>1563</v>
+      </c>
+      <c r="T38" s="1">
+        <v>0.78101945003399997</v>
+      </c>
+      <c r="U38" s="1">
+        <v>0.76998943289900001</v>
+      </c>
+      <c r="V38" s="6">
+        <v>0.69929622520800006</v>
+      </c>
+      <c r="W38" s="1">
+        <v>0.85658307209999995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" hidden="1">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -24794,8 +25646,29 @@
       <c r="E39" s="4">
         <v>30080.25</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" hidden="1">
+      <c r="Q39">
+        <v>0.38</v>
+      </c>
+      <c r="R39">
+        <v>1276</v>
+      </c>
+      <c r="S39">
+        <v>1537</v>
+      </c>
+      <c r="T39" s="1">
+        <v>0.78236083165699999</v>
+      </c>
+      <c r="U39" s="1">
+        <v>0.76928546036300005</v>
+      </c>
+      <c r="V39" s="6">
+        <v>0.703968770332</v>
+      </c>
+      <c r="W39" s="1">
+        <v>0.847962382445</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" hidden="1">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -24811,8 +25684,29 @@
       <c r="E40" s="4">
         <v>90.76</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" hidden="1">
+      <c r="Q40">
+        <v>0.39</v>
+      </c>
+      <c r="R40">
+        <v>1276</v>
+      </c>
+      <c r="S40">
+        <v>1502</v>
+      </c>
+      <c r="T40" s="1">
+        <v>0.78202548625099999</v>
+      </c>
+      <c r="U40" s="1">
+        <v>0.76601871850299996</v>
+      </c>
+      <c r="V40" s="6">
+        <v>0.70838881491299999</v>
+      </c>
+      <c r="W40" s="1">
+        <v>0.83385579937300003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" hidden="1">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -24828,8 +25722,29 @@
       <c r="E41" s="4">
         <v>88.63</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" hidden="1">
+      <c r="Q41">
+        <v>0.4</v>
+      </c>
+      <c r="R41">
+        <v>1276</v>
+      </c>
+      <c r="S41">
+        <v>1480</v>
+      </c>
+      <c r="T41" s="1">
+        <v>0.78336686787400001</v>
+      </c>
+      <c r="U41" s="1">
+        <v>0.765602322206</v>
+      </c>
+      <c r="V41" s="6">
+        <v>0.71283783783800003</v>
+      </c>
+      <c r="W41" s="1">
+        <v>0.82680250783700004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" hidden="1">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -24845,8 +25760,29 @@
       <c r="E42" s="4">
         <v>91.65</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" hidden="1">
+      <c r="Q42">
+        <v>0.41</v>
+      </c>
+      <c r="R42">
+        <v>1276</v>
+      </c>
+      <c r="S42">
+        <v>1463</v>
+      </c>
+      <c r="T42" s="1">
+        <v>0.78303152246800001</v>
+      </c>
+      <c r="U42" s="1">
+        <v>0.76378240233700001</v>
+      </c>
+      <c r="V42" s="6">
+        <v>0.71496924128499995</v>
+      </c>
+      <c r="W42" s="1">
+        <v>0.81974921630099995</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" hidden="1">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -24862,8 +25798,29 @@
       <c r="E43" s="4">
         <v>85.8</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="Q43">
+        <v>0.42</v>
+      </c>
+      <c r="R43">
+        <v>1276</v>
+      </c>
+      <c r="S43">
+        <v>1438</v>
+      </c>
+      <c r="T43" s="1">
+        <v>0.78135479543899999</v>
+      </c>
+      <c r="U43" s="1">
+        <v>0.75976418570399995</v>
+      </c>
+      <c r="V43" s="6">
+        <v>0.71696801112700004</v>
+      </c>
+      <c r="W43" s="1">
+        <v>0.80799373040800004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -24879,8 +25836,29 @@
       <c r="E44" s="4">
         <v>10026.75</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="Q44">
+        <v>0.43</v>
+      </c>
+      <c r="R44">
+        <v>1276</v>
+      </c>
+      <c r="S44">
+        <v>1412</v>
+      </c>
+      <c r="T44" s="1">
+        <v>0.78403755868500002</v>
+      </c>
+      <c r="U44" s="1">
+        <v>0.76041666666700003</v>
+      </c>
+      <c r="V44" s="6">
+        <v>0.72379603399400005</v>
+      </c>
+      <c r="W44" s="1">
+        <v>0.80094043887099997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
       <c r="A45" t="s">
         <v>15</v>
       </c>
@@ -24896,8 +25874,29 @@
       <c r="E45" s="4">
         <v>79.78</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="Q45">
+        <v>0.44</v>
+      </c>
+      <c r="R45">
+        <v>1276</v>
+      </c>
+      <c r="S45">
+        <v>1385</v>
+      </c>
+      <c r="T45" s="1">
+        <v>0.78504359490300002</v>
+      </c>
+      <c r="U45" s="1">
+        <v>0.75911311537000004</v>
+      </c>
+      <c r="V45" s="6">
+        <v>0.72924187725599998</v>
+      </c>
+      <c r="W45" s="1">
+        <v>0.79153605015700002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
       <c r="A46" t="s">
         <v>15</v>
       </c>
@@ -24913,8 +25912,29 @@
       <c r="E46" s="4">
         <v>74.930000000000007</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="Q46">
+        <v>0.45</v>
+      </c>
+      <c r="R46">
+        <v>1276</v>
+      </c>
+      <c r="S46">
+        <v>1355</v>
+      </c>
+      <c r="T46" s="1">
+        <v>0.78705566733700005</v>
+      </c>
+      <c r="U46" s="1">
+        <v>0.758646902319</v>
+      </c>
+      <c r="V46" s="6">
+        <v>0.73653136531399999</v>
+      </c>
+      <c r="W46" s="1">
+        <v>0.78213166144199997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
       <c r="A47" t="s">
         <v>15</v>
       </c>
@@ -24930,8 +25950,29 @@
       <c r="E47" s="4">
         <v>78.12</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="Q47">
+        <v>0.46</v>
+      </c>
+      <c r="R47">
+        <v>1276</v>
+      </c>
+      <c r="S47">
+        <v>1320</v>
+      </c>
+      <c r="T47" s="1">
+        <v>0.78873239436599996</v>
+      </c>
+      <c r="U47" s="1">
+        <v>0.75731895223400003</v>
+      </c>
+      <c r="V47" s="6">
+        <v>0.74469696969700006</v>
+      </c>
+      <c r="W47" s="1">
+        <v>0.77037617554899995</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
       <c r="A48" t="s">
         <v>15</v>
       </c>
@@ -24947,13 +25988,55 @@
       <c r="E48" s="4">
         <v>72</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="Q48">
+        <v>0.47</v>
+      </c>
+      <c r="R48">
+        <v>1276</v>
+      </c>
+      <c r="S48">
+        <v>1294</v>
+      </c>
+      <c r="T48" s="1">
+        <v>0.78806170355500005</v>
+      </c>
+      <c r="U48" s="1">
+        <v>0.75408560311299999</v>
+      </c>
+      <c r="V48" s="6">
+        <v>0.74884080370899997</v>
+      </c>
+      <c r="W48" s="1">
+        <v>0.75940438871500004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
       <c r="A49" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="Q49">
+        <v>0.48</v>
+      </c>
+      <c r="R49">
+        <v>1276</v>
+      </c>
+      <c r="S49">
+        <v>1267</v>
+      </c>
+      <c r="T49" s="1">
+        <v>0.78772635814900005</v>
+      </c>
+      <c r="U49" s="1">
+        <v>0.75108139992099998</v>
+      </c>
+      <c r="V49" s="6">
+        <v>0.75374901341800005</v>
+      </c>
+      <c r="W49" s="1">
+        <v>0.74843260188100003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
       <c r="C50" s="4" t="s">
         <v>10</v>
       </c>
@@ -24963,8 +26046,29 @@
       <c r="E50" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="Q50">
+        <v>0.49</v>
+      </c>
+      <c r="R50">
+        <v>1276</v>
+      </c>
+      <c r="S50">
+        <v>1240</v>
+      </c>
+      <c r="T50" s="1">
+        <v>0.78806170355500005</v>
+      </c>
+      <c r="U50" s="1">
+        <v>0.74880763116100002</v>
+      </c>
+      <c r="V50" s="6">
+        <v>0.75967741935499999</v>
+      </c>
+      <c r="W50" s="1">
+        <v>0.73824451410699998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -24980,8 +26084,29 @@
       <c r="E51" s="4">
         <v>30080.25</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="Q51">
+        <v>0.5</v>
+      </c>
+      <c r="R51">
+        <v>1276</v>
+      </c>
+      <c r="S51">
+        <v>1208</v>
+      </c>
+      <c r="T51" s="1">
+        <v>0.78604963112000004</v>
+      </c>
+      <c r="U51" s="1">
+        <v>0.74315619967799995</v>
+      </c>
+      <c r="V51" s="6">
+        <v>0.76407284768200001</v>
+      </c>
+      <c r="W51" s="1">
+        <v>0.72335423197500004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
       <c r="A52" t="s">
         <v>13</v>
       </c>
@@ -24997,8 +26122,29 @@
       <c r="E52" s="4">
         <v>89.81</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="Q52">
+        <v>0.51</v>
+      </c>
+      <c r="R52">
+        <v>1276</v>
+      </c>
+      <c r="S52">
+        <v>1187</v>
+      </c>
+      <c r="T52" s="1">
+        <v>0.78370221328</v>
+      </c>
+      <c r="U52" s="1">
+        <v>0.73812423873300004</v>
+      </c>
+      <c r="V52" s="6">
+        <v>0.76579612468400005</v>
+      </c>
+      <c r="W52" s="1">
+        <v>0.71238244514100002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -25014,8 +26160,29 @@
       <c r="E53" s="4">
         <v>87.45</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="Q53">
+        <v>0.52</v>
+      </c>
+      <c r="R53">
+        <v>1276</v>
+      </c>
+      <c r="S53">
+        <v>1153</v>
+      </c>
+      <c r="T53" s="1">
+        <v>0.78772635814900005</v>
+      </c>
+      <c r="U53" s="1">
+        <v>0.73939892960099995</v>
+      </c>
+      <c r="V53" s="6">
+        <v>0.77883781439699995</v>
+      </c>
+      <c r="W53" s="1">
+        <v>0.70376175548599995</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -25031,8 +26198,29 @@
       <c r="E54" s="4">
         <v>90.47</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="Q54">
+        <v>0.53</v>
+      </c>
+      <c r="R54">
+        <v>1276</v>
+      </c>
+      <c r="S54">
+        <v>1126</v>
+      </c>
+      <c r="T54" s="1">
+        <v>0.78940308517799995</v>
+      </c>
+      <c r="U54" s="1">
+        <v>0.73855120732699997</v>
+      </c>
+      <c r="V54" s="6">
+        <v>0.78774422735299998</v>
+      </c>
+      <c r="W54" s="1">
+        <v>0.69514106583099999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -25048,8 +26236,29 @@
       <c r="E55" s="4">
         <v>84.63</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="Q55">
+        <v>0.54</v>
+      </c>
+      <c r="R55">
+        <v>1276</v>
+      </c>
+      <c r="S55">
+        <v>1100</v>
+      </c>
+      <c r="T55" s="1">
+        <v>0.78873239436599996</v>
+      </c>
+      <c r="U55" s="1">
+        <v>0.73484848484800003</v>
+      </c>
+      <c r="V55" s="6">
+        <v>0.79363636363599999</v>
+      </c>
+      <c r="W55" s="1">
+        <v>0.68416927899699997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
       <c r="A56" t="s">
         <v>29</v>
       </c>
@@ -25065,8 +26274,29 @@
       <c r="E56" s="4">
         <v>10026.75</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="Q56">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R56">
+        <v>1276</v>
+      </c>
+      <c r="S56">
+        <v>1077</v>
+      </c>
+      <c r="T56" s="1">
+        <v>0.78772635814900005</v>
+      </c>
+      <c r="U56" s="1">
+        <v>0.73098172545700002</v>
+      </c>
+      <c r="V56" s="6">
+        <v>0.79851439182899997</v>
+      </c>
+      <c r="W56" s="1">
+        <v>0.67398119122300004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
       <c r="A57" t="s">
         <v>29</v>
       </c>
@@ -25082,8 +26312,29 @@
       <c r="E57" s="4">
         <v>79.69</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="Q57">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="R57">
+        <v>1276</v>
+      </c>
+      <c r="S57">
+        <v>1042</v>
+      </c>
+      <c r="T57" s="1">
+        <v>0.78873239436599996</v>
+      </c>
+      <c r="U57" s="1">
+        <v>0.72821397756700001</v>
+      </c>
+      <c r="V57" s="6">
+        <v>0.80998080614199996</v>
+      </c>
+      <c r="W57" s="1">
+        <v>0.66144200627000005</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
       <c r="A58" t="s">
         <v>29</v>
       </c>
@@ -25099,8 +26350,29 @@
       <c r="E58" s="4">
         <v>74.790000000000006</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="Q58">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="R58">
+        <v>1276</v>
+      </c>
+      <c r="S58">
+        <v>1023</v>
+      </c>
+      <c r="T58" s="1">
+        <v>0.78906773977199995</v>
+      </c>
+      <c r="U58" s="1">
+        <v>0.72640278381900003</v>
+      </c>
+      <c r="V58" s="6">
+        <v>0.81622678396899995</v>
+      </c>
+      <c r="W58" s="1">
+        <v>0.65438871473399995</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23">
       <c r="A59" t="s">
         <v>29</v>
       </c>
@@ -25116,8 +26388,29 @@
       <c r="E59" s="4">
         <v>78.05</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="Q59">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="R59">
+        <v>1276</v>
+      </c>
+      <c r="S59">
+        <v>992</v>
+      </c>
+      <c r="T59" s="1">
+        <v>0.79007377598899997</v>
+      </c>
+      <c r="U59" s="1">
+        <v>0.72398589065300001</v>
+      </c>
+      <c r="V59" s="6">
+        <v>0.827620967742</v>
+      </c>
+      <c r="W59" s="1">
+        <v>0.64341692790000005</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
       <c r="A60" t="s">
         <v>29</v>
       </c>
@@ -25132,6 +26425,947 @@
       </c>
       <c r="E60" s="4">
         <v>71.8</v>
+      </c>
+      <c r="Q60">
+        <v>0.59</v>
+      </c>
+      <c r="R60">
+        <v>1276</v>
+      </c>
+      <c r="S60">
+        <v>971</v>
+      </c>
+      <c r="T60" s="1">
+        <v>0.79040912139499997</v>
+      </c>
+      <c r="U60" s="1">
+        <v>0.72185135736499995</v>
+      </c>
+      <c r="V60" s="6">
+        <v>0.83522142121499998</v>
+      </c>
+      <c r="W60" s="1">
+        <v>0.63557993730399998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23">
+      <c r="Q61">
+        <v>0.6</v>
+      </c>
+      <c r="R61">
+        <v>1276</v>
+      </c>
+      <c r="S61">
+        <v>948</v>
+      </c>
+      <c r="T61" s="1">
+        <v>0.78672032193200003</v>
+      </c>
+      <c r="U61" s="1">
+        <v>0.71402877697800005</v>
+      </c>
+      <c r="V61" s="6">
+        <v>0.83755274261599999</v>
+      </c>
+      <c r="W61" s="1">
+        <v>0.62225705329199998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23">
+      <c r="Q62">
+        <v>0.61</v>
+      </c>
+      <c r="R62">
+        <v>1276</v>
+      </c>
+      <c r="S62">
+        <v>924</v>
+      </c>
+      <c r="T62" s="1">
+        <v>0.78604963112000004</v>
+      </c>
+      <c r="U62" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="V62" s="6">
+        <v>0.84523809523799998</v>
+      </c>
+      <c r="W62" s="1">
+        <v>0.61206896551699996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23">
+      <c r="Q63">
+        <v>0.62</v>
+      </c>
+      <c r="R63">
+        <v>1276</v>
+      </c>
+      <c r="S63">
+        <v>904</v>
+      </c>
+      <c r="T63" s="1">
+        <v>0.78672032193200003</v>
+      </c>
+      <c r="U63" s="1">
+        <v>0.70825688073399995</v>
+      </c>
+      <c r="V63" s="6">
+        <v>0.85398230088500005</v>
+      </c>
+      <c r="W63" s="1">
+        <v>0.60501567398099998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23">
+      <c r="Q64">
+        <v>0.63</v>
+      </c>
+      <c r="R64">
+        <v>1276</v>
+      </c>
+      <c r="S64">
+        <v>885</v>
+      </c>
+      <c r="T64" s="1">
+        <v>0.78370221328</v>
+      </c>
+      <c r="U64" s="1">
+        <v>0.70152707080099996</v>
+      </c>
+      <c r="V64" s="6">
+        <v>0.85649717514099999</v>
+      </c>
+      <c r="W64" s="1">
+        <v>0.59404388714699996</v>
+      </c>
+    </row>
+    <row r="65" spans="17:23">
+      <c r="Q65">
+        <v>0.64</v>
+      </c>
+      <c r="R65">
+        <v>1276</v>
+      </c>
+      <c r="S65">
+        <v>860</v>
+      </c>
+      <c r="T65" s="1">
+        <v>0.77934272300499996</v>
+      </c>
+      <c r="U65" s="1">
+        <v>0.69194756554299996</v>
+      </c>
+      <c r="V65" s="6">
+        <v>0.85930232558099995</v>
+      </c>
+      <c r="W65" s="1">
+        <v>0.57915360501599999</v>
+      </c>
+    </row>
+    <row r="66" spans="17:23">
+      <c r="Q66">
+        <v>0.65</v>
+      </c>
+      <c r="R66">
+        <v>1276</v>
+      </c>
+      <c r="S66">
+        <v>842</v>
+      </c>
+      <c r="T66" s="1">
+        <v>0.77733065056999995</v>
+      </c>
+      <c r="U66" s="1">
+        <v>0.68649669499499999</v>
+      </c>
+      <c r="V66" s="6">
+        <v>0.86342042755299997</v>
+      </c>
+      <c r="W66" s="1">
+        <v>0.56974921630099995</v>
+      </c>
+    </row>
+    <row r="67" spans="17:23">
+      <c r="Q67">
+        <v>0.66</v>
+      </c>
+      <c r="R67">
+        <v>1276</v>
+      </c>
+      <c r="S67">
+        <v>823</v>
+      </c>
+      <c r="T67" s="1">
+        <v>0.77766599597599995</v>
+      </c>
+      <c r="U67" s="1">
+        <v>0.68413530252499999</v>
+      </c>
+      <c r="V67" s="6">
+        <v>0.87241798298899997</v>
+      </c>
+      <c r="W67" s="1">
+        <v>0.56269592476499997</v>
+      </c>
+    </row>
+    <row r="68" spans="17:23">
+      <c r="Q68">
+        <v>0.67</v>
+      </c>
+      <c r="R68">
+        <v>1276</v>
+      </c>
+      <c r="S68">
+        <v>794</v>
+      </c>
+      <c r="T68" s="1">
+        <v>0.771965124078</v>
+      </c>
+      <c r="U68" s="1">
+        <v>0.67149758454099995</v>
+      </c>
+      <c r="V68" s="6">
+        <v>0.87531486146100002</v>
+      </c>
+      <c r="W68" s="1">
+        <v>0.54467084639499996</v>
+      </c>
+    </row>
+    <row r="69" spans="17:23">
+      <c r="Q69">
+        <v>0.68</v>
+      </c>
+      <c r="R69">
+        <v>1276</v>
+      </c>
+      <c r="S69">
+        <v>778</v>
+      </c>
+      <c r="T69" s="1">
+        <v>0.77263581488900002</v>
+      </c>
+      <c r="U69" s="1">
+        <v>0.66991236611500005</v>
+      </c>
+      <c r="V69" s="6">
+        <v>0.88431876606699999</v>
+      </c>
+      <c r="W69" s="1">
+        <v>0.53918495297799995</v>
+      </c>
+    </row>
+    <row r="70" spans="17:23">
+      <c r="Q70">
+        <v>0.69</v>
+      </c>
+      <c r="R70">
+        <v>1276</v>
+      </c>
+      <c r="S70">
+        <v>755</v>
+      </c>
+      <c r="T70" s="1">
+        <v>0.76827632461399997</v>
+      </c>
+      <c r="U70" s="1">
+        <v>0.65977351058599998</v>
+      </c>
+      <c r="V70" s="6">
+        <v>0.88741721854300004</v>
+      </c>
+      <c r="W70" s="1">
+        <v>0.52507836990599999</v>
+      </c>
+    </row>
+    <row r="71" spans="17:23">
+      <c r="Q71">
+        <v>0.7</v>
+      </c>
+      <c r="R71">
+        <v>1276</v>
+      </c>
+      <c r="S71">
+        <v>724</v>
+      </c>
+      <c r="T71" s="1">
+        <v>0.76257545271600002</v>
+      </c>
+      <c r="U71" s="1">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="V71" s="6">
+        <v>0.89226519336999999</v>
+      </c>
+      <c r="W71" s="1">
+        <v>0.50626959247600001</v>
+      </c>
+    </row>
+    <row r="72" spans="17:23">
+      <c r="Q72">
+        <v>0.71</v>
+      </c>
+      <c r="R72">
+        <v>1276</v>
+      </c>
+      <c r="S72">
+        <v>702</v>
+      </c>
+      <c r="T72" s="1">
+        <v>0.75922199865899997</v>
+      </c>
+      <c r="U72" s="1">
+        <v>0.63700707785599997</v>
+      </c>
+      <c r="V72" s="6">
+        <v>0.89743589743600005</v>
+      </c>
+      <c r="W72" s="1">
+        <v>0.49373040752399999</v>
+      </c>
+    </row>
+    <row r="73" spans="17:23">
+      <c r="Q73">
+        <v>0.72</v>
+      </c>
+      <c r="R73">
+        <v>1276</v>
+      </c>
+      <c r="S73">
+        <v>679</v>
+      </c>
+      <c r="T73" s="1">
+        <v>0.75486250838400004</v>
+      </c>
+      <c r="U73" s="1">
+        <v>0.62608695652199997</v>
+      </c>
+      <c r="V73" s="6">
+        <v>0.90132547864500001</v>
+      </c>
+      <c r="W73" s="1">
+        <v>0.47962382445099999</v>
+      </c>
+    </row>
+    <row r="74" spans="17:23">
+      <c r="Q74">
+        <v>0.73</v>
+      </c>
+      <c r="R74">
+        <v>1276</v>
+      </c>
+      <c r="S74">
+        <v>650</v>
+      </c>
+      <c r="T74" s="1">
+        <v>0.75184439973200001</v>
+      </c>
+      <c r="U74" s="1">
+        <v>0.61578400830699997</v>
+      </c>
+      <c r="V74" s="6">
+        <v>0.91230769230800002</v>
+      </c>
+      <c r="W74" s="1">
+        <v>0.46473354232000003</v>
+      </c>
+    </row>
+    <row r="75" spans="17:23">
+      <c r="Q75">
+        <v>0.74</v>
+      </c>
+      <c r="R75">
+        <v>1276</v>
+      </c>
+      <c r="S75">
+        <v>627</v>
+      </c>
+      <c r="T75" s="1">
+        <v>0.74614352783399995</v>
+      </c>
+      <c r="U75" s="1">
+        <v>0.60220704151299997</v>
+      </c>
+      <c r="V75" s="6">
+        <v>0.91387559808600005</v>
+      </c>
+      <c r="W75" s="1">
+        <v>0.44905956112899997</v>
+      </c>
+    </row>
+    <row r="76" spans="17:23">
+      <c r="Q76">
+        <v>0.75</v>
+      </c>
+      <c r="R76">
+        <v>1276</v>
+      </c>
+      <c r="S76">
+        <v>600</v>
+      </c>
+      <c r="T76" s="1">
+        <v>0.74111334674700002</v>
+      </c>
+      <c r="U76" s="1">
+        <v>0.58848614072500005</v>
+      </c>
+      <c r="V76" s="6">
+        <v>0.92</v>
+      </c>
+      <c r="W76" s="1">
+        <v>0.432601880878</v>
+      </c>
+    </row>
+    <row r="77" spans="17:23">
+      <c r="Q77">
+        <v>0.76</v>
+      </c>
+      <c r="R77">
+        <v>1276</v>
+      </c>
+      <c r="S77">
+        <v>570</v>
+      </c>
+      <c r="T77" s="1">
+        <v>0.73440643863199995</v>
+      </c>
+      <c r="U77" s="1">
+        <v>0.57096424702100002</v>
+      </c>
+      <c r="V77" s="6">
+        <v>0.92456140350899996</v>
+      </c>
+      <c r="W77" s="1">
+        <v>0.41300940438900002</v>
+      </c>
+    </row>
+    <row r="78" spans="17:23">
+      <c r="Q78">
+        <v>0.77</v>
+      </c>
+      <c r="R78">
+        <v>1276</v>
+      </c>
+      <c r="S78">
+        <v>542</v>
+      </c>
+      <c r="T78" s="1">
+        <v>0.72635814889299999</v>
+      </c>
+      <c r="U78" s="1">
+        <v>0.55115511551200003</v>
+      </c>
+      <c r="V78" s="6">
+        <v>0.92435424354200002</v>
+      </c>
+      <c r="W78" s="1">
+        <v>0.39263322884000001</v>
+      </c>
+    </row>
+    <row r="79" spans="17:23">
+      <c r="Q79">
+        <v>0.78</v>
+      </c>
+      <c r="R79">
+        <v>1276</v>
+      </c>
+      <c r="S79">
+        <v>514</v>
+      </c>
+      <c r="T79" s="1">
+        <v>0.71696847753199999</v>
+      </c>
+      <c r="U79" s="1">
+        <v>0.52849162011200002</v>
+      </c>
+      <c r="V79" s="6">
+        <v>0.92023346303499998</v>
+      </c>
+      <c r="W79" s="1">
+        <v>0.37068965517199998</v>
+      </c>
+    </row>
+    <row r="80" spans="17:23">
+      <c r="Q80">
+        <v>0.79</v>
+      </c>
+      <c r="R80">
+        <v>1276</v>
+      </c>
+      <c r="S80">
+        <v>498</v>
+      </c>
+      <c r="T80" s="1">
+        <v>0.71227364185099995</v>
+      </c>
+      <c r="U80" s="1">
+        <v>0.51634723788000003</v>
+      </c>
+      <c r="V80" s="6">
+        <v>0.91967871485899999</v>
+      </c>
+      <c r="W80" s="1">
+        <v>0.35893416927900001</v>
+      </c>
+    </row>
+    <row r="81" spans="17:23">
+      <c r="Q81">
+        <v>0.8</v>
+      </c>
+      <c r="R81">
+        <v>1276</v>
+      </c>
+      <c r="S81">
+        <v>481</v>
+      </c>
+      <c r="T81" s="1">
+        <v>0.70925553319900003</v>
+      </c>
+      <c r="U81" s="1">
+        <v>0.50654524758099995</v>
+      </c>
+      <c r="V81" s="6">
+        <v>0.92515592515599998</v>
+      </c>
+      <c r="W81" s="1">
+        <v>0.34874608150500003</v>
+      </c>
+    </row>
+    <row r="82" spans="17:23">
+      <c r="Q82">
+        <v>0.81</v>
+      </c>
+      <c r="R82">
+        <v>1276</v>
+      </c>
+      <c r="S82">
+        <v>449</v>
+      </c>
+      <c r="T82" s="1">
+        <v>0.70590207914199998</v>
+      </c>
+      <c r="U82" s="1">
+        <v>0.49159420289900002</v>
+      </c>
+      <c r="V82" s="6">
+        <v>0.94432071269499995</v>
+      </c>
+      <c r="W82" s="1">
+        <v>0.332288401254</v>
+      </c>
+    </row>
+    <row r="83" spans="17:23">
+      <c r="Q83">
+        <v>0.82</v>
+      </c>
+      <c r="R83">
+        <v>1276</v>
+      </c>
+      <c r="S83">
+        <v>430</v>
+      </c>
+      <c r="T83" s="1">
+        <v>0.70087189805500005</v>
+      </c>
+      <c r="U83" s="1">
+        <v>0.47713950762000001</v>
+      </c>
+      <c r="V83" s="6">
+        <v>0.94651162790700005</v>
+      </c>
+      <c r="W83" s="1">
+        <v>0.31896551724099997</v>
+      </c>
+    </row>
+    <row r="84" spans="17:23">
+      <c r="Q84">
+        <v>0.83</v>
+      </c>
+      <c r="R84">
+        <v>1276</v>
+      </c>
+      <c r="S84">
+        <v>405</v>
+      </c>
+      <c r="T84" s="1">
+        <v>0.69382964453399998</v>
+      </c>
+      <c r="U84" s="1">
+        <v>0.45687091017300002</v>
+      </c>
+      <c r="V84" s="6">
+        <v>0.94814814814799997</v>
+      </c>
+      <c r="W84" s="1">
+        <v>0.30094043887100003</v>
+      </c>
+    </row>
+    <row r="85" spans="17:23">
+      <c r="Q85">
+        <v>0.84</v>
+      </c>
+      <c r="R85">
+        <v>1276</v>
+      </c>
+      <c r="S85">
+        <v>382</v>
+      </c>
+      <c r="T85" s="1">
+        <v>0.68611670020100002</v>
+      </c>
+      <c r="U85" s="1">
+        <v>0.43546441495799998</v>
+      </c>
+      <c r="V85" s="6">
+        <v>0.94502617801</v>
+      </c>
+      <c r="W85" s="1">
+        <v>0.282915360502</v>
+      </c>
+    </row>
+    <row r="86" spans="17:23">
+      <c r="Q86">
+        <v>0.85</v>
+      </c>
+      <c r="R86">
+        <v>1276</v>
+      </c>
+      <c r="S86">
+        <v>366</v>
+      </c>
+      <c r="T86" s="1">
+        <v>0.68209255533199997</v>
+      </c>
+      <c r="U86" s="1">
+        <v>0.422655298417</v>
+      </c>
+      <c r="V86" s="6">
+        <v>0.948087431694</v>
+      </c>
+      <c r="W86" s="1">
+        <v>0.27194357366799998</v>
+      </c>
+    </row>
+    <row r="87" spans="17:23">
+      <c r="Q87">
+        <v>0.86</v>
+      </c>
+      <c r="R87">
+        <v>1276</v>
+      </c>
+      <c r="S87">
+        <v>339</v>
+      </c>
+      <c r="T87" s="1">
+        <v>0.67572099262200003</v>
+      </c>
+      <c r="U87" s="1">
+        <v>0.401238390093</v>
+      </c>
+      <c r="V87" s="6">
+        <v>0.95575221238899999</v>
+      </c>
+      <c r="W87" s="1">
+        <v>0.25391849529799998</v>
+      </c>
+    </row>
+    <row r="88" spans="17:23">
+      <c r="Q88">
+        <v>0.87</v>
+      </c>
+      <c r="R88">
+        <v>1276</v>
+      </c>
+      <c r="S88">
+        <v>318</v>
+      </c>
+      <c r="T88" s="1">
+        <v>0.66934942991299995</v>
+      </c>
+      <c r="U88" s="1">
+        <v>0.38143036386399998</v>
+      </c>
+      <c r="V88" s="6">
+        <v>0.95597484276699995</v>
+      </c>
+      <c r="W88" s="1">
+        <v>0.23824451410700001</v>
+      </c>
+    </row>
+    <row r="89" spans="17:23">
+      <c r="Q89">
+        <v>0.88</v>
+      </c>
+      <c r="R89">
+        <v>1276</v>
+      </c>
+      <c r="S89">
+        <v>290</v>
+      </c>
+      <c r="T89" s="1">
+        <v>0.66130114017399999</v>
+      </c>
+      <c r="U89" s="1">
+        <v>0.35504469987199999</v>
+      </c>
+      <c r="V89" s="6">
+        <v>0.95862068965500002</v>
+      </c>
+      <c r="W89" s="1">
+        <v>0.217868338558</v>
+      </c>
+    </row>
+    <row r="90" spans="17:23">
+      <c r="Q90">
+        <v>0.89</v>
+      </c>
+      <c r="R90">
+        <v>1276</v>
+      </c>
+      <c r="S90">
+        <v>262</v>
+      </c>
+      <c r="T90" s="1">
+        <v>0.65258215962400001</v>
+      </c>
+      <c r="U90" s="1">
+        <v>0.32639791937599999</v>
+      </c>
+      <c r="V90" s="6">
+        <v>0.95801526717600005</v>
+      </c>
+      <c r="W90" s="1">
+        <v>0.19670846395</v>
+      </c>
+    </row>
+    <row r="91" spans="17:23">
+      <c r="Q91">
+        <v>0.9</v>
+      </c>
+      <c r="R91">
+        <v>1276</v>
+      </c>
+      <c r="S91">
+        <v>239</v>
+      </c>
+      <c r="T91" s="1">
+        <v>0.64621059691500005</v>
+      </c>
+      <c r="U91" s="1">
+        <v>0.30363036303599999</v>
+      </c>
+      <c r="V91" s="6">
+        <v>0.96234309623400005</v>
+      </c>
+      <c r="W91" s="1">
+        <v>0.18025078369899999</v>
+      </c>
+    </row>
+    <row r="92" spans="17:23">
+      <c r="Q92">
+        <v>0.91</v>
+      </c>
+      <c r="R92">
+        <v>1276</v>
+      </c>
+      <c r="S92">
+        <v>217</v>
+      </c>
+      <c r="T92" s="1">
+        <v>0.64017437961099999</v>
+      </c>
+      <c r="U92" s="1">
+        <v>0.28131279303399997</v>
+      </c>
+      <c r="V92" s="6">
+        <v>0.967741935484</v>
+      </c>
+      <c r="W92" s="1">
+        <v>0.164576802508</v>
+      </c>
+    </row>
+    <row r="93" spans="17:23">
+      <c r="Q93">
+        <v>0.92</v>
+      </c>
+      <c r="R93">
+        <v>1276</v>
+      </c>
+      <c r="S93">
+        <v>194</v>
+      </c>
+      <c r="T93" s="1">
+        <v>0.63313212609000002</v>
+      </c>
+      <c r="U93" s="1">
+        <v>0.25578231292499998</v>
+      </c>
+      <c r="V93" s="6">
+        <v>0.96907216494799997</v>
+      </c>
+      <c r="W93" s="1">
+        <v>0.14733542319699999</v>
+      </c>
+    </row>
+    <row r="94" spans="17:23">
+      <c r="Q94">
+        <v>0.93</v>
+      </c>
+      <c r="R94">
+        <v>1276</v>
+      </c>
+      <c r="S94">
+        <v>161</v>
+      </c>
+      <c r="T94" s="1">
+        <v>0.62474849094600005</v>
+      </c>
+      <c r="U94" s="1">
+        <v>0.221294363257</v>
+      </c>
+      <c r="V94" s="6">
+        <v>0.98757763975199997</v>
+      </c>
+      <c r="W94" s="1">
+        <v>0.12460815047</v>
+      </c>
+    </row>
+    <row r="95" spans="17:23">
+      <c r="Q95">
+        <v>0.94</v>
+      </c>
+      <c r="R95">
+        <v>1276</v>
+      </c>
+      <c r="S95">
+        <v>129</v>
+      </c>
+      <c r="T95" s="1">
+        <v>0.61535881958399996</v>
+      </c>
+      <c r="U95" s="1">
+        <v>0.183629893238</v>
+      </c>
+      <c r="V95" s="6">
+        <v>1</v>
+      </c>
+      <c r="W95" s="1">
+        <v>0.101097178683</v>
+      </c>
+    </row>
+    <row r="96" spans="17:23">
+      <c r="Q96">
+        <v>0.95</v>
+      </c>
+      <c r="R96">
+        <v>1276</v>
+      </c>
+      <c r="S96">
+        <v>94</v>
+      </c>
+      <c r="T96" s="1">
+        <v>0.60362173038199995</v>
+      </c>
+      <c r="U96" s="1">
+        <v>0.13722627737199999</v>
+      </c>
+      <c r="V96" s="6">
+        <v>1</v>
+      </c>
+      <c r="W96" s="1">
+        <v>7.3667711598700003E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="17:23">
+      <c r="Q97">
+        <v>0.96</v>
+      </c>
+      <c r="R97">
+        <v>1276</v>
+      </c>
+      <c r="S97">
+        <v>72</v>
+      </c>
+      <c r="T97" s="1">
+        <v>0.59624413145499999</v>
+      </c>
+      <c r="U97" s="1">
+        <v>0.106824925816</v>
+      </c>
+      <c r="V97" s="6">
+        <v>1</v>
+      </c>
+      <c r="W97" s="1">
+        <v>5.6426332288400001E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="17:23">
+      <c r="Q98">
+        <v>0.97</v>
+      </c>
+      <c r="R98">
+        <v>1276</v>
+      </c>
+      <c r="S98">
+        <v>51</v>
+      </c>
+      <c r="T98" s="1">
+        <v>0.58920187793400003</v>
+      </c>
+      <c r="U98" s="1">
+        <v>7.6865109269000004E-2</v>
+      </c>
+      <c r="V98" s="6">
+        <v>1</v>
+      </c>
+      <c r="W98" s="1">
+        <v>3.99686520376E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="17:23">
+      <c r="Q99">
+        <v>0.98</v>
+      </c>
+      <c r="R99">
+        <v>1276</v>
+      </c>
+      <c r="S99">
+        <v>24</v>
+      </c>
+      <c r="T99" s="1">
+        <v>0.58014755197900003</v>
+      </c>
+      <c r="U99" s="1">
+        <v>3.6923076923099998E-2</v>
+      </c>
+      <c r="V99" s="6">
+        <v>1</v>
+      </c>
+      <c r="W99" s="1">
+        <v>1.88087774295E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="17:23">
+      <c r="Q100">
+        <v>0.99</v>
+      </c>
+      <c r="R100">
+        <v>1276</v>
+      </c>
+      <c r="S100">
+        <v>5</v>
+      </c>
+      <c r="T100" s="1">
+        <v>0.57377598926899998</v>
+      </c>
+      <c r="U100" s="1">
+        <v>7.8064012490200001E-3</v>
+      </c>
+      <c r="V100" s="6">
+        <v>1</v>
+      </c>
+      <c r="W100" s="1">
+        <v>3.9184952978099999E-3</v>
       </c>
     </row>
   </sheetData>
